--- a/bench.xlsx
+++ b/bench.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chgeuer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chgeuer\Desktop\Azure Fast Track\#Moshik\SQream Technologies\src\ParallelDownload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE8D3A2-2AA2-4E6B-9D0C-8B45308A09AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE003860-5D8B-4F27-9691-BE35FEC9690B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{FEA465FA-9062-4B2B-9BE7-0A2529C1F021}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="raw" sheetId="1" r:id="rId1"/>
+    <sheet name="diagrams" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="36">
   <si>
     <t>Number of parallel downloads</t>
   </si>
@@ -136,14 +135,23 @@
   <si>
     <t># of streams</t>
   </si>
+  <si>
+    <t>Standard_F64s_v2</t>
+  </si>
+  <si>
+    <t>Standard_F64s_v2 enabled</t>
+  </si>
+  <si>
+    <t>Standard_F4s_v2 Enabled</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="173" formatCode="0\ &quot;sec&quot;"/>
-    <numFmt numFmtId="174" formatCode="0\ &quot;Mbit/s&quot;"/>
+    <numFmt numFmtId="164" formatCode="0\ &quot;sec&quot;"/>
+    <numFmt numFmtId="165" formatCode="0\ &quot;Mbit/s&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -168,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -176,58 +184,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
     <dxf>
-      <numFmt numFmtId="173" formatCode="0\ &quot;sec&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0\ &quot;sec&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0\ &quot;sec&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0\ &quot;sec&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0\ &quot;sec&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0\ &quot;sec&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0\ &quot;sec&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0\ &quot;sec&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0\ &quot;sec&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0\ &quot;sec&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0\ &quot;sec&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0\ &quot;sec&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0\ &quot;sec&quot;"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -266,7 +250,43 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="164" formatCode="0\ &quot;sec&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0\ &quot;sec&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0\ &quot;sec&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0\ &quot;sec&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0\ &quot;sec&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0\ &quot;sec&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0\ &quot;sec&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0\ &quot;sec&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0\ &quot;sec&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0\ &quot;sec&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0\ &quot;sec&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0\ &quot;sec&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0\ &quot;sec&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -316,11 +336,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Time</a:t>
+              <a:t>Overall</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> to download a 128GB blob (1GB block size)</a:t>
+              <a:t> time to download 128GB from a single ZRS blob into a VM, based on VM type and # of concurrent range requests</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -366,11 +386,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$C$10</c:f>
+              <c:f>diagrams!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standard_F32s_v2 enabled</c:v>
+                  <c:v>Standard_F4s_v2 enabled</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -389,7 +409,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$D$9:$P$9</c:f>
+              <c:f>diagrams!$B$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -436,48 +456,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$10:$P$10</c:f>
+              <c:f>diagrams!$B$3:$N$3</c:f>
               <c:numCache>
                 <c:formatCode>0\ "sec"</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1015.1907108</c:v>
+                  <c:v>1043.7671746000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>514.97431129999995</c:v>
+                  <c:v>541.62362370000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>364.32382660000002</c:v>
+                  <c:v>403.57800859999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>289.71701780000001</c:v>
+                  <c:v>287.19364460000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>221.7066317</c:v>
+                  <c:v>277.23140330000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>140.91504789999999</c:v>
+                  <c:v>253.27156389999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>103.82829270000001</c:v>
+                  <c:v>214.72702090000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76.905319700000007</c:v>
+                  <c:v>188.29820910000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>78.022894699999995</c:v>
+                  <c:v>186.2408015</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>68.399199199999998</c:v>
+                  <c:v>184.34304359999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64.968697800000001</c:v>
+                  <c:v>177.94947999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57.703642899999998</c:v>
+                  <c:v>180.3744901</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.710804500000002</c:v>
+                  <c:v>175.06794790000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -485,7 +505,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6FD0-4510-B948-2583CF414E39}"/>
+              <c16:uniqueId val="{00000000-E851-459F-AC68-7BF8568026B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -494,11 +514,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$C$11</c:f>
+              <c:f>diagrams!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standard_F16s_v2 enabled</c:v>
+                  <c:v>Standard_F16s_v2 disabled</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -517,7 +537,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$D$9:$P$9</c:f>
+              <c:f>diagrams!$B$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -564,48 +584,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$11:$P$11</c:f>
+              <c:f>diagrams!$B$4:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>0\ "sec"</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1071.6672612</c:v>
+                  <c:v>1344.571371</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>529.56374740000001</c:v>
+                  <c:v>683.44848709999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>369.62835799999999</c:v>
+                  <c:v>491.68080609999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>281.5555918</c:v>
+                  <c:v>396.3799272</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>239.8264211</c:v>
+                  <c:v>323.02177549999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>149.60218459999999</c:v>
+                  <c:v>200.98798959999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>106.76822009999999</c:v>
+                  <c:v>154.59785679999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85.661810099999997</c:v>
+                  <c:v>115.99432830000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>87.795216800000006</c:v>
+                  <c:v>115.2029709</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>68.875424800000005</c:v>
+                  <c:v>109.7016514</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67.065877700000001</c:v>
+                  <c:v>106.9848475</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>56.771806599999998</c:v>
+                  <c:v>114.6617182</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51.3149388</c:v>
+                  <c:v>119.5849667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -613,7 +633,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6FD0-4510-B948-2583CF414E39}"/>
+              <c16:uniqueId val="{00000001-E851-459F-AC68-7BF8568026B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -622,11 +642,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$C$12</c:f>
+              <c:f>diagrams!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standard_F16s_v2 disabled</c:v>
+                  <c:v>Standard_F16s_v2 enabled</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -645,7 +665,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$D$9:$P$9</c:f>
+              <c:f>diagrams!$B$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -692,48 +712,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$12:$P$12</c:f>
+              <c:f>diagrams!$B$5:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>0\ "sec"</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1344.571371</c:v>
+                  <c:v>1071.6672612</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>683.44848709999997</c:v>
+                  <c:v>529.56374740000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.68080609999998</c:v>
+                  <c:v>369.62835799999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>396.3799272</c:v>
+                  <c:v>281.5555918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>323.02177549999999</c:v>
+                  <c:v>239.8264211</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>200.98798959999999</c:v>
+                  <c:v>149.60218459999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>154.59785679999999</c:v>
+                  <c:v>106.76822009999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>115.99432830000001</c:v>
+                  <c:v>85.661810099999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>115.2029709</c:v>
+                  <c:v>87.795216800000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109.7016514</c:v>
+                  <c:v>68.875424800000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>106.9848475</c:v>
+                  <c:v>67.065877700000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>114.6617182</c:v>
+                  <c:v>56.771806599999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>119.5849667</c:v>
+                  <c:v>51.3149388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -741,7 +761,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6FD0-4510-B948-2583CF414E39}"/>
+              <c16:uniqueId val="{00000002-E851-459F-AC68-7BF8568026B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -750,11 +770,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$C$13</c:f>
+              <c:f>diagrams!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standard_F4s_v2 enabled</c:v>
+                  <c:v>Standard_F32s_v2 enabled</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -773,7 +793,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$D$9:$P$9</c:f>
+              <c:f>diagrams!$B$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -820,48 +840,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$13:$P$13</c:f>
+              <c:f>diagrams!$B$6:$N$6</c:f>
               <c:numCache>
                 <c:formatCode>0\ "sec"</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1043.7671746000001</c:v>
+                  <c:v>1015.1907108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>541.62362370000005</c:v>
+                  <c:v>514.97431129999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>403.57800859999998</c:v>
+                  <c:v>364.32382660000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>287.19364460000003</c:v>
+                  <c:v>289.71701780000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>277.23140330000001</c:v>
+                  <c:v>221.7066317</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>253.27156389999999</c:v>
+                  <c:v>140.91504789999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>214.72702090000001</c:v>
+                  <c:v>103.82829270000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>188.29820910000001</c:v>
+                  <c:v>76.905319700000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>186.2408015</c:v>
+                  <c:v>78.022894699999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>184.34304359999999</c:v>
+                  <c:v>68.399199199999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>177.94947999999999</c:v>
+                  <c:v>64.968697800000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>180.3744901</c:v>
+                  <c:v>57.703642899999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>175.06794790000001</c:v>
+                  <c:v>49.710804500000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -869,7 +889,135 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6FD0-4510-B948-2583CF414E39}"/>
+              <c16:uniqueId val="{00000003-E851-459F-AC68-7BF8568026B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>diagrams!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard_F64s_v2 enabled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>diagrams!$B$2:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>diagrams!$B$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>0\ "sec"</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>995.68664060000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>518.34310159999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>334.7720233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280.22020839999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>218.21667289999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>149.52983810000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.02213740000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.941544899999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.752750899999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.059433900000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.573067500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.780693900000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.388834899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E851-459F-AC68-7BF8568026B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -882,76 +1030,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="877688239"/>
-        <c:axId val="877684079"/>
+        <c:axId val="1393130672"/>
+        <c:axId val="1393142736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="877688239"/>
+        <c:axId val="1393130672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t># of parallel</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> downloads</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -989,7 +1077,7 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="877684079"/>
+        <c:crossAx val="1393142736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -997,7 +1085,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="877684079"/>
+        <c:axId val="1393142736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,61 +1105,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Download for 128GB</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="0\ &quot;sec&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1103,10 +1136,49 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="877688239"/>
+        <c:crossAx val="1393130672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1208,11 +1280,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$11</c:f>
+              <c:f>diagrams!$P$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standard_F16s_v2 Disabled</c:v>
+                  <c:v>Standard_F4s_v2 Enabled</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1250,7 +1322,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$C$10:$O$10</c:f>
+              <c:f>diagrams!$Q$2:$AC$2</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -1297,48 +1369,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$11:$O$11</c:f>
+              <c:f>diagrams!$Q$3:$AC$3</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0\ "Mbit/s"</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>781.38890624999965</c:v>
+                  <c:v>1004.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1536.6403124999999</c:v>
+                  <c:v>1935.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2133.3379069767443</c:v>
+                  <c:v>2598.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2658.5090624999998</c:v>
+                  <c:v>3651.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3244.6634615384614</c:v>
+                  <c:v>3782.31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5221.3943749999999</c:v>
+                  <c:v>4140.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6805.9827272727271</c:v>
+                  <c:v>4883.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9062.8975000000009</c:v>
+                  <c:v>5568.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9027.3799999999992</c:v>
+                  <c:v>5630.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9053.9783333333344</c:v>
+                  <c:v>5688.18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9439.344000000001</c:v>
+                  <c:v>5892.55</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8573.3150000000005</c:v>
+                  <c:v>5813.33</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8637.1466666666674</c:v>
+                  <c:v>5989.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1346,7 +1418,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7F15-4EBD-85C7-33450CB6BA80}"/>
+              <c16:uniqueId val="{00000000-2325-4BCE-91F9-AED571BCAA41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1355,11 +1427,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$12</c:f>
+              <c:f>diagrams!$P$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standard_F16s_v2 Enabled</c:v>
+                  <c:v>Standard_F16s_v2 Disabled</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1371,12 +1443,13 @@
                   <a:tint val="55000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
+            <c:symbol val="diamond"/>
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
@@ -1397,7 +1470,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$C$10:$O$10</c:f>
+              <c:f>diagrams!$Q$2:$AC$2</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -1444,48 +1517,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$12:$O$12</c:f>
+              <c:f>diagrams!$Q$4:$AC$4</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0\ "Mbit/s"</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>981.33250000000032</c:v>
+                  <c:v>781.38890624999965</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1983.6265624999999</c:v>
+                  <c:v>1536.6403124999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2841.5258139534885</c:v>
+                  <c:v>2133.3379069767443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3730.1343750000001</c:v>
+                  <c:v>2658.5090624999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4378.0676923076926</c:v>
+                  <c:v>3244.6634615384614</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7019.6862500000007</c:v>
+                  <c:v>5221.3943749999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9803.6054545454554</c:v>
+                  <c:v>6805.9827272727271</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12308.986249999998</c:v>
+                  <c:v>9062.8975000000009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11828.464285714284</c:v>
+                  <c:v>9027.3799999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14633.095000000001</c:v>
+                  <c:v>9053.9783333333344</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15271.769999999999</c:v>
+                  <c:v>9439.344000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17378.237499999999</c:v>
+                  <c:v>8573.3150000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20107.003333333334</c:v>
+                  <c:v>8637.1466666666674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1493,7 +1566,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7F15-4EBD-85C7-33450CB6BA80}"/>
+              <c16:uniqueId val="{00000001-2325-4BCE-91F9-AED571BCAA41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1502,11 +1575,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$13</c:f>
+              <c:f>diagrams!$P$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standard_F32s_v2 Enabled</c:v>
+                  <c:v>Standard_F16s_v2 Enabled</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1518,13 +1591,12 @@
                   <a:tint val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
+            <c:symbol val="square"/>
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
@@ -1545,7 +1617,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$C$10:$O$10</c:f>
+              <c:f>diagrams!$Q$2:$AC$2</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -1592,48 +1664,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$13:$O$13</c:f>
+              <c:f>diagrams!$Q$5:$AC$5</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0\ "Mbit/s"</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1037.7700781249998</c:v>
+                  <c:v>981.33250000000032</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2037.5092187499997</c:v>
+                  <c:v>1983.6265624999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2882.2546511627897</c:v>
+                  <c:v>2841.5258139534885</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3628.8459375000007</c:v>
+                  <c:v>3730.1343750000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4731.0473076923072</c:v>
+                  <c:v>4378.0676923076926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7450.7731250000006</c:v>
+                  <c:v>7019.6862500000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10124.063636363639</c:v>
+                  <c:v>9803.6054545454554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13688.836250000002</c:v>
+                  <c:v>12308.986249999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13537.88</c:v>
+                  <c:v>11828.464285714284</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15073.210000000001</c:v>
+                  <c:v>14633.095000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15951.848000000002</c:v>
+                  <c:v>15271.769999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17514.327499999999</c:v>
+                  <c:v>17378.237499999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21104.813333333335</c:v>
+                  <c:v>20107.003333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1641,7 +1713,298 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7F15-4EBD-85C7-33450CB6BA80}"/>
+              <c16:uniqueId val="{00000002-2325-4BCE-91F9-AED571BCAA41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>diagrams!$P$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard_F32s_v2 Enabled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="98500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="98500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="98500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>diagrams!$Q$2:$AC$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>diagrams!$Q$6:$AC$6</c:f>
+              <c:numCache>
+                <c:formatCode>0\ "Mbit/s"</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1037.7700781249998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2037.5092187499997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2882.2546511627897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3628.8459375000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4731.0473076923072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7450.7731250000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10124.063636363639</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13688.836250000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13537.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15073.210000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15951.848000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17514.327499999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21104.813333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2325-4BCE-91F9-AED571BCAA41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>diagrams!$P$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard_F64s_v2 enabled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>diagrams!$Q$2:$AC$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>diagrams!$Q$7:$AC$7</c:f>
+              <c:numCache>
+                <c:formatCode>0\ "Mbit/s"</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1053.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3132.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3741.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4805.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7012.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8736.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12642.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15251.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17458.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21152.13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21495.72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25962.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2325-4BCE-91F9-AED571BCAA41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1840,7 +2203,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0\ &quot;Mbit/s&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3072,23 +3435,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3174</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>160070</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B200E3-44CC-49A4-9816-6158847153DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C3E696-7E59-42DD-82F2-71C0E921F8D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3106,34 +3469,31 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>403225</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D040A67A-BCFE-4182-88FB-017FFD9CB9E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F30211E-3E42-426F-9A1A-5A4372FD38DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3141,7 +3501,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3151,46 +3511,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7BDD00DD-3781-437F-B8EF-B8F20773EE36}" name="Table2" displayName="Table2" ref="C9:P13" totalsRowShown="0">
-  <autoFilter ref="C9:P13" xr:uid="{7BDD00DD-3781-437F-B8EF-B8F20773EE36}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7BDD00DD-3781-437F-B8EF-B8F20773EE36}" name="Table2" displayName="Table2" ref="A2:N7" totalsRowShown="0">
+  <autoFilter ref="A2:N7" xr:uid="{7BDD00DD-3781-437F-B8EF-B8F20773EE36}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N7">
+    <sortCondition ref="A2:A7"/>
+  </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{1E742399-FD6D-4114-8B72-E80043BD978A}" name="# of streams"/>
-    <tableColumn id="2" xr3:uid="{01C794DA-E21C-459C-9246-BBEC2B826E67}" name="1" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{3C7D6020-9834-41DC-A186-033F37A19EF4}" name="2" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{03EB218F-33DF-4AAB-8B16-5ABFBC66C52F}" name="3" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{3F7859A4-6901-43D5-A050-02AB951057A2}" name="4" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{E8051974-37D9-44FA-98DD-F11240D7F7D3}" name="5" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{AB11C4EC-E080-4997-8204-047AE676C060}" name="8" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{33A31BE9-87C3-43F9-A4BC-C4532B8B8F95}" name="12" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{88656082-44EC-47AA-B8C7-EEE8DCBB9707}" name="16" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{5329D850-9B53-4747-A42A-71C54475C222}" name="20" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{0729E13E-D0F9-4F87-AA84-2C4549BF7218}" name="25" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{17C68972-B787-47BC-B353-A9111D9FF356}" name="30" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{FF85DB02-6A6C-436B-B690-E25901EFF0D4}" name="40" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{C9EDCC20-66F0-43A2-8E55-3F6E9B69A654}" name="50" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{01C794DA-E21C-459C-9246-BBEC2B826E67}" name="1" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{3C7D6020-9834-41DC-A186-033F37A19EF4}" name="2" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{03EB218F-33DF-4AAB-8B16-5ABFBC66C52F}" name="3" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{3F7859A4-6901-43D5-A050-02AB951057A2}" name="4" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{E8051974-37D9-44FA-98DD-F11240D7F7D3}" name="5" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{AB11C4EC-E080-4997-8204-047AE676C060}" name="8" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{33A31BE9-87C3-43F9-A4BC-C4532B8B8F95}" name="12" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{88656082-44EC-47AA-B8C7-EEE8DCBB9707}" name="16" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{5329D850-9B53-4747-A42A-71C54475C222}" name="20" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{0729E13E-D0F9-4F87-AA84-2C4549BF7218}" name="25" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{17C68972-B787-47BC-B353-A9111D9FF356}" name="30" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{FF85DB02-6A6C-436B-B690-E25901EFF0D4}" name="40" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{C9EDCC20-66F0-43A2-8E55-3F6E9B69A654}" name="50" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB8434B5-CBF4-40F3-8429-54CBA777122A}" name="Table1" displayName="Table1" ref="B10:O13" totalsRowShown="0">
-  <autoFilter ref="B10:O13" xr:uid="{FB8434B5-CBF4-40F3-8429-54CBA777122A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB8434B5-CBF4-40F3-8429-54CBA777122A}" name="Table1" displayName="Table1" ref="P2:AC7" totalsRowShown="0">
+  <autoFilter ref="P2:AC7" xr:uid="{FB8434B5-CBF4-40F3-8429-54CBA777122A}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{D8ECE691-65FB-44BD-9A23-C8AE07545892}" name="Concurrent Downloads"/>
-    <tableColumn id="2" xr3:uid="{C9A0FC86-82CB-4F30-8379-9362B7CDBFA6}" name="1" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{4544F79B-DFD4-4791-BA54-E0313D917F85}" name="2" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{27ACEFBF-271F-47FC-962C-0AFB4E9A46A4}" name="3" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{D34A8D5E-DD81-4FAD-BEFF-DD4853B21D8D}" name="4" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{7B3EB26E-037C-4B6E-A10D-1A0382C4C988}" name="5" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{F0BB3099-FE53-4E58-82AA-96BC0879D4C1}" name="8" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{C8451C20-6145-45F8-92E2-2F6271CFE940}" name="12" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{F4E20115-54AA-4D7D-BBC5-5F06F063DA25}" name="16" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{68C3CED8-E2E5-48E2-99B9-698042EFE76E}" name="20" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{D31CE5F6-8E77-4BC1-AED7-B9C003CCB97B}" name="25" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{689F2006-EEB4-4716-B136-DE1518BDE6C8}" name="30" dataDxfId="15"/>
-    <tableColumn id="13" xr3:uid="{DBF5AE2F-1255-4C2E-9383-6F81BA8207A2}" name="40" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{2021BDED-AFC0-4D33-A906-DA43ECBF767E}" name="50" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{C9A0FC86-82CB-4F30-8379-9362B7CDBFA6}" name="1" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{4544F79B-DFD4-4791-BA54-E0313D917F85}" name="2" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{27ACEFBF-271F-47FC-962C-0AFB4E9A46A4}" name="3" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{D34A8D5E-DD81-4FAD-BEFF-DD4853B21D8D}" name="4" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{7B3EB26E-037C-4B6E-A10D-1A0382C4C988}" name="5" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{F0BB3099-FE53-4E58-82AA-96BC0879D4C1}" name="8" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{C8451C20-6145-45F8-92E2-2F6271CFE940}" name="12" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{F4E20115-54AA-4D7D-BBC5-5F06F063DA25}" name="16" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{68C3CED8-E2E5-48E2-99B9-698042EFE76E}" name="20" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{D31CE5F6-8E77-4BC1-AED7-B9C003CCB97B}" name="25" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{689F2006-EEB4-4716-B136-DE1518BDE6C8}" name="30" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{DBF5AE2F-1255-4C2E-9383-6F81BA8207A2}" name="40" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{2021BDED-AFC0-4D33-A906-DA43ECBF767E}" name="50" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3493,15 +3856,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CE4B37-856E-40E0-9A51-108C0DDE3B53}">
-  <dimension ref="A1:BJ253"/>
+  <dimension ref="A1:BX253"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AR1"/>
+    <sheetView topLeftCell="AQ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AW5" sqref="AW5:BI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3661,8 +4024,47 @@
       <c r="BI1">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="BL1">
+        <v>1</v>
+      </c>
+      <c r="BM1">
+        <v>2</v>
+      </c>
+      <c r="BN1">
+        <v>3</v>
+      </c>
+      <c r="BO1">
+        <v>4</v>
+      </c>
+      <c r="BP1">
+        <v>5</v>
+      </c>
+      <c r="BQ1">
+        <v>8</v>
+      </c>
+      <c r="BR1">
+        <v>12</v>
+      </c>
+      <c r="BS1">
+        <v>16</v>
+      </c>
+      <c r="BT1">
+        <v>20</v>
+      </c>
+      <c r="BU1">
+        <v>25</v>
+      </c>
+      <c r="BV1">
+        <v>30</v>
+      </c>
+      <c r="BW1">
+        <v>40</v>
+      </c>
+      <c r="BX1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3870,8 +4272,47 @@
         <f t="shared" si="3"/>
         <v>Standard_F4s_v2</v>
       </c>
-    </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="BL2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4031,8 +4472,47 @@
       <c r="BI3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="BL3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4193,8 +4673,47 @@
       <c r="BI4" s="2">
         <v>175.06794790000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL4" s="2">
+        <v>995.68664060000003</v>
+      </c>
+      <c r="BM4" s="2">
+        <v>518.34310159999995</v>
+      </c>
+      <c r="BN4" s="2">
+        <v>334.7720233</v>
+      </c>
+      <c r="BO4" s="2">
+        <v>280.22020839999999</v>
+      </c>
+      <c r="BP4" s="2">
+        <v>218.21667289999999</v>
+      </c>
+      <c r="BQ4" s="2">
+        <v>149.52983810000001</v>
+      </c>
+      <c r="BR4" s="2">
+        <v>120.02213740000001</v>
+      </c>
+      <c r="BS4" s="2">
+        <v>82.941544899999997</v>
+      </c>
+      <c r="BT4" s="2">
+        <v>68.752750899999995</v>
+      </c>
+      <c r="BU4" s="2">
+        <v>60.059433900000002</v>
+      </c>
+      <c r="BV4" s="2">
+        <v>49.573067500000001</v>
+      </c>
+      <c r="BW4" s="2">
+        <v>48.780693900000003</v>
+      </c>
+      <c r="BX4" s="2">
+        <v>40.388834899999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -4354,8 +4873,47 @@
       <c r="BI5" s="3">
         <v>5989.54</v>
       </c>
-    </row>
-    <row r="6" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL5" s="3">
+        <v>1053.1199999999999</v>
+      </c>
+      <c r="BM5" s="3">
+        <v>2022.94</v>
+      </c>
+      <c r="BN5" s="3">
+        <v>3132.21</v>
+      </c>
+      <c r="BO5" s="3">
+        <v>3741.97</v>
+      </c>
+      <c r="BP5" s="3">
+        <v>4805.21</v>
+      </c>
+      <c r="BQ5" s="3">
+        <v>7012.49</v>
+      </c>
+      <c r="BR5" s="3">
+        <v>8736.52</v>
+      </c>
+      <c r="BS5" s="3">
+        <v>12642.35</v>
+      </c>
+      <c r="BT5" s="3">
+        <v>15251.4</v>
+      </c>
+      <c r="BU5" s="3">
+        <v>17458.97</v>
+      </c>
+      <c r="BV5" s="3">
+        <v>21152.13</v>
+      </c>
+      <c r="BW5" s="3">
+        <v>21495.72</v>
+      </c>
+      <c r="BX5" s="3">
+        <v>25962.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -4372,7 +4930,7 @@
         <v>2882.2546511627897</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" ref="E6:N6" si="4">AVERAGE(E7:E134)</f>
+        <f t="shared" ref="E6:G6" si="4">AVERAGE(E7:E134)</f>
         <v>3628.8459375000007</v>
       </c>
       <c r="F6" s="3">
@@ -4488,87 +5046,139 @@
         <v>5221.3943749999999</v>
       </c>
       <c r="AL6" s="3">
-        <f>AVERAGE(AL7:AL134)</f>
+        <f t="shared" ref="AL6:AR6" si="15">AVERAGE(AL7:AL134)</f>
         <v>6805.9827272727271</v>
       </c>
       <c r="AM6" s="3">
-        <f>AVERAGE(AM7:AM134)</f>
+        <f t="shared" si="15"/>
         <v>9062.8975000000009</v>
       </c>
       <c r="AN6" s="3">
-        <f>AVERAGE(AN7:AN134)</f>
+        <f t="shared" si="15"/>
         <v>9027.3799999999992</v>
       </c>
       <c r="AO6" s="3">
-        <f>AVERAGE(AO7:AO134)</f>
+        <f t="shared" si="15"/>
         <v>9053.9783333333344</v>
       </c>
       <c r="AP6" s="3">
-        <f>AVERAGE(AP7:AP134)</f>
+        <f t="shared" si="15"/>
         <v>9439.344000000001</v>
       </c>
       <c r="AQ6" s="3">
-        <f>AVERAGE(AQ7:AQ134)</f>
+        <f t="shared" si="15"/>
         <v>8573.3150000000005</v>
       </c>
       <c r="AR6" s="3">
-        <f>AVERAGE(AR7:AR134)</f>
+        <f t="shared" si="15"/>
         <v>8637.1466666666674</v>
       </c>
       <c r="AW6" s="3">
-        <f t="shared" ref="AW6" si="15">AVERAGE(AW7:AW134)</f>
+        <f t="shared" ref="AW6" si="16">AVERAGE(AW7:AW134)</f>
         <v>1011.596171875</v>
       </c>
       <c r="AX6" s="3">
-        <f t="shared" ref="AX6" si="16">AVERAGE(AX7:AX134)</f>
+        <f t="shared" ref="AX6" si="17">AVERAGE(AX7:AX134)</f>
         <v>1938.5110937500006</v>
       </c>
       <c r="AY6" s="3">
-        <f t="shared" ref="AY6" si="17">AVERAGE(AY7:AY134)</f>
+        <f t="shared" ref="AY6" si="18">AVERAGE(AY7:AY134)</f>
         <v>2607.1002325581399</v>
       </c>
       <c r="AZ6" s="3">
-        <f t="shared" ref="AZ6" si="18">AVERAGE(AZ7:AZ134)</f>
+        <f t="shared" ref="AZ6" si="19">AVERAGE(AZ7:AZ134)</f>
         <v>3676.9078125000001</v>
       </c>
       <c r="BA6" s="3">
-        <f t="shared" ref="BA6" si="19">AVERAGE(BA7:BA134)</f>
+        <f t="shared" ref="BA6" si="20">AVERAGE(BA7:BA134)</f>
         <v>3787.3049999999998</v>
       </c>
       <c r="BB6" s="3">
-        <f t="shared" ref="BB6" si="20">AVERAGE(BB7:BB134)</f>
+        <f t="shared" ref="BB6" si="21">AVERAGE(BB7:BB134)</f>
         <v>4154.4093750000002</v>
       </c>
       <c r="BC6" s="3">
-        <f t="shared" ref="BC6" si="21">AVERAGE(BC7:BC134)</f>
+        <f t="shared" ref="BC6" si="22">AVERAGE(BC7:BC134)</f>
         <v>4892.1027272727279</v>
       </c>
       <c r="BD6" s="3">
-        <f t="shared" ref="BD6" si="22">AVERAGE(BD7:BD134)</f>
+        <f t="shared" ref="BD6" si="23">AVERAGE(BD7:BD134)</f>
         <v>5577.0375000000004</v>
       </c>
       <c r="BE6" s="3">
-        <f t="shared" ref="BE6" si="23">AVERAGE(BE7:BE134)</f>
+        <f t="shared" ref="BE6" si="24">AVERAGE(BE7:BE134)</f>
         <v>5578.0414285714287</v>
       </c>
       <c r="BF6" s="3">
-        <f t="shared" ref="BF6" si="24">AVERAGE(BF7:BF134)</f>
+        <f t="shared" ref="BF6" si="25">AVERAGE(BF7:BF134)</f>
         <v>5312.9466666666667</v>
       </c>
       <c r="BG6" s="3">
-        <f t="shared" ref="BG6" si="25">AVERAGE(BG7:BG134)</f>
+        <f t="shared" ref="BG6" si="26">AVERAGE(BG7:BG134)</f>
         <v>5813.8320000000003</v>
       </c>
       <c r="BH6" s="3">
-        <f t="shared" ref="BH6" si="26">AVERAGE(BH7:BH134)</f>
+        <f t="shared" ref="BH6" si="27">AVERAGE(BH7:BH134)</f>
         <v>5552.3950000000004</v>
       </c>
       <c r="BI6" s="3">
-        <f t="shared" ref="BI6" si="27">AVERAGE(BI7:BI134)</f>
+        <f t="shared" ref="BI6" si="28">AVERAGE(BI7:BI134)</f>
         <v>5967.6466666666665</v>
       </c>
-    </row>
-    <row r="7" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL6" s="3">
+        <f t="shared" ref="BL6:BX6" si="29">AVERAGE(BL7:BL134)</f>
+        <v>1058.7120312500001</v>
+      </c>
+      <c r="BM6" s="3">
+        <f>AVERAGE(BM7:BM134)</f>
+        <v>2026.8382812499999</v>
+      </c>
+      <c r="BN6" s="3">
+        <f>AVERAGE(BN7:BN134)</f>
+        <v>3140.4811627906979</v>
+      </c>
+      <c r="BO6" s="3">
+        <f>AVERAGE(BO7:BO134)</f>
+        <v>3915.8699999999981</v>
+      </c>
+      <c r="BP6" s="3">
+        <f>AVERAGE(BP7:BP134)</f>
+        <v>4808.8615384615387</v>
+      </c>
+      <c r="BQ6" s="3">
+        <f>AVERAGE(BQ7:BQ134)</f>
+        <v>7016.6949999999997</v>
+      </c>
+      <c r="BR6" s="3">
+        <f>AVERAGE(BR7:BR134)</f>
+        <v>8776.1072727272713</v>
+      </c>
+      <c r="BS6" s="3">
+        <f>AVERAGE(BS7:BS134)</f>
+        <v>12679.741249999999</v>
+      </c>
+      <c r="BT6" s="3">
+        <f>AVERAGE(BT7:BT134)</f>
+        <v>15116.345714285711</v>
+      </c>
+      <c r="BU6" s="3">
+        <f>AVERAGE(BU7:BU134)</f>
+        <v>17122.543333333331</v>
+      </c>
+      <c r="BV6" s="3">
+        <f>AVERAGE(BV7:BV134)</f>
+        <v>20772.068000000003</v>
+      </c>
+      <c r="BW6" s="3">
+        <f>AVERAGE(BW7:BW134)</f>
+        <v>20916.919999999998</v>
+      </c>
+      <c r="BX6" s="3">
+        <f>AVERAGE(BX7:BX134)</f>
+        <v>25620.91333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>979.72</v>
       </c>
@@ -4728,8 +5338,47 @@
       <c r="BI7" s="3">
         <v>6075.95</v>
       </c>
-    </row>
-    <row r="8" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL7" s="3">
+        <v>1000.28</v>
+      </c>
+      <c r="BM7" s="3">
+        <v>1896.54</v>
+      </c>
+      <c r="BN7" s="3">
+        <v>3178.52</v>
+      </c>
+      <c r="BO7" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP7" s="3">
+        <v>4906.7700000000004</v>
+      </c>
+      <c r="BQ7" s="3">
+        <v>6918.12</v>
+      </c>
+      <c r="BR7" s="3">
+        <v>10932.05</v>
+      </c>
+      <c r="BS7" s="3">
+        <v>11883.72</v>
+      </c>
+      <c r="BT7" s="3">
+        <v>16255.57</v>
+      </c>
+      <c r="BU7" s="3">
+        <v>19548.45</v>
+      </c>
+      <c r="BV7" s="3">
+        <v>23841.5</v>
+      </c>
+      <c r="BW7" s="3">
+        <v>25503.7</v>
+      </c>
+      <c r="BX7" s="3">
+        <v>28449.93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>1044.97</v>
       </c>
@@ -4889,8 +5538,47 @@
       <c r="BI8" s="3">
         <v>5999.79</v>
       </c>
-    </row>
-    <row r="9" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL8" s="3">
+        <v>992.41</v>
+      </c>
+      <c r="BM8" s="3">
+        <v>1910.16</v>
+      </c>
+      <c r="BN8" s="3">
+        <v>3252.4</v>
+      </c>
+      <c r="BO8" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP8" s="3">
+        <v>4803.05</v>
+      </c>
+      <c r="BQ8" s="3">
+        <v>6892.4</v>
+      </c>
+      <c r="BR8" s="3">
+        <v>8847.7800000000007</v>
+      </c>
+      <c r="BS8" s="3">
+        <v>12017.23</v>
+      </c>
+      <c r="BT8" s="3">
+        <v>16088.87</v>
+      </c>
+      <c r="BU8" s="3">
+        <v>18995.7</v>
+      </c>
+      <c r="BV8" s="3">
+        <v>23951.17</v>
+      </c>
+      <c r="BW8" s="3">
+        <v>25852.97</v>
+      </c>
+      <c r="BX8" s="3">
+        <v>29203.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>1044.96</v>
       </c>
@@ -5050,8 +5738,47 @@
       <c r="BI9" s="3">
         <v>5827.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL9" s="3">
+        <v>965.79</v>
+      </c>
+      <c r="BM9" s="3">
+        <v>1935.83</v>
+      </c>
+      <c r="BN9" s="3">
+        <v>3234.97</v>
+      </c>
+      <c r="BO9" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP9" s="3">
+        <v>4937.51</v>
+      </c>
+      <c r="BQ9" s="3">
+        <v>7176.78</v>
+      </c>
+      <c r="BR9" s="3">
+        <v>8875.82</v>
+      </c>
+      <c r="BS9" s="3">
+        <v>11920.84</v>
+      </c>
+      <c r="BT9" s="3">
+        <v>16762.5</v>
+      </c>
+      <c r="BU9" s="3">
+        <v>20151.64</v>
+      </c>
+      <c r="BV9" s="3">
+        <v>24326.13</v>
+      </c>
+      <c r="BW9" s="3">
+        <v>26198.53</v>
+      </c>
+      <c r="BX9" s="3">
+        <v>19209.62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>1019.69</v>
       </c>
@@ -5199,8 +5926,44 @@
       <c r="BH10" s="3">
         <v>4354.6499999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL10" s="3">
+        <v>980.59</v>
+      </c>
+      <c r="BM10" s="3">
+        <v>1920.63</v>
+      </c>
+      <c r="BN10" s="3">
+        <v>3280.99</v>
+      </c>
+      <c r="BO10" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP10" s="3">
+        <v>4759.6400000000003</v>
+      </c>
+      <c r="BQ10" s="3">
+        <v>6786.6</v>
+      </c>
+      <c r="BR10" s="3">
+        <v>9351.86</v>
+      </c>
+      <c r="BS10" s="3">
+        <v>12411.63</v>
+      </c>
+      <c r="BT10" s="3">
+        <v>16558.46</v>
+      </c>
+      <c r="BU10" s="3">
+        <v>20305.580000000002</v>
+      </c>
+      <c r="BV10" s="3">
+        <v>24244.19</v>
+      </c>
+      <c r="BW10" s="3">
+        <v>6112.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>937.43</v>
       </c>
@@ -5336,8 +6099,41 @@
       <c r="BG11" s="3">
         <v>5312.38</v>
       </c>
-    </row>
-    <row r="12" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL11" s="3">
+        <v>980.25</v>
+      </c>
+      <c r="BM11" s="3">
+        <v>1931.03</v>
+      </c>
+      <c r="BN11" s="3">
+        <v>3136.15</v>
+      </c>
+      <c r="BO11" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP11" s="3">
+        <v>4854.33</v>
+      </c>
+      <c r="BQ11" s="3">
+        <v>7070.14</v>
+      </c>
+      <c r="BR11" s="3">
+        <v>8674.82</v>
+      </c>
+      <c r="BS11" s="3">
+        <v>13249.78</v>
+      </c>
+      <c r="BT11" s="3">
+        <v>16416.150000000001</v>
+      </c>
+      <c r="BU11" s="3">
+        <v>20920.84</v>
+      </c>
+      <c r="BV11" s="3">
+        <v>7497.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>1017.11</v>
       </c>
@@ -5461,8 +6257,38 @@
       <c r="BF12" s="3">
         <v>2576.98</v>
       </c>
-    </row>
-    <row r="13" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL12" s="3">
+        <v>937.26</v>
+      </c>
+      <c r="BM12" s="3">
+        <v>1933</v>
+      </c>
+      <c r="BN12" s="3">
+        <v>3218.35</v>
+      </c>
+      <c r="BO12" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP12" s="3">
+        <v>4884.04</v>
+      </c>
+      <c r="BQ12" s="3">
+        <v>6879.31</v>
+      </c>
+      <c r="BR12" s="3">
+        <v>8686.1299999999992</v>
+      </c>
+      <c r="BS12" s="3">
+        <v>13593.68</v>
+      </c>
+      <c r="BT12" s="3">
+        <v>16204.42</v>
+      </c>
+      <c r="BU12" s="3">
+        <v>2813.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>1015.52</v>
       </c>
@@ -5574,8 +6400,35 @@
       <c r="BE13" s="3">
         <v>4939</v>
       </c>
-    </row>
-    <row r="14" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL13" s="3">
+        <v>980.11</v>
+      </c>
+      <c r="BM13" s="3">
+        <v>1969.96</v>
+      </c>
+      <c r="BN13" s="3">
+        <v>3221.29</v>
+      </c>
+      <c r="BO13" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP13" s="3">
+        <v>4985.6499999999996</v>
+      </c>
+      <c r="BQ13" s="3">
+        <v>6815.9</v>
+      </c>
+      <c r="BR13" s="3">
+        <v>8440.2999999999993</v>
+      </c>
+      <c r="BS13" s="3">
+        <v>13087.95</v>
+      </c>
+      <c r="BT13" s="3">
+        <v>7528.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>1037.53</v>
       </c>
@@ -5675,8 +6528,32 @@
       <c r="BD14" s="3">
         <v>5536.54</v>
       </c>
-    </row>
-    <row r="15" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL14" s="3">
+        <v>989.21</v>
+      </c>
+      <c r="BM14" s="3">
+        <v>1938.92</v>
+      </c>
+      <c r="BN14" s="3">
+        <v>3197.92</v>
+      </c>
+      <c r="BO14" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP14" s="3">
+        <v>4971.8999999999996</v>
+      </c>
+      <c r="BQ14" s="3">
+        <v>7111.53</v>
+      </c>
+      <c r="BR14" s="3">
+        <v>8903.2900000000009</v>
+      </c>
+      <c r="BS14" s="3">
+        <v>13273.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>1038.3599999999999</v>
       </c>
@@ -5764,8 +6641,29 @@
       <c r="BC15" s="3">
         <v>4902.16</v>
       </c>
-    </row>
-    <row r="16" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL15" s="3">
+        <v>986.08</v>
+      </c>
+      <c r="BM15" s="3">
+        <v>1909.28</v>
+      </c>
+      <c r="BN15" s="3">
+        <v>3196.31</v>
+      </c>
+      <c r="BO15" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP15" s="3">
+        <v>4991.18</v>
+      </c>
+      <c r="BQ15" s="3">
+        <v>6811.99</v>
+      </c>
+      <c r="BR15" s="3">
+        <v>9095.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <v>1031.3599999999999</v>
       </c>
@@ -5853,8 +6751,29 @@
       <c r="BC16" s="3">
         <v>4898.62</v>
       </c>
-    </row>
-    <row r="17" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL16" s="3">
+        <v>977.08</v>
+      </c>
+      <c r="BM16" s="3">
+        <v>1896.19</v>
+      </c>
+      <c r="BN16" s="3">
+        <v>3266.86</v>
+      </c>
+      <c r="BO16" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP16" s="3">
+        <v>4797.51</v>
+      </c>
+      <c r="BQ16" s="3">
+        <v>7274.19</v>
+      </c>
+      <c r="BR16" s="3">
+        <v>8640.6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>1044.56</v>
       </c>
@@ -5942,8 +6861,29 @@
       <c r="BC17" s="3">
         <v>3935.15</v>
       </c>
-    </row>
-    <row r="18" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL17" s="3">
+        <v>985.32</v>
+      </c>
+      <c r="BM17" s="3">
+        <v>1929.9</v>
+      </c>
+      <c r="BN17" s="3">
+        <v>3245.83</v>
+      </c>
+      <c r="BO17" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP17" s="3">
+        <v>5081.87</v>
+      </c>
+      <c r="BQ17" s="3">
+        <v>6956.76</v>
+      </c>
+      <c r="BR17" s="3">
+        <v>6089.42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>1024.9000000000001</v>
       </c>
@@ -6019,8 +6959,26 @@
       <c r="BB18" s="3">
         <v>4095.45</v>
       </c>
-    </row>
-    <row r="19" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL18" s="3">
+        <v>985.66</v>
+      </c>
+      <c r="BM18" s="3">
+        <v>1976.57</v>
+      </c>
+      <c r="BN18" s="3">
+        <v>3030.91</v>
+      </c>
+      <c r="BO18" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP18" s="3">
+        <v>4854.8500000000004</v>
+      </c>
+      <c r="BQ18" s="3">
+        <v>7077.99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>1015.28</v>
       </c>
@@ -6096,8 +7054,26 @@
       <c r="BB19" s="3">
         <v>4025.7</v>
       </c>
-    </row>
-    <row r="20" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL19" s="3">
+        <v>974.05</v>
+      </c>
+      <c r="BM19" s="3">
+        <v>1966.21</v>
+      </c>
+      <c r="BN19" s="3">
+        <v>3208.79</v>
+      </c>
+      <c r="BO19" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP19" s="3">
+        <v>4989.6899999999996</v>
+      </c>
+      <c r="BQ19" s="3">
+        <v>7168.38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <v>1031.78</v>
       </c>
@@ -6173,8 +7149,26 @@
       <c r="BB20" s="3">
         <v>4057.86</v>
       </c>
-    </row>
-    <row r="21" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL20" s="3">
+        <v>982.63</v>
+      </c>
+      <c r="BM20" s="3">
+        <v>1979.61</v>
+      </c>
+      <c r="BN20" s="3">
+        <v>3162.99</v>
+      </c>
+      <c r="BO20" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP20" s="3">
+        <v>4899.42</v>
+      </c>
+      <c r="BQ20" s="3">
+        <v>7185.56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <v>1047.18</v>
       </c>
@@ -6250,8 +7244,26 @@
       <c r="BB21" s="3">
         <v>3967.16</v>
       </c>
-    </row>
-    <row r="22" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL21" s="3">
+        <v>997.9</v>
+      </c>
+      <c r="BM21" s="3">
+        <v>1928.81</v>
+      </c>
+      <c r="BN21" s="3">
+        <v>3215.35</v>
+      </c>
+      <c r="BO21" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP21" s="3">
+        <v>5031.55</v>
+      </c>
+      <c r="BQ21" s="3">
+        <v>7071.22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <v>1051.32</v>
       </c>
@@ -6327,8 +7339,26 @@
       <c r="BB22" s="3">
         <v>3953</v>
       </c>
-    </row>
-    <row r="23" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL22" s="3">
+        <v>979.87</v>
+      </c>
+      <c r="BM22" s="3">
+        <v>1997.02</v>
+      </c>
+      <c r="BN22" s="3">
+        <v>3215.34</v>
+      </c>
+      <c r="BO22" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP22" s="3">
+        <v>4871.04</v>
+      </c>
+      <c r="BQ22" s="3">
+        <v>7070.25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <v>1024.78</v>
       </c>
@@ -6392,8 +7422,23 @@
       <c r="BA23" s="3">
         <v>3255.48</v>
       </c>
-    </row>
-    <row r="24" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL23" s="3">
+        <v>975.95</v>
+      </c>
+      <c r="BM23" s="3">
+        <v>1993.77</v>
+      </c>
+      <c r="BN23" s="3">
+        <v>3214.9</v>
+      </c>
+      <c r="BO23" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP23" s="3">
+        <v>4923.92</v>
+      </c>
+    </row>
+    <row r="24" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <v>1050.07</v>
       </c>
@@ -6457,8 +7502,23 @@
       <c r="BA24" s="3">
         <v>3503.22</v>
       </c>
-    </row>
-    <row r="25" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL24" s="3">
+        <v>977.65</v>
+      </c>
+      <c r="BM24" s="3">
+        <v>1961.86</v>
+      </c>
+      <c r="BN24" s="3">
+        <v>3219.41</v>
+      </c>
+      <c r="BO24" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP24" s="3">
+        <v>4781.78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>1033.3499999999999</v>
       </c>
@@ -6522,8 +7582,23 @@
       <c r="BA25" s="3">
         <v>3499.28</v>
       </c>
-    </row>
-    <row r="26" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL25" s="3">
+        <v>985.21</v>
+      </c>
+      <c r="BM25" s="3">
+        <v>1968.46</v>
+      </c>
+      <c r="BN25" s="3">
+        <v>3200.13</v>
+      </c>
+      <c r="BO25" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP25" s="3">
+        <v>4786.12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <v>1011.61</v>
       </c>
@@ -6587,8 +7662,23 @@
       <c r="BA26" s="3">
         <v>3565.24</v>
       </c>
-    </row>
-    <row r="27" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL26" s="3">
+        <v>983.7</v>
+      </c>
+      <c r="BM26" s="3">
+        <v>1943.66</v>
+      </c>
+      <c r="BN26" s="3">
+        <v>3252.43</v>
+      </c>
+      <c r="BO26" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP26" s="3">
+        <v>4930.59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <v>1032.45</v>
       </c>
@@ -6652,8 +7742,23 @@
       <c r="BA27" s="3">
         <v>3553.07</v>
       </c>
-    </row>
-    <row r="28" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL27" s="3">
+        <v>977.92</v>
+      </c>
+      <c r="BM27" s="3">
+        <v>1942.49</v>
+      </c>
+      <c r="BN27" s="3">
+        <v>3172.58</v>
+      </c>
+      <c r="BO27" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP27" s="3">
+        <v>4861.47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>1052.8399999999999</v>
       </c>
@@ -6717,8 +7822,23 @@
       <c r="BA28" s="3">
         <v>3861.19</v>
       </c>
-    </row>
-    <row r="29" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL28" s="3">
+        <v>966.55</v>
+      </c>
+      <c r="BM28" s="3">
+        <v>1947.33</v>
+      </c>
+      <c r="BN28" s="3">
+        <v>3223.74</v>
+      </c>
+      <c r="BO28" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP28" s="3">
+        <v>4800.51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>1069.96</v>
       </c>
@@ -6782,8 +7902,23 @@
       <c r="BA29" s="3">
         <v>3824.02</v>
       </c>
-    </row>
-    <row r="30" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL29" s="3">
+        <v>975.91</v>
+      </c>
+      <c r="BM29" s="3">
+        <v>1954.63</v>
+      </c>
+      <c r="BN29" s="3">
+        <v>3225.54</v>
+      </c>
+      <c r="BO29" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP29" s="3">
+        <v>4830.5600000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>1057.8399999999999</v>
       </c>
@@ -6847,8 +7982,23 @@
       <c r="BA30" s="3">
         <v>4018.92</v>
       </c>
-    </row>
-    <row r="31" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL30" s="3">
+        <v>978.04</v>
+      </c>
+      <c r="BM30" s="3">
+        <v>1957.27</v>
+      </c>
+      <c r="BN30" s="3">
+        <v>3239.1</v>
+      </c>
+      <c r="BO30" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP30" s="3">
+        <v>4846.3900000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <v>1053.3499999999999</v>
       </c>
@@ -6912,8 +8062,23 @@
       <c r="BA31" s="3">
         <v>3832.18</v>
       </c>
-    </row>
-    <row r="32" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL31" s="3">
+        <v>981.56</v>
+      </c>
+      <c r="BM31" s="3">
+        <v>1984.23</v>
+      </c>
+      <c r="BN31" s="3">
+        <v>3176.41</v>
+      </c>
+      <c r="BO31" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP31" s="3">
+        <v>4747.8599999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <v>1057.23</v>
       </c>
@@ -6977,8 +8142,23 @@
       <c r="BA32" s="3">
         <v>2667.26</v>
       </c>
-    </row>
-    <row r="33" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL32" s="3">
+        <v>979.08</v>
+      </c>
+      <c r="BM32" s="3">
+        <v>1975.17</v>
+      </c>
+      <c r="BN32" s="3">
+        <v>3200.69</v>
+      </c>
+      <c r="BO32" s="3">
+        <v>3915.87</v>
+      </c>
+      <c r="BP32" s="3">
+        <v>2901.2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <v>1019.12</v>
       </c>
@@ -7030,8 +8210,20 @@
       <c r="AZ33" s="3">
         <v>3370.93</v>
       </c>
-    </row>
-    <row r="34" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL33" s="3">
+        <v>980.9</v>
+      </c>
+      <c r="BM33" s="3">
+        <v>2009.18</v>
+      </c>
+      <c r="BN33" s="3">
+        <v>3197.34</v>
+      </c>
+      <c r="BO33" s="3">
+        <v>3915.87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="3">
         <v>1004.71</v>
       </c>
@@ -7083,8 +8275,20 @@
       <c r="AZ34" s="3">
         <v>3256.45</v>
       </c>
-    </row>
-    <row r="35" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL34" s="3">
+        <v>983.08</v>
+      </c>
+      <c r="BM34" s="3">
+        <v>2001.33</v>
+      </c>
+      <c r="BN34" s="3">
+        <v>3146.38</v>
+      </c>
+      <c r="BO34" s="3">
+        <v>3915.87</v>
+      </c>
+    </row>
+    <row r="35" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
         <v>1023.48</v>
       </c>
@@ -7136,8 +8340,20 @@
       <c r="AZ35" s="3">
         <v>3351.16</v>
       </c>
-    </row>
-    <row r="36" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL35" s="3">
+        <v>980.33</v>
+      </c>
+      <c r="BM35" s="3">
+        <v>1986.94</v>
+      </c>
+      <c r="BN35" s="3">
+        <v>3259.74</v>
+      </c>
+      <c r="BO35" s="3">
+        <v>3915.87</v>
+      </c>
+    </row>
+    <row r="36" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <v>1032.77</v>
       </c>
@@ -7189,8 +8405,20 @@
       <c r="AZ36" s="3">
         <v>3242.95</v>
       </c>
-    </row>
-    <row r="37" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL36" s="3">
+        <v>996.4</v>
+      </c>
+      <c r="BM36" s="3">
+        <v>2006.39</v>
+      </c>
+      <c r="BN36" s="3">
+        <v>3157.98</v>
+      </c>
+      <c r="BO36" s="3">
+        <v>3915.87</v>
+      </c>
+    </row>
+    <row r="37" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="3">
         <v>1044.76</v>
       </c>
@@ -7242,8 +8470,20 @@
       <c r="AZ37" s="3">
         <v>3561.38</v>
       </c>
-    </row>
-    <row r="38" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL37" s="3">
+        <v>975.14</v>
+      </c>
+      <c r="BM37" s="3">
+        <v>1940.78</v>
+      </c>
+      <c r="BN37" s="3">
+        <v>3190.02</v>
+      </c>
+      <c r="BO37" s="3">
+        <v>3915.87</v>
+      </c>
+    </row>
+    <row r="38" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>1050.6300000000001</v>
       </c>
@@ -7295,8 +8535,20 @@
       <c r="AZ38" s="3">
         <v>3593.11</v>
       </c>
-    </row>
-    <row r="39" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL38" s="3">
+        <v>980.34</v>
+      </c>
+      <c r="BM38" s="3">
+        <v>1960.88</v>
+      </c>
+      <c r="BN38" s="3">
+        <v>3200.84</v>
+      </c>
+      <c r="BO38" s="3">
+        <v>3915.87</v>
+      </c>
+    </row>
+    <row r="39" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3">
         <v>1052.81</v>
       </c>
@@ -7336,8 +8588,17 @@
       <c r="AY39" s="3">
         <v>2712.25</v>
       </c>
-    </row>
-    <row r="40" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL39" s="3">
+        <v>985.9</v>
+      </c>
+      <c r="BM39" s="3">
+        <v>1975.69</v>
+      </c>
+      <c r="BN39" s="3">
+        <v>3167.86</v>
+      </c>
+    </row>
+    <row r="40" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B40" s="3">
         <v>1045.2</v>
       </c>
@@ -7377,8 +8638,17 @@
       <c r="AY40" s="3">
         <v>2725.59</v>
       </c>
-    </row>
-    <row r="41" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL40" s="3">
+        <v>953.43</v>
+      </c>
+      <c r="BM40" s="3">
+        <v>2000.08</v>
+      </c>
+      <c r="BN40" s="3">
+        <v>3121.62</v>
+      </c>
+    </row>
+    <row r="41" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B41" s="3">
         <v>1021.89</v>
       </c>
@@ -7418,8 +8688,17 @@
       <c r="AY41" s="3">
         <v>2763.89</v>
       </c>
-    </row>
-    <row r="42" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL41" s="3">
+        <v>953.38</v>
+      </c>
+      <c r="BM41" s="3">
+        <v>1954.47</v>
+      </c>
+      <c r="BN41" s="3">
+        <v>3181.52</v>
+      </c>
+    </row>
+    <row r="42" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B42" s="3">
         <v>1021.09</v>
       </c>
@@ -7459,8 +8738,17 @@
       <c r="AY42" s="3">
         <v>2761.98</v>
       </c>
-    </row>
-    <row r="43" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL42" s="3">
+        <v>970.96</v>
+      </c>
+      <c r="BM42" s="3">
+        <v>1935.21</v>
+      </c>
+      <c r="BN42" s="3">
+        <v>3171.31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>1029.45</v>
       </c>
@@ -7500,8 +8788,17 @@
       <c r="AY43" s="3">
         <v>2762.96</v>
       </c>
-    </row>
-    <row r="44" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL43" s="3">
+        <v>1030.23</v>
+      </c>
+      <c r="BM43" s="3">
+        <v>2124.1</v>
+      </c>
+      <c r="BN43" s="3">
+        <v>3208.38</v>
+      </c>
+    </row>
+    <row r="44" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>1034.01</v>
       </c>
@@ -7541,8 +8838,17 @@
       <c r="AY44" s="3">
         <v>2754.95</v>
       </c>
-    </row>
-    <row r="45" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL44" s="3">
+        <v>1151.1600000000001</v>
+      </c>
+      <c r="BM44" s="3">
+        <v>2099.7600000000002</v>
+      </c>
+      <c r="BN44" s="3">
+        <v>3234.29</v>
+      </c>
+    </row>
+    <row r="45" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
         <v>928</v>
       </c>
@@ -7582,8 +8888,17 @@
       <c r="AY45" s="3">
         <v>2728.05</v>
       </c>
-    </row>
-    <row r="46" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL45" s="3">
+        <v>1145.01</v>
+      </c>
+      <c r="BM45" s="3">
+        <v>2133.9299999999998</v>
+      </c>
+      <c r="BN45" s="3">
+        <v>3149.1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B46" s="3">
         <v>991.96</v>
       </c>
@@ -7623,8 +8938,17 @@
       <c r="AY46" s="3">
         <v>3082.44</v>
       </c>
-    </row>
-    <row r="47" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL46" s="3">
+        <v>1159.69</v>
+      </c>
+      <c r="BM46" s="3">
+        <v>2072.98</v>
+      </c>
+      <c r="BN46" s="3">
+        <v>2887.28</v>
+      </c>
+    </row>
+    <row r="47" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3">
         <v>1024.1500000000001</v>
       </c>
@@ -7664,8 +8988,17 @@
       <c r="AY47" s="3">
         <v>3051.84</v>
       </c>
-    </row>
-    <row r="48" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL47" s="3">
+        <v>1154.6099999999999</v>
+      </c>
+      <c r="BM47" s="3">
+        <v>2109.29</v>
+      </c>
+      <c r="BN47" s="3">
+        <v>2740.46</v>
+      </c>
+    </row>
+    <row r="48" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B48" s="3">
         <v>986.51</v>
       </c>
@@ -7705,8 +9038,17 @@
       <c r="AY48" s="3">
         <v>3088.72</v>
       </c>
-    </row>
-    <row r="49" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL48" s="3">
+        <v>1160.96</v>
+      </c>
+      <c r="BM48" s="3">
+        <v>2109.6799999999998</v>
+      </c>
+      <c r="BN48" s="3">
+        <v>2756.61</v>
+      </c>
+    </row>
+    <row r="49" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B49" s="3">
         <v>976.08</v>
       </c>
@@ -7746,8 +9088,17 @@
       <c r="AY49" s="3">
         <v>2106.17</v>
       </c>
-    </row>
-    <row r="50" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL49" s="3">
+        <v>1157.4100000000001</v>
+      </c>
+      <c r="BM49" s="3">
+        <v>2137.39</v>
+      </c>
+      <c r="BN49" s="3">
+        <v>1882.06</v>
+      </c>
+    </row>
+    <row r="50" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B50" s="3">
         <v>971.95</v>
       </c>
@@ -7775,8 +9126,14 @@
       <c r="AX50" s="3">
         <v>1974.21</v>
       </c>
-    </row>
-    <row r="51" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL50" s="3">
+        <v>1158.6600000000001</v>
+      </c>
+      <c r="BM50" s="3">
+        <v>2107.61</v>
+      </c>
+    </row>
+    <row r="51" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51" s="3">
         <v>1007.79</v>
       </c>
@@ -7804,8 +9161,14 @@
       <c r="AX51" s="3">
         <v>1880.1</v>
       </c>
-    </row>
-    <row r="52" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL51" s="3">
+        <v>1170.27</v>
+      </c>
+      <c r="BM51" s="3">
+        <v>2113.91</v>
+      </c>
+    </row>
+    <row r="52" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
         <v>1012.41</v>
       </c>
@@ -7833,8 +9196,14 @@
       <c r="AX52" s="3">
         <v>1965.81</v>
       </c>
-    </row>
-    <row r="53" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL52" s="3">
+        <v>1136.6199999999999</v>
+      </c>
+      <c r="BM52" s="3">
+        <v>2115.46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B53" s="3">
         <v>1021.28</v>
       </c>
@@ -7862,8 +9231,14 @@
       <c r="AX53" s="3">
         <v>1955.82</v>
       </c>
-    </row>
-    <row r="54" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL53" s="3">
+        <v>1116.05</v>
+      </c>
+      <c r="BM53" s="3">
+        <v>2121.06</v>
+      </c>
+    </row>
+    <row r="54" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B54" s="3">
         <v>1017.08</v>
       </c>
@@ -7891,8 +9266,14 @@
       <c r="AX54" s="3">
         <v>1931.87</v>
       </c>
-    </row>
-    <row r="55" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL54" s="3">
+        <v>1152.98</v>
+      </c>
+      <c r="BM54" s="3">
+        <v>2109.7600000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
         <v>993.91</v>
       </c>
@@ -7920,8 +9301,14 @@
       <c r="AX55" s="3">
         <v>1949.12</v>
       </c>
-    </row>
-    <row r="56" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL55" s="3">
+        <v>1133.3900000000001</v>
+      </c>
+      <c r="BM55" s="3">
+        <v>2120.15</v>
+      </c>
+    </row>
+    <row r="56" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B56" s="3">
         <v>981.47</v>
       </c>
@@ -7949,8 +9336,14 @@
       <c r="AX56" s="3">
         <v>1969.35</v>
       </c>
-    </row>
-    <row r="57" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL56" s="3">
+        <v>1146.08</v>
+      </c>
+      <c r="BM56" s="3">
+        <v>2103.21</v>
+      </c>
+    </row>
+    <row r="57" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B57" s="3">
         <v>1006.61</v>
       </c>
@@ -7978,8 +9371,14 @@
       <c r="AX57" s="3">
         <v>1961.09</v>
       </c>
-    </row>
-    <row r="58" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL57" s="3">
+        <v>1164.5899999999999</v>
+      </c>
+      <c r="BM57" s="3">
+        <v>2101.37</v>
+      </c>
+    </row>
+    <row r="58" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B58" s="3">
         <v>999.85</v>
       </c>
@@ -8007,8 +9406,14 @@
       <c r="AX58" s="3">
         <v>1955.7</v>
       </c>
-    </row>
-    <row r="59" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL58" s="3">
+        <v>1151.48</v>
+      </c>
+      <c r="BM58" s="3">
+        <v>2124.96</v>
+      </c>
+    </row>
+    <row r="59" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B59" s="3">
         <v>1023.31</v>
       </c>
@@ -8036,8 +9441,14 @@
       <c r="AX59" s="3">
         <v>1990.36</v>
       </c>
-    </row>
-    <row r="60" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL59" s="3">
+        <v>1135.75</v>
+      </c>
+      <c r="BM59" s="3">
+        <v>2120.4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B60" s="3">
         <v>1039.8499999999999</v>
       </c>
@@ -8065,8 +9476,14 @@
       <c r="AX60" s="3">
         <v>1961.42</v>
       </c>
-    </row>
-    <row r="61" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL60" s="3">
+        <v>1161.29</v>
+      </c>
+      <c r="BM60" s="3">
+        <v>2117.4899999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="3">
         <v>1009.16</v>
       </c>
@@ -8094,8 +9511,14 @@
       <c r="AX61" s="3">
         <v>1937.55</v>
       </c>
-    </row>
-    <row r="62" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL61" s="3">
+        <v>1149.18</v>
+      </c>
+      <c r="BM61" s="3">
+        <v>2134.5500000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
         <v>1005.45</v>
       </c>
@@ -8123,8 +9546,14 @@
       <c r="AX62" s="3">
         <v>1913.31</v>
       </c>
-    </row>
-    <row r="63" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL62" s="3">
+        <v>1114.47</v>
+      </c>
+      <c r="BM62" s="3">
+        <v>2095.89</v>
+      </c>
+    </row>
+    <row r="63" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="3">
         <v>962.42</v>
       </c>
@@ -8152,8 +9581,14 @@
       <c r="AX63" s="3">
         <v>1936.28</v>
       </c>
-    </row>
-    <row r="64" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL63" s="3">
+        <v>1140.25</v>
+      </c>
+      <c r="BM63" s="3">
+        <v>2094.4499999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <v>983.12</v>
       </c>
@@ -8181,8 +9616,14 @@
       <c r="AX64" s="3">
         <v>1873.78</v>
       </c>
-    </row>
-    <row r="65" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL64" s="3">
+        <v>1162.3800000000001</v>
+      </c>
+      <c r="BM64" s="3">
+        <v>2068.5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>999.38</v>
       </c>
@@ -8210,8 +9651,14 @@
       <c r="AX65" s="3">
         <v>1902.19</v>
       </c>
-    </row>
-    <row r="66" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL65" s="3">
+        <v>1148.1199999999999</v>
+      </c>
+      <c r="BM65" s="3">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="66" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
         <v>1010.43</v>
       </c>
@@ -8239,8 +9686,14 @@
       <c r="AX66" s="3">
         <v>1858.25</v>
       </c>
-    </row>
-    <row r="67" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL66" s="3">
+        <v>1144.8699999999999</v>
+      </c>
+      <c r="BM66" s="3">
+        <v>2153.1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B67" s="3">
         <v>993.74</v>
       </c>
@@ -8268,8 +9721,14 @@
       <c r="AX67" s="3">
         <v>1865.03</v>
       </c>
-    </row>
-    <row r="68" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL67" s="3">
+        <v>1133.69</v>
+      </c>
+      <c r="BM67" s="3">
+        <v>2140.2199999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B68" s="3">
         <v>1020.2</v>
       </c>
@@ -8297,8 +9756,14 @@
       <c r="AX68" s="3">
         <v>1888.44</v>
       </c>
-    </row>
-    <row r="69" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL68" s="3">
+        <v>1155.23</v>
+      </c>
+      <c r="BM68" s="3">
+        <v>2136.09</v>
+      </c>
+    </row>
+    <row r="69" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B69" s="3">
         <v>1003.5</v>
       </c>
@@ -8326,8 +9791,14 @@
       <c r="AX69" s="3">
         <v>1845.53</v>
       </c>
-    </row>
-    <row r="70" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL69" s="3">
+        <v>1155.26</v>
+      </c>
+      <c r="BM69" s="3">
+        <v>2121.83</v>
+      </c>
+    </row>
+    <row r="70" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B70" s="3">
         <v>973.78</v>
       </c>
@@ -8355,8 +9826,14 @@
       <c r="AX70" s="3">
         <v>1867.6</v>
       </c>
-    </row>
-    <row r="71" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL70" s="3">
+        <v>1154.05</v>
+      </c>
+      <c r="BM70" s="3">
+        <v>2184.0300000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B71" s="3">
         <v>977.35</v>
       </c>
@@ -8372,8 +9849,11 @@
       <c r="AW71" s="3">
         <v>930.79</v>
       </c>
-    </row>
-    <row r="72" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL71" s="3">
+        <v>1112.48</v>
+      </c>
+    </row>
+    <row r="72" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B72" s="3">
         <v>975.93</v>
       </c>
@@ -8389,8 +9869,11 @@
       <c r="AW72" s="3">
         <v>932.91</v>
       </c>
-    </row>
-    <row r="73" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL72" s="3">
+        <v>1114.6300000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B73" s="3">
         <v>989.59</v>
       </c>
@@ -8406,8 +9889,11 @@
       <c r="AW73" s="3">
         <v>937.04</v>
       </c>
-    </row>
-    <row r="74" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL73" s="3">
+        <v>1164.0899999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B74" s="3">
         <v>1008.21</v>
       </c>
@@ -8423,8 +9909,11 @@
       <c r="AW74" s="3">
         <v>944.28</v>
       </c>
-    </row>
-    <row r="75" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL74" s="3">
+        <v>1155.25</v>
+      </c>
+    </row>
+    <row r="75" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B75" s="3">
         <v>1013.99</v>
       </c>
@@ -8440,8 +9929,11 @@
       <c r="AW75" s="3">
         <v>946.12</v>
       </c>
-    </row>
-    <row r="76" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL75" s="3">
+        <v>1155.23</v>
+      </c>
+    </row>
+    <row r="76" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B76" s="3">
         <v>987.56</v>
       </c>
@@ -8457,8 +9949,11 @@
       <c r="AW76" s="3">
         <v>943.43</v>
       </c>
-    </row>
-    <row r="77" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL76" s="3">
+        <v>1172.1500000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B77" s="3">
         <v>994.07</v>
       </c>
@@ -8474,8 +9969,11 @@
       <c r="AW77" s="3">
         <v>942.48</v>
       </c>
-    </row>
-    <row r="78" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL77" s="3">
+        <v>1149.0899999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B78" s="3">
         <v>1000.45</v>
       </c>
@@ -8491,8 +9989,11 @@
       <c r="AW78" s="3">
         <v>944.72</v>
       </c>
-    </row>
-    <row r="79" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL78" s="3">
+        <v>1145.28</v>
+      </c>
+    </row>
+    <row r="79" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B79" s="3">
         <v>970.35</v>
       </c>
@@ -8508,8 +10009,11 @@
       <c r="AW79" s="3">
         <v>930.31</v>
       </c>
-    </row>
-    <row r="80" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL79" s="3">
+        <v>1144.19</v>
+      </c>
+    </row>
+    <row r="80" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B80" s="3">
         <v>1000.07</v>
       </c>
@@ -8525,8 +10029,11 @@
       <c r="AW80" s="3">
         <v>938.09</v>
       </c>
-    </row>
-    <row r="81" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL80" s="3">
+        <v>1140.8</v>
+      </c>
+    </row>
+    <row r="81" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B81" s="3">
         <v>1010.66</v>
       </c>
@@ -8542,8 +10049,11 @@
       <c r="AW81" s="3">
         <v>943.02</v>
       </c>
-    </row>
-    <row r="82" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL81" s="3">
+        <v>1169.56</v>
+      </c>
+    </row>
+    <row r="82" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B82" s="3">
         <v>939.4</v>
       </c>
@@ -8559,8 +10069,11 @@
       <c r="AW82" s="3">
         <v>934.1</v>
       </c>
-    </row>
-    <row r="83" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL82" s="3">
+        <v>1141.96</v>
+      </c>
+    </row>
+    <row r="83" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B83" s="3">
         <v>1011.69</v>
       </c>
@@ -8576,8 +10089,11 @@
       <c r="AW83" s="3">
         <v>973.65</v>
       </c>
-    </row>
-    <row r="84" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL83" s="3">
+        <v>1142.55</v>
+      </c>
+    </row>
+    <row r="84" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B84" s="3">
         <v>1000.56</v>
       </c>
@@ -8593,8 +10109,11 @@
       <c r="AW84" s="3">
         <v>1002.79</v>
       </c>
-    </row>
-    <row r="85" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL84" s="3">
+        <v>1153.83</v>
+      </c>
+    </row>
+    <row r="85" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B85" s="3">
         <v>959.13</v>
       </c>
@@ -8610,8 +10129,11 @@
       <c r="AW85" s="3">
         <v>1008.74</v>
       </c>
-    </row>
-    <row r="86" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL85" s="3">
+        <v>979.55</v>
+      </c>
+    </row>
+    <row r="86" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B86" s="3">
         <v>1053.6500000000001</v>
       </c>
@@ -8627,8 +10149,11 @@
       <c r="AW86" s="3">
         <v>1001.96</v>
       </c>
-    </row>
-    <row r="87" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL86" s="3">
+        <v>1043.3599999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B87" s="3">
         <v>1060.02</v>
       </c>
@@ -8644,8 +10169,11 @@
       <c r="AW87" s="3">
         <v>1015.04</v>
       </c>
-    </row>
-    <row r="88" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL87" s="3">
+        <v>1043.33</v>
+      </c>
+    </row>
+    <row r="88" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B88" s="3">
         <v>1096.07</v>
       </c>
@@ -8661,8 +10189,11 @@
       <c r="AW88" s="3">
         <v>1007.15</v>
       </c>
-    </row>
-    <row r="89" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL88" s="3">
+        <v>1043.72</v>
+      </c>
+    </row>
+    <row r="89" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B89" s="3">
         <v>1096.1199999999999</v>
       </c>
@@ -8678,8 +10209,11 @@
       <c r="AW89" s="3">
         <v>1017.75</v>
       </c>
-    </row>
-    <row r="90" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL89" s="3">
+        <v>1042.78</v>
+      </c>
+    </row>
+    <row r="90" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B90" s="3">
         <v>1016.46</v>
       </c>
@@ -8695,8 +10229,11 @@
       <c r="AW90" s="3">
         <v>1004.48</v>
       </c>
-    </row>
-    <row r="91" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL90" s="3">
+        <v>1010.77</v>
+      </c>
+    </row>
+    <row r="91" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B91" s="3">
         <v>1006.32</v>
       </c>
@@ -8712,8 +10249,11 @@
       <c r="AW91" s="3">
         <v>1003.47</v>
       </c>
-    </row>
-    <row r="92" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL91" s="3">
+        <v>1017.93</v>
+      </c>
+    </row>
+    <row r="92" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B92" s="3">
         <v>1001.69</v>
       </c>
@@ -8729,8 +10269,11 @@
       <c r="AW92" s="3">
         <v>1009.37</v>
       </c>
-    </row>
-    <row r="93" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL92" s="3">
+        <v>1039.32</v>
+      </c>
+    </row>
+    <row r="93" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B93" s="3">
         <v>976.83</v>
       </c>
@@ -8746,8 +10289,11 @@
       <c r="AW93" s="3">
         <v>994.35</v>
       </c>
-    </row>
-    <row r="94" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL93" s="3">
+        <v>1040.8599999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B94" s="3">
         <v>980.07</v>
       </c>
@@ -8763,8 +10309,11 @@
       <c r="AW94" s="3">
         <v>990.71</v>
       </c>
-    </row>
-    <row r="95" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL94" s="3">
+        <v>1057.8</v>
+      </c>
+    </row>
+    <row r="95" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B95" s="3">
         <v>1004.12</v>
       </c>
@@ -8780,8 +10329,11 @@
       <c r="AW95" s="3">
         <v>1002.15</v>
       </c>
-    </row>
-    <row r="96" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL95" s="3">
+        <v>1045.27</v>
+      </c>
+    </row>
+    <row r="96" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B96" s="3">
         <v>1027.48</v>
       </c>
@@ -8797,8 +10349,11 @@
       <c r="AW96" s="3">
         <v>994.69</v>
       </c>
-    </row>
-    <row r="97" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL96" s="3">
+        <v>1036.93</v>
+      </c>
+    </row>
+    <row r="97" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B97" s="3">
         <v>1024.45</v>
       </c>
@@ -8814,8 +10369,11 @@
       <c r="AW97" s="3">
         <v>998.96</v>
       </c>
-    </row>
-    <row r="98" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL97" s="3">
+        <v>1045.5</v>
+      </c>
+    </row>
+    <row r="98" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B98" s="3">
         <v>1090.22</v>
       </c>
@@ -8831,8 +10389,11 @@
       <c r="AW98" s="3">
         <v>1010.53</v>
       </c>
-    </row>
-    <row r="99" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL98" s="3">
+        <v>1039.51</v>
+      </c>
+    </row>
+    <row r="99" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B99" s="3">
         <v>1095.31</v>
       </c>
@@ -8848,8 +10409,11 @@
       <c r="AW99" s="3">
         <v>1006.53</v>
       </c>
-    </row>
-    <row r="100" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL99" s="3">
+        <v>1030.75</v>
+      </c>
+    </row>
+    <row r="100" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B100" s="3">
         <v>1062.24</v>
       </c>
@@ -8865,8 +10429,11 @@
       <c r="AW100" s="3">
         <v>1000.86</v>
       </c>
-    </row>
-    <row r="101" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL100" s="3">
+        <v>1010.38</v>
+      </c>
+    </row>
+    <row r="101" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B101" s="3">
         <v>1063.31</v>
       </c>
@@ -8882,8 +10449,11 @@
       <c r="AW101" s="3">
         <v>953.57</v>
       </c>
-    </row>
-    <row r="102" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL101" s="3">
+        <v>1023.87</v>
+      </c>
+    </row>
+    <row r="102" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B102" s="3">
         <v>1053.07</v>
       </c>
@@ -8899,8 +10469,11 @@
       <c r="AW102" s="3">
         <v>1003.89</v>
       </c>
-    </row>
-    <row r="103" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL102" s="3">
+        <v>1037.82</v>
+      </c>
+    </row>
+    <row r="103" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B103" s="3">
         <v>1083.93</v>
       </c>
@@ -8916,8 +10489,11 @@
       <c r="AW103" s="3">
         <v>1007.47</v>
       </c>
-    </row>
-    <row r="104" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL103" s="3">
+        <v>1046.74</v>
+      </c>
+    </row>
+    <row r="104" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B104" s="3">
         <v>1015.81</v>
       </c>
@@ -8933,8 +10509,11 @@
       <c r="AW104" s="3">
         <v>1016.24</v>
       </c>
-    </row>
-    <row r="105" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL104" s="3">
+        <v>1043.95</v>
+      </c>
+    </row>
+    <row r="105" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B105" s="3">
         <v>1024.08</v>
       </c>
@@ -8950,8 +10529,11 @@
       <c r="AW105" s="3">
         <v>994.72</v>
       </c>
-    </row>
-    <row r="106" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL105" s="3">
+        <v>1058.72</v>
+      </c>
+    </row>
+    <row r="106" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B106" s="3">
         <v>1009.2</v>
       </c>
@@ -8967,8 +10549,11 @@
       <c r="AW106" s="3">
         <v>1002.83</v>
       </c>
-    </row>
-    <row r="107" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL106" s="3">
+        <v>1044.3900000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B107" s="3">
         <v>997.03</v>
       </c>
@@ -8984,8 +10569,11 @@
       <c r="AW107" s="3">
         <v>1013.4</v>
       </c>
-    </row>
-    <row r="108" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL107" s="3">
+        <v>1035.06</v>
+      </c>
+    </row>
+    <row r="108" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B108" s="3">
         <v>971.4</v>
       </c>
@@ -9001,8 +10589,11 @@
       <c r="AW108" s="3">
         <v>1022.79</v>
       </c>
-    </row>
-    <row r="109" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL108" s="3">
+        <v>1031.28</v>
+      </c>
+    </row>
+    <row r="109" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B109" s="3">
         <v>978.62</v>
       </c>
@@ -9018,8 +10609,11 @@
       <c r="AW109" s="3">
         <v>998.22</v>
       </c>
-    </row>
-    <row r="110" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL109" s="3">
+        <v>1044.4000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B110" s="3">
         <v>1018.57</v>
       </c>
@@ -9035,8 +10629,11 @@
       <c r="AW110" s="3">
         <v>1009.94</v>
       </c>
-    </row>
-    <row r="111" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL110" s="3">
+        <v>1045.08</v>
+      </c>
+    </row>
+    <row r="111" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B111" s="3">
         <v>1010.23</v>
       </c>
@@ -9052,8 +10649,11 @@
       <c r="AW111" s="3">
         <v>1007.07</v>
       </c>
-    </row>
-    <row r="112" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL111" s="3">
+        <v>1048.56</v>
+      </c>
+    </row>
+    <row r="112" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B112" s="3">
         <v>1026.03</v>
       </c>
@@ -9069,8 +10669,11 @@
       <c r="AW112" s="3">
         <v>1003.43</v>
       </c>
-    </row>
-    <row r="113" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL112" s="3">
+        <v>1041.3699999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B113" s="3">
         <v>1023.78</v>
       </c>
@@ -9086,8 +10689,11 @@
       <c r="AW113" s="3">
         <v>1012.53</v>
       </c>
-    </row>
-    <row r="114" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL113" s="3">
+        <v>1028.47</v>
+      </c>
+    </row>
+    <row r="114" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B114" s="3">
         <v>1012.81</v>
       </c>
@@ -9103,8 +10709,11 @@
       <c r="AW114" s="3">
         <v>1002.29</v>
       </c>
-    </row>
-    <row r="115" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL114" s="3">
+        <v>1030.6400000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B115" s="3">
         <v>976.66</v>
       </c>
@@ -9120,8 +10729,11 @@
       <c r="AW115" s="3">
         <v>999.99</v>
       </c>
-    </row>
-    <row r="116" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL115" s="3">
+        <v>1045.68</v>
+      </c>
+    </row>
+    <row r="116" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B116" s="3">
         <v>995.65</v>
       </c>
@@ -9137,8 +10749,11 @@
       <c r="AW116" s="3">
         <v>1001.12</v>
       </c>
-    </row>
-    <row r="117" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL116" s="3">
+        <v>1033.05</v>
+      </c>
+    </row>
+    <row r="117" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B117" s="3">
         <v>1027.4000000000001</v>
       </c>
@@ -9154,8 +10769,11 @@
       <c r="AW117" s="3">
         <v>1006.55</v>
       </c>
-    </row>
-    <row r="118" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL117" s="3">
+        <v>1052.9000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B118" s="3">
         <v>1045.68</v>
       </c>
@@ -9171,8 +10789,11 @@
       <c r="AW118" s="3">
         <v>989.87</v>
       </c>
-    </row>
-    <row r="119" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL118" s="3">
+        <v>1029.55</v>
+      </c>
+    </row>
+    <row r="119" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B119" s="3">
         <v>1017.95</v>
       </c>
@@ -9188,8 +10809,11 @@
       <c r="AW119" s="3">
         <v>1006.43</v>
       </c>
-    </row>
-    <row r="120" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL119" s="3">
+        <v>1043.2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B120" s="3">
         <v>1202.02</v>
       </c>
@@ -9205,8 +10829,11 @@
       <c r="AW120" s="3">
         <v>828.5</v>
       </c>
-    </row>
-    <row r="121" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL120" s="3">
+        <v>1060.9000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B121" s="3">
         <v>1201.56</v>
       </c>
@@ -9222,8 +10849,11 @@
       <c r="AW121" s="3">
         <v>921.17</v>
       </c>
-    </row>
-    <row r="122" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL121" s="3">
+        <v>1030.0899999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B122" s="3">
         <v>1200.68</v>
       </c>
@@ -9239,8 +10869,11 @@
       <c r="AW122" s="3">
         <v>916.31</v>
       </c>
-    </row>
-    <row r="123" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL122" s="3">
+        <v>1041.6500000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B123" s="3">
         <v>1156.8699999999999</v>
       </c>
@@ -9256,8 +10889,11 @@
       <c r="AW123" s="3">
         <v>904.56</v>
       </c>
-    </row>
-    <row r="124" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL123" s="3">
+        <v>1009.33</v>
+      </c>
+    </row>
+    <row r="124" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B124" s="3">
         <v>1181.49</v>
       </c>
@@ -9273,8 +10909,11 @@
       <c r="AW124" s="3">
         <v>926.13</v>
       </c>
-    </row>
-    <row r="125" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL124" s="3">
+        <v>1061.45</v>
+      </c>
+    </row>
+    <row r="125" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B125" s="3">
         <v>1195.07</v>
       </c>
@@ -9290,8 +10929,11 @@
       <c r="AW125" s="3">
         <v>926.95</v>
       </c>
-    </row>
-    <row r="126" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL125" s="3">
+        <v>1042.8699999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B126" s="3">
         <v>1218.1199999999999</v>
       </c>
@@ -9307,8 +10949,11 @@
       <c r="AW126" s="3">
         <v>928.18</v>
       </c>
-    </row>
-    <row r="127" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL126" s="3">
+        <v>1065.58</v>
+      </c>
+    </row>
+    <row r="127" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B127" s="3">
         <v>1227.24</v>
       </c>
@@ -9324,8 +10969,11 @@
       <c r="AW127" s="3">
         <v>923.63</v>
       </c>
-    </row>
-    <row r="128" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL127" s="3">
+        <v>1038.3</v>
+      </c>
+    </row>
+    <row r="128" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B128" s="3">
         <v>1197.3499999999999</v>
       </c>
@@ -9341,8 +10989,11 @@
       <c r="AW128" s="3">
         <v>914.69</v>
       </c>
-    </row>
-    <row r="129" spans="2:62" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL128" s="3">
+        <v>1065.3599999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B129" s="3">
         <v>1192.1500000000001</v>
       </c>
@@ -9358,8 +11009,11 @@
       <c r="AW129" s="3">
         <v>920.27</v>
       </c>
-    </row>
-    <row r="130" spans="2:62" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL129" s="3">
+        <v>1067.6099999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B130" s="3">
         <v>1201.05</v>
       </c>
@@ -9375,8 +11029,11 @@
       <c r="AW130" s="3">
         <v>929.02</v>
       </c>
-    </row>
-    <row r="131" spans="2:62" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL130" s="3">
+        <v>1061.08</v>
+      </c>
+    </row>
+    <row r="131" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B131" s="3">
         <v>1172.1400000000001</v>
       </c>
@@ -9392,8 +11049,11 @@
       <c r="AW131" s="3">
         <v>922.96</v>
       </c>
-    </row>
-    <row r="132" spans="2:62" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL131" s="3">
+        <v>1091.1199999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B132" s="3">
         <v>1175.98</v>
       </c>
@@ -9409,8 +11069,11 @@
       <c r="AW132" s="3">
         <v>907.03</v>
       </c>
-    </row>
-    <row r="133" spans="2:62" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL132" s="3">
+        <v>1066.69</v>
+      </c>
+    </row>
+    <row r="133" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B133" s="3">
         <v>1189.6099999999999</v>
       </c>
@@ -9426,8 +11089,11 @@
       <c r="AW133" s="3">
         <v>923.28</v>
       </c>
-    </row>
-    <row r="134" spans="2:62" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BL133" s="3">
+        <v>1084.81</v>
+      </c>
+    </row>
+    <row r="134" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B134" s="3">
         <v>1193.51</v>
       </c>
@@ -9443,12 +11109,15 @@
       <c r="AW134" s="3">
         <v>918.55</v>
       </c>
-    </row>
-    <row r="135" spans="2:62" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="136" spans="2:62" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="137" spans="2:62" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="138" spans="2:62" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="139" spans="2:62" x14ac:dyDescent="0.35">
+      <c r="BL134" s="3">
+        <v>1095.07</v>
+      </c>
+    </row>
+    <row r="135" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -9510,7 +11179,7 @@
       <c r="BI139" s="1"/>
       <c r="BJ139" s="1"/>
     </row>
-    <row r="140" spans="2:62" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -9572,7 +11241,7 @@
       <c r="BI140" s="1"/>
       <c r="BJ140" s="1"/>
     </row>
-    <row r="141" spans="2:62" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -9634,7 +11303,7 @@
       <c r="BI141" s="1"/>
       <c r="BJ141" s="1"/>
     </row>
-    <row r="142" spans="2:62" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -9681,7 +11350,7 @@
       <c r="BI142" s="1"/>
       <c r="BJ142" s="1"/>
     </row>
-    <row r="143" spans="2:62" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:64" x14ac:dyDescent="0.35">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -9728,7 +11397,7 @@
       <c r="BI143" s="1"/>
       <c r="BJ143" s="1"/>
     </row>
-    <row r="144" spans="2:62" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:64" x14ac:dyDescent="0.35">
       <c r="AF144" s="1"/>
       <c r="AG144" s="1"/>
       <c r="AH144" s="1"/>
@@ -13367,608 +15036,768 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56E8001-F21C-419C-8F83-A2C49E4954F4}">
-  <dimension ref="C6:Q13"/>
+  <dimension ref="A2:AJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="9" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.453125" customWidth="1"/>
+    <col min="16" max="16" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="29" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="I9" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="J9" t="s">
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="K9" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="L9" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="M9" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="N9" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="O9" t="s">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="P9" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1043.7671746000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>541.62362370000005</v>
+      </c>
+      <c r="D3" s="2">
+        <v>403.57800859999998</v>
+      </c>
+      <c r="E3" s="2">
+        <v>287.19364460000003</v>
+      </c>
+      <c r="F3" s="2">
+        <v>277.23140330000001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>253.27156389999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>214.72702090000001</v>
+      </c>
+      <c r="I3" s="2">
+        <v>188.29820910000001</v>
+      </c>
+      <c r="J3" s="2">
+        <v>186.2408015</v>
+      </c>
+      <c r="K3" s="2">
+        <v>184.34304359999999</v>
+      </c>
+      <c r="L3" s="2">
+        <v>177.94947999999999</v>
+      </c>
+      <c r="M3" s="2">
+        <v>180.3744901</v>
+      </c>
+      <c r="N3" s="2">
+        <v>175.06794790000001</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1004.61</v>
+      </c>
+      <c r="R3" s="3">
+        <v>1935.99</v>
+      </c>
+      <c r="S3" s="3">
+        <v>2598.1999999999998</v>
+      </c>
+      <c r="T3" s="3">
+        <v>3651.11</v>
+      </c>
+      <c r="U3" s="3">
+        <v>3782.31</v>
+      </c>
+      <c r="V3" s="3">
+        <v>4140.13</v>
+      </c>
+      <c r="W3" s="3">
+        <v>4883.3</v>
+      </c>
+      <c r="X3" s="3">
+        <v>5568.7</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>5630.22</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>5688.18</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>5892.55</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>5813.33</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>5989.54</v>
+      </c>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1344.571371</v>
+      </c>
+      <c r="C4" s="2">
+        <v>683.44848709999997</v>
+      </c>
+      <c r="D4" s="2">
+        <v>491.68080609999998</v>
+      </c>
+      <c r="E4" s="2">
+        <v>396.3799272</v>
+      </c>
+      <c r="F4" s="2">
+        <v>323.02177549999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>200.98798959999999</v>
+      </c>
+      <c r="H4" s="2">
+        <v>154.59785679999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>115.99432830000001</v>
+      </c>
+      <c r="J4" s="2">
+        <v>115.2029709</v>
+      </c>
+      <c r="K4" s="2">
+        <v>109.7016514</v>
+      </c>
+      <c r="L4" s="2">
+        <v>106.9848475</v>
+      </c>
+      <c r="M4" s="2">
+        <v>114.6617182</v>
+      </c>
+      <c r="N4" s="2">
+        <v>119.5849667</v>
+      </c>
+      <c r="P4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>781.38890624999965</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1536.6403124999999</v>
+      </c>
+      <c r="S4" s="3">
+        <v>2133.3379069767443</v>
+      </c>
+      <c r="T4" s="3">
+        <v>2658.5090624999998</v>
+      </c>
+      <c r="U4" s="3">
+        <v>3244.6634615384614</v>
+      </c>
+      <c r="V4" s="3">
+        <v>5221.3943749999999</v>
+      </c>
+      <c r="W4" s="3">
+        <v>6805.9827272727271</v>
+      </c>
+      <c r="X4" s="3">
+        <v>9062.8975000000009</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>9027.3799999999992</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>9053.9783333333344</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>9439.344000000001</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>8573.3150000000005</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>8637.1466666666674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1071.6672612</v>
+      </c>
+      <c r="C5" s="2">
+        <v>529.56374740000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>369.62835799999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>281.5555918</v>
+      </c>
+      <c r="F5" s="2">
+        <v>239.8264211</v>
+      </c>
+      <c r="G5" s="2">
+        <v>149.60218459999999</v>
+      </c>
+      <c r="H5" s="2">
+        <v>106.76822009999999</v>
+      </c>
+      <c r="I5" s="2">
+        <v>85.661810099999997</v>
+      </c>
+      <c r="J5" s="2">
+        <v>87.795216800000006</v>
+      </c>
+      <c r="K5" s="2">
+        <v>68.875424800000005</v>
+      </c>
+      <c r="L5" s="2">
+        <v>67.065877700000001</v>
+      </c>
+      <c r="M5" s="2">
+        <v>56.771806599999998</v>
+      </c>
+      <c r="N5" s="2">
+        <v>51.3149388</v>
+      </c>
+      <c r="P5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>981.33250000000032</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1983.6265624999999</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2841.5258139534885</v>
+      </c>
+      <c r="T5" s="3">
+        <v>3730.1343750000001</v>
+      </c>
+      <c r="U5" s="3">
+        <v>4378.0676923076926</v>
+      </c>
+      <c r="V5" s="3">
+        <v>7019.6862500000007</v>
+      </c>
+      <c r="W5" s="3">
+        <v>9803.6054545454554</v>
+      </c>
+      <c r="X5" s="3">
+        <v>12308.986249999998</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>11828.464285714284</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>14633.095000000001</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>15271.769999999999</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>17378.237499999999</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>20107.003333333334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2">
+      <c r="B6" s="2">
         <v>1015.1907108</v>
       </c>
-      <c r="E10" s="2">
+      <c r="C6" s="2">
         <v>514.97431129999995</v>
       </c>
-      <c r="F10" s="2">
+      <c r="D6" s="2">
         <v>364.32382660000002</v>
       </c>
-      <c r="G10" s="2">
+      <c r="E6" s="2">
         <v>289.71701780000001</v>
       </c>
-      <c r="H10" s="2">
+      <c r="F6" s="2">
         <v>221.7066317</v>
       </c>
-      <c r="I10" s="2">
+      <c r="G6" s="2">
         <v>140.91504789999999</v>
       </c>
-      <c r="J10" s="2">
+      <c r="H6" s="2">
         <v>103.82829270000001</v>
       </c>
-      <c r="K10" s="2">
+      <c r="I6" s="2">
         <v>76.905319700000007</v>
       </c>
-      <c r="L10" s="2">
+      <c r="J6" s="2">
         <v>78.022894699999995</v>
       </c>
-      <c r="M10" s="2">
+      <c r="K6" s="2">
         <v>68.399199199999998</v>
       </c>
-      <c r="N10" s="2">
+      <c r="L6" s="2">
         <v>64.968697800000001</v>
       </c>
-      <c r="O10" s="2">
+      <c r="M6" s="2">
         <v>57.703642899999998</v>
       </c>
-      <c r="P10" s="2">
+      <c r="N6" s="2">
         <v>49.710804500000002</v>
       </c>
-    </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1071.6672612</v>
-      </c>
-      <c r="E11" s="2">
-        <v>529.56374740000001</v>
-      </c>
-      <c r="F11" s="2">
-        <v>369.62835799999999</v>
-      </c>
-      <c r="G11" s="2">
-        <v>281.5555918</v>
-      </c>
-      <c r="H11" s="2">
-        <v>239.8264211</v>
-      </c>
-      <c r="I11" s="2">
-        <v>149.60218459999999</v>
-      </c>
-      <c r="J11" s="2">
-        <v>106.76822009999999</v>
-      </c>
-      <c r="K11" s="2">
-        <v>85.661810099999997</v>
-      </c>
-      <c r="L11" s="2">
-        <v>87.795216800000006</v>
-      </c>
-      <c r="M11" s="2">
-        <v>68.875424800000005</v>
-      </c>
-      <c r="N11" s="2">
-        <v>67.065877700000001</v>
-      </c>
-      <c r="O11" s="2">
-        <v>56.771806599999998</v>
-      </c>
-      <c r="P11" s="2">
-        <v>51.3149388</v>
-      </c>
-    </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1344.571371</v>
-      </c>
-      <c r="E12" s="2">
-        <v>683.44848709999997</v>
-      </c>
-      <c r="F12" s="2">
-        <v>491.68080609999998</v>
-      </c>
-      <c r="G12" s="2">
-        <v>396.3799272</v>
-      </c>
-      <c r="H12" s="2">
-        <v>323.02177549999999</v>
-      </c>
-      <c r="I12" s="2">
-        <v>200.98798959999999</v>
-      </c>
-      <c r="J12" s="2">
-        <v>154.59785679999999</v>
-      </c>
-      <c r="K12" s="2">
-        <v>115.99432830000001</v>
-      </c>
-      <c r="L12" s="2">
-        <v>115.2029709</v>
-      </c>
-      <c r="M12" s="2">
-        <v>109.7016514</v>
-      </c>
-      <c r="N12" s="2">
-        <v>106.9848475</v>
-      </c>
-      <c r="O12" s="2">
-        <v>114.6617182</v>
-      </c>
-      <c r="P12" s="2">
-        <v>119.5849667</v>
-      </c>
-    </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1043.7671746000001</v>
-      </c>
-      <c r="E13" s="2">
-        <v>541.62362370000005</v>
-      </c>
-      <c r="F13" s="2">
-        <v>403.57800859999998</v>
-      </c>
-      <c r="G13" s="2">
-        <v>287.19364460000003</v>
-      </c>
-      <c r="H13" s="2">
-        <v>277.23140330000001</v>
-      </c>
-      <c r="I13" s="2">
-        <v>253.27156389999999</v>
-      </c>
-      <c r="J13" s="2">
-        <v>214.72702090000001</v>
-      </c>
-      <c r="K13" s="2">
-        <v>188.29820910000001</v>
-      </c>
-      <c r="L13" s="2">
-        <v>186.2408015</v>
-      </c>
-      <c r="M13" s="2">
-        <v>184.34304359999999</v>
-      </c>
-      <c r="N13" s="2">
-        <v>177.94947999999999</v>
-      </c>
-      <c r="O13" s="2">
-        <v>180.3744901</v>
-      </c>
-      <c r="P13" s="2">
-        <v>175.06794790000001</v>
+      <c r="P6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1037.7700781249998</v>
+      </c>
+      <c r="R6" s="3">
+        <v>2037.5092187499997</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2882.2546511627897</v>
+      </c>
+      <c r="T6" s="3">
+        <v>3628.8459375000007</v>
+      </c>
+      <c r="U6" s="3">
+        <v>4731.0473076923072</v>
+      </c>
+      <c r="V6" s="3">
+        <v>7450.7731250000006</v>
+      </c>
+      <c r="W6" s="3">
+        <v>10124.063636363639</v>
+      </c>
+      <c r="X6" s="3">
+        <v>13688.836250000002</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>13537.88</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>15073.210000000001</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>15951.848000000002</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>17514.327499999999</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>21104.813333333335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2">
+        <v>995.68664060000003</v>
+      </c>
+      <c r="C7" s="2">
+        <v>518.34310159999995</v>
+      </c>
+      <c r="D7" s="2">
+        <v>334.7720233</v>
+      </c>
+      <c r="E7" s="2">
+        <v>280.22020839999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>218.21667289999999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>149.52983810000001</v>
+      </c>
+      <c r="H7" s="2">
+        <v>120.02213740000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>82.941544899999997</v>
+      </c>
+      <c r="J7" s="2">
+        <v>68.752750899999995</v>
+      </c>
+      <c r="K7" s="2">
+        <v>60.059433900000002</v>
+      </c>
+      <c r="L7" s="2">
+        <v>49.573067500000001</v>
+      </c>
+      <c r="M7" s="2">
+        <v>48.780693900000003</v>
+      </c>
+      <c r="N7" s="2">
+        <v>40.388834899999999</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1053.1199999999999</v>
+      </c>
+      <c r="R7" s="3">
+        <v>2022.94</v>
+      </c>
+      <c r="S7" s="3">
+        <v>3132.21</v>
+      </c>
+      <c r="T7" s="3">
+        <v>3741.97</v>
+      </c>
+      <c r="U7" s="3">
+        <v>4805.21</v>
+      </c>
+      <c r="V7" s="3">
+        <v>7012.49</v>
+      </c>
+      <c r="W7" s="3">
+        <v>8736.52</v>
+      </c>
+      <c r="X7" s="3">
+        <v>12642.35</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>15251.4</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>17458.97</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>21152.13</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>21495.72</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>25962.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q8" s="1">
+        <f>Q4/Table1[[#Headers],[1]]</f>
+        <v>781.38890624999965</v>
+      </c>
+      <c r="R8" s="1">
+        <f>R4/Table1[[#Headers],[2]]</f>
+        <v>768.32015624999997</v>
+      </c>
+      <c r="S8" s="1">
+        <f>S4/Table1[[#Headers],[3]]</f>
+        <v>711.11263565891477</v>
+      </c>
+      <c r="T8" s="1">
+        <f>T4/Table1[[#Headers],[4]]</f>
+        <v>664.62726562499995</v>
+      </c>
+      <c r="U8" s="1">
+        <f>U4/Table1[[#Headers],[5]]</f>
+        <v>648.93269230769226</v>
+      </c>
+      <c r="V8" s="1">
+        <f>V4/Table1[[#Headers],[8]]</f>
+        <v>652.67429687499998</v>
+      </c>
+      <c r="W8" s="1">
+        <f>W4/Table1[[#Headers],[12]]</f>
+        <v>567.16522727272729</v>
+      </c>
+      <c r="X8" s="1">
+        <f>X4/Table1[[#Headers],[16]]</f>
+        <v>566.43109375000006</v>
+      </c>
+      <c r="Y8" s="1">
+        <f>Y4/Table1[[#Headers],[20]]</f>
+        <v>451.36899999999997</v>
+      </c>
+      <c r="Z8" s="1">
+        <f>Z4/Table1[[#Headers],[25]]</f>
+        <v>362.15913333333339</v>
+      </c>
+      <c r="AA8" s="1">
+        <f>AA4/Table1[[#Headers],[30]]</f>
+        <v>314.64480000000003</v>
+      </c>
+      <c r="AB8" s="1">
+        <f>AB4/Table1[[#Headers],[40]]</f>
+        <v>214.332875</v>
+      </c>
+      <c r="AC8" s="1">
+        <f>AC4/Table1[[#Headers],[50]]</f>
+        <v>172.74293333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q9" s="1">
+        <f>Q5/Table1[[#Headers],[1]]</f>
+        <v>981.33250000000032</v>
+      </c>
+      <c r="R9" s="1">
+        <f>R5/Table1[[#Headers],[2]]</f>
+        <v>991.81328124999993</v>
+      </c>
+      <c r="S9" s="1">
+        <f>S5/Table1[[#Headers],[3]]</f>
+        <v>947.17527131782947</v>
+      </c>
+      <c r="T9" s="1">
+        <f>T5/Table1[[#Headers],[4]]</f>
+        <v>932.53359375000002</v>
+      </c>
+      <c r="U9" s="1">
+        <f>U5/Table1[[#Headers],[5]]</f>
+        <v>875.6135384615385</v>
+      </c>
+      <c r="V9" s="1">
+        <f>V5/Table1[[#Headers],[8]]</f>
+        <v>877.46078125000008</v>
+      </c>
+      <c r="W9" s="1">
+        <f>W5/Table1[[#Headers],[12]]</f>
+        <v>816.96712121212124</v>
+      </c>
+      <c r="X9" s="1">
+        <f>X5/Table1[[#Headers],[16]]</f>
+        <v>769.31164062499988</v>
+      </c>
+      <c r="Y9" s="1">
+        <f>Y5/Table1[[#Headers],[20]]</f>
+        <v>591.42321428571427</v>
+      </c>
+      <c r="Z9" s="1">
+        <f>Z5/Table1[[#Headers],[25]]</f>
+        <v>585.32380000000001</v>
+      </c>
+      <c r="AA9" s="1">
+        <f>AA5/Table1[[#Headers],[30]]</f>
+        <v>509.05899999999997</v>
+      </c>
+      <c r="AB9" s="1">
+        <f>AB5/Table1[[#Headers],[40]]</f>
+        <v>434.4559375</v>
+      </c>
+      <c r="AC9" s="1">
+        <f>AC5/Table1[[#Headers],[50]]</f>
+        <v>402.14006666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q10" s="1">
+        <f>Q6/Table1[[#Headers],[1]]</f>
+        <v>1037.7700781249998</v>
+      </c>
+      <c r="R10" s="1">
+        <f>R6/Table1[[#Headers],[2]]</f>
+        <v>1018.7546093749999</v>
+      </c>
+      <c r="S10" s="1">
+        <f>S6/Table1[[#Headers],[3]]</f>
+        <v>960.75155038759658</v>
+      </c>
+      <c r="T10" s="1">
+        <f>T6/Table1[[#Headers],[4]]</f>
+        <v>907.21148437500017</v>
+      </c>
+      <c r="U10" s="1">
+        <f>U6/Table1[[#Headers],[5]]</f>
+        <v>946.20946153846148</v>
+      </c>
+      <c r="V10" s="1">
+        <f>V6/Table1[[#Headers],[8]]</f>
+        <v>931.34664062500008</v>
+      </c>
+      <c r="W10" s="1">
+        <f>W6/Table1[[#Headers],[12]]</f>
+        <v>843.67196969696988</v>
+      </c>
+      <c r="X10" s="1">
+        <f>X6/Table1[[#Headers],[16]]</f>
+        <v>855.55226562500013</v>
+      </c>
+      <c r="Y10" s="1">
+        <f>Y6/Table1[[#Headers],[20]]</f>
+        <v>676.89400000000001</v>
+      </c>
+      <c r="Z10" s="1">
+        <f>Z6/Table1[[#Headers],[25]]</f>
+        <v>602.92840000000001</v>
+      </c>
+      <c r="AA10" s="1">
+        <f>AA6/Table1[[#Headers],[30]]</f>
+        <v>531.72826666666674</v>
+      </c>
+      <c r="AB10" s="1">
+        <f>AB6/Table1[[#Headers],[40]]</f>
+        <v>437.85818749999999</v>
+      </c>
+      <c r="AC10" s="1">
+        <f>AC6/Table1[[#Headers],[50]]</f>
+        <v>422.09626666666668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q11" s="1">
+        <f>Q7/Table1[[#Headers],[1]]</f>
+        <v>1053.1199999999999</v>
+      </c>
+      <c r="R11" s="1">
+        <f>R7/Table1[[#Headers],[2]]</f>
+        <v>1011.47</v>
+      </c>
+      <c r="S11" s="1">
+        <f>S7/Table1[[#Headers],[3]]</f>
+        <v>1044.07</v>
+      </c>
+      <c r="T11" s="1">
+        <f>T7/Table1[[#Headers],[4]]</f>
+        <v>935.49249999999995</v>
+      </c>
+      <c r="U11" s="1">
+        <f>U7/Table1[[#Headers],[5]]</f>
+        <v>961.04200000000003</v>
+      </c>
+      <c r="V11" s="1">
+        <f>V7/Table1[[#Headers],[8]]</f>
+        <v>876.56124999999997</v>
+      </c>
+      <c r="W11" s="1">
+        <f>W7/Table1[[#Headers],[12]]</f>
+        <v>728.04333333333341</v>
+      </c>
+      <c r="X11" s="1">
+        <f>X7/Table1[[#Headers],[16]]</f>
+        <v>790.14687500000002</v>
+      </c>
+      <c r="Y11" s="1">
+        <f>Y7/Table1[[#Headers],[20]]</f>
+        <v>762.56999999999994</v>
+      </c>
+      <c r="Z11" s="1">
+        <f>Z7/Table1[[#Headers],[25]]</f>
+        <v>698.35880000000009</v>
+      </c>
+      <c r="AA11" s="1">
+        <f>AA7/Table1[[#Headers],[30]]</f>
+        <v>705.07100000000003</v>
+      </c>
+      <c r="AB11" s="1">
+        <f>AB7/Table1[[#Headers],[40]]</f>
+        <v>537.39300000000003</v>
+      </c>
+      <c r="AC11" s="1">
+        <f>AC7/Table1[[#Headers],[50]]</f>
+        <v>519.24059999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32036881-5DDA-4F07-BE33-E54F1CFE6FDF}">
-  <dimension ref="B10:O17"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="23.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="5.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>781.38890624999965</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1536.6403124999999</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2133.3379069767443</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2658.5090624999998</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3244.6634615384614</v>
-      </c>
-      <c r="H11" s="1">
-        <v>5221.3943749999999</v>
-      </c>
-      <c r="I11" s="1">
-        <v>6805.9827272727271</v>
-      </c>
-      <c r="J11" s="1">
-        <v>9062.8975000000009</v>
-      </c>
-      <c r="K11" s="1">
-        <v>9027.3799999999992</v>
-      </c>
-      <c r="L11" s="1">
-        <v>9053.9783333333344</v>
-      </c>
-      <c r="M11" s="1">
-        <v>9439.344000000001</v>
-      </c>
-      <c r="N11" s="1">
-        <v>8573.3150000000005</v>
-      </c>
-      <c r="O11" s="1">
-        <v>8637.1466666666674</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>981.33250000000032</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1983.6265624999999</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2841.5258139534885</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3730.1343750000001</v>
-      </c>
-      <c r="G12" s="1">
-        <v>4378.0676923076926</v>
-      </c>
-      <c r="H12" s="1">
-        <v>7019.6862500000007</v>
-      </c>
-      <c r="I12" s="1">
-        <v>9803.6054545454554</v>
-      </c>
-      <c r="J12" s="1">
-        <v>12308.986249999998</v>
-      </c>
-      <c r="K12" s="1">
-        <v>11828.464285714284</v>
-      </c>
-      <c r="L12" s="1">
-        <v>14633.095000000001</v>
-      </c>
-      <c r="M12" s="1">
-        <v>15271.769999999999</v>
-      </c>
-      <c r="N12" s="1">
-        <v>17378.237499999999</v>
-      </c>
-      <c r="O12" s="1">
-        <v>20107.003333333334</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1037.7700781249998</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2037.5092187499997</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2882.2546511627897</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3628.8459375000007</v>
-      </c>
-      <c r="G13" s="1">
-        <v>4731.0473076923072</v>
-      </c>
-      <c r="H13" s="1">
-        <v>7450.7731250000006</v>
-      </c>
-      <c r="I13" s="1">
-        <v>10124.063636363639</v>
-      </c>
-      <c r="J13" s="1">
-        <v>13688.836250000002</v>
-      </c>
-      <c r="K13" s="1">
-        <v>13537.88</v>
-      </c>
-      <c r="L13" s="1">
-        <v>15073.210000000001</v>
-      </c>
-      <c r="M13" s="1">
-        <v>15951.848000000002</v>
-      </c>
-      <c r="N13" s="1">
-        <v>17514.327499999999</v>
-      </c>
-      <c r="O13" s="1">
-        <v>21104.813333333335</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="C15" s="1">
-        <f>C11/Table1[[#Headers],[1]]</f>
-        <v>781.38890624999965</v>
-      </c>
-      <c r="D15" s="1">
-        <f>D11/Table1[[#Headers],[2]]</f>
-        <v>768.32015624999997</v>
-      </c>
-      <c r="E15" s="1">
-        <f>E11/Table1[[#Headers],[3]]</f>
-        <v>711.11263565891477</v>
-      </c>
-      <c r="F15" s="1">
-        <f>F11/Table1[[#Headers],[4]]</f>
-        <v>664.62726562499995</v>
-      </c>
-      <c r="G15" s="1">
-        <f>G11/Table1[[#Headers],[5]]</f>
-        <v>648.93269230769226</v>
-      </c>
-      <c r="H15" s="1">
-        <f>H11/Table1[[#Headers],[8]]</f>
-        <v>652.67429687499998</v>
-      </c>
-      <c r="I15" s="1">
-        <f>I11/Table1[[#Headers],[12]]</f>
-        <v>567.16522727272729</v>
-      </c>
-      <c r="J15" s="1">
-        <f>J11/Table1[[#Headers],[16]]</f>
-        <v>566.43109375000006</v>
-      </c>
-      <c r="K15" s="1">
-        <f>K11/Table1[[#Headers],[20]]</f>
-        <v>451.36899999999997</v>
-      </c>
-      <c r="L15" s="1">
-        <f>L11/Table1[[#Headers],[25]]</f>
-        <v>362.15913333333339</v>
-      </c>
-      <c r="M15" s="1">
-        <f>M11/Table1[[#Headers],[30]]</f>
-        <v>314.64480000000003</v>
-      </c>
-      <c r="N15" s="1">
-        <f>N11/Table1[[#Headers],[40]]</f>
-        <v>214.332875</v>
-      </c>
-      <c r="O15" s="1">
-        <f>O11/Table1[[#Headers],[50]]</f>
-        <v>172.74293333333335</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="C16" s="1">
-        <f>C12/Table1[[#Headers],[1]]</f>
-        <v>981.33250000000032</v>
-      </c>
-      <c r="D16" s="1">
-        <f>D12/Table1[[#Headers],[2]]</f>
-        <v>991.81328124999993</v>
-      </c>
-      <c r="E16" s="1">
-        <f>E12/Table1[[#Headers],[3]]</f>
-        <v>947.17527131782947</v>
-      </c>
-      <c r="F16" s="1">
-        <f>F12/Table1[[#Headers],[4]]</f>
-        <v>932.53359375000002</v>
-      </c>
-      <c r="G16" s="1">
-        <f>G12/Table1[[#Headers],[5]]</f>
-        <v>875.6135384615385</v>
-      </c>
-      <c r="H16" s="1">
-        <f>H12/Table1[[#Headers],[8]]</f>
-        <v>877.46078125000008</v>
-      </c>
-      <c r="I16" s="1">
-        <f>I12/Table1[[#Headers],[12]]</f>
-        <v>816.96712121212124</v>
-      </c>
-      <c r="J16" s="1">
-        <f>J12/Table1[[#Headers],[16]]</f>
-        <v>769.31164062499988</v>
-      </c>
-      <c r="K16" s="1">
-        <f>K12/Table1[[#Headers],[20]]</f>
-        <v>591.42321428571427</v>
-      </c>
-      <c r="L16" s="1">
-        <f>L12/Table1[[#Headers],[25]]</f>
-        <v>585.32380000000001</v>
-      </c>
-      <c r="M16" s="1">
-        <f>M12/Table1[[#Headers],[30]]</f>
-        <v>509.05899999999997</v>
-      </c>
-      <c r="N16" s="1">
-        <f>N12/Table1[[#Headers],[40]]</f>
-        <v>434.4559375</v>
-      </c>
-      <c r="O16" s="1">
-        <f>O12/Table1[[#Headers],[50]]</f>
-        <v>402.14006666666666</v>
-      </c>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C17" s="1">
-        <f>C13/Table1[[#Headers],[1]]</f>
-        <v>1037.7700781249998</v>
-      </c>
-      <c r="D17" s="1">
-        <f>D13/Table1[[#Headers],[2]]</f>
-        <v>1018.7546093749999</v>
-      </c>
-      <c r="E17" s="1">
-        <f>E13/Table1[[#Headers],[3]]</f>
-        <v>960.75155038759658</v>
-      </c>
-      <c r="F17" s="1">
-        <f>F13/Table1[[#Headers],[4]]</f>
-        <v>907.21148437500017</v>
-      </c>
-      <c r="G17" s="1">
-        <f>G13/Table1[[#Headers],[5]]</f>
-        <v>946.20946153846148</v>
-      </c>
-      <c r="H17" s="1">
-        <f>H13/Table1[[#Headers],[8]]</f>
-        <v>931.34664062500008</v>
-      </c>
-      <c r="I17" s="1">
-        <f>I13/Table1[[#Headers],[12]]</f>
-        <v>843.67196969696988</v>
-      </c>
-      <c r="J17" s="1">
-        <f>J13/Table1[[#Headers],[16]]</f>
-        <v>855.55226562500013</v>
-      </c>
-      <c r="K17" s="1">
-        <f>K13/Table1[[#Headers],[20]]</f>
-        <v>676.89400000000001</v>
-      </c>
-      <c r="L17" s="1">
-        <f>L13/Table1[[#Headers],[25]]</f>
-        <v>602.92840000000001</v>
-      </c>
-      <c r="M17" s="1">
-        <f>M13/Table1[[#Headers],[30]]</f>
-        <v>531.72826666666674</v>
-      </c>
-      <c r="N17" s="1">
-        <f>N13/Table1[[#Headers],[40]]</f>
-        <v>437.85818749999999</v>
-      </c>
-      <c r="O17" s="1">
-        <f>O13/Table1[[#Headers],[50]]</f>
-        <v>422.09626666666668</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/bench.xlsx
+++ b/bench.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chgeuer\Desktop\Azure Fast Track\#Moshik\SQream Technologies\src\ParallelDownload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE003860-5D8B-4F27-9691-BE35FEC9690B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA54139-58BE-49CE-95D3-86798E231DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{FEA465FA-9062-4B2B-9BE7-0A2529C1F021}"/>
   </bookViews>
@@ -176,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -195,16 +195,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,6 +410,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -526,8 +537,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -652,9 +664,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1439,9 +1451,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="55000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:prstDash val="sysDash"/>
               <a:round/>
@@ -1587,9 +1597,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3472,15 +3480,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>40342</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>24279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>14942</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>68729</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5126,55 +5134,55 @@
         <v>5967.6466666666665</v>
       </c>
       <c r="BL6" s="3">
-        <f t="shared" ref="BL6:BX6" si="29">AVERAGE(BL7:BL134)</f>
+        <f t="shared" ref="BL6" si="29">AVERAGE(BL7:BL134)</f>
         <v>1058.7120312500001</v>
       </c>
       <c r="BM6" s="3">
-        <f>AVERAGE(BM7:BM134)</f>
+        <f t="shared" ref="BM6:BX6" si="30">AVERAGE(BM7:BM134)</f>
         <v>2026.8382812499999</v>
       </c>
       <c r="BN6" s="3">
-        <f>AVERAGE(BN7:BN134)</f>
+        <f t="shared" si="30"/>
         <v>3140.4811627906979</v>
       </c>
       <c r="BO6" s="3">
-        <f>AVERAGE(BO7:BO134)</f>
+        <f t="shared" si="30"/>
         <v>3915.8699999999981</v>
       </c>
       <c r="BP6" s="3">
-        <f>AVERAGE(BP7:BP134)</f>
+        <f t="shared" si="30"/>
         <v>4808.8615384615387</v>
       </c>
       <c r="BQ6" s="3">
-        <f>AVERAGE(BQ7:BQ134)</f>
+        <f t="shared" si="30"/>
         <v>7016.6949999999997</v>
       </c>
       <c r="BR6" s="3">
-        <f>AVERAGE(BR7:BR134)</f>
+        <f t="shared" si="30"/>
         <v>8776.1072727272713</v>
       </c>
       <c r="BS6" s="3">
-        <f>AVERAGE(BS7:BS134)</f>
+        <f t="shared" si="30"/>
         <v>12679.741249999999</v>
       </c>
       <c r="BT6" s="3">
-        <f>AVERAGE(BT7:BT134)</f>
+        <f t="shared" si="30"/>
         <v>15116.345714285711</v>
       </c>
       <c r="BU6" s="3">
-        <f>AVERAGE(BU7:BU134)</f>
+        <f t="shared" si="30"/>
         <v>17122.543333333331</v>
       </c>
       <c r="BV6" s="3">
-        <f>AVERAGE(BV7:BV134)</f>
+        <f t="shared" si="30"/>
         <v>20772.068000000003</v>
       </c>
       <c r="BW6" s="3">
-        <f>AVERAGE(BW7:BW134)</f>
+        <f t="shared" si="30"/>
         <v>20916.919999999998</v>
       </c>
       <c r="BX6" s="3">
-        <f>AVERAGE(BX7:BX134)</f>
+        <f t="shared" si="30"/>
         <v>25620.91333333333</v>
       </c>
     </row>
@@ -15036,21 +15044,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56E8001-F21C-419C-8F83-A2C49E4954F4}">
-  <dimension ref="A2:AJ11"/>
+  <dimension ref="A2:AJ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.453125" customWidth="1"/>
-    <col min="16" max="16" width="23.90625" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="29" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="29" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -15576,218 +15584,292 @@
         <v>25962.03</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="Q8" s="1">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="P10" t="str">
+        <f>P3</f>
+        <v>Standard_F4s_v2 Enabled</v>
+      </c>
+      <c r="Q10" s="5">
+        <f>Q3/Table1[[#Headers],[1]]</f>
+        <v>1004.61</v>
+      </c>
+      <c r="R10" s="5">
+        <f>R3/Table1[[#Headers],[2]]</f>
+        <v>967.995</v>
+      </c>
+      <c r="S10" s="5">
+        <f>S3/Table1[[#Headers],[3]]</f>
+        <v>866.06666666666661</v>
+      </c>
+      <c r="T10" s="5">
+        <f>T3/Table1[[#Headers],[4]]</f>
+        <v>912.77750000000003</v>
+      </c>
+      <c r="U10" s="5">
+        <f>U3/Table1[[#Headers],[5]]</f>
+        <v>756.46199999999999</v>
+      </c>
+      <c r="V10" s="5">
+        <f>V3/Table1[[#Headers],[8]]</f>
+        <v>517.51625000000001</v>
+      </c>
+      <c r="W10" s="5">
+        <f>W3/Table1[[#Headers],[12]]</f>
+        <v>406.94166666666666</v>
+      </c>
+      <c r="X10" s="5">
+        <f>X3/Table1[[#Headers],[16]]</f>
+        <v>348.04374999999999</v>
+      </c>
+      <c r="Y10" s="5">
+        <f>Y3/Table1[[#Headers],[20]]</f>
+        <v>281.51100000000002</v>
+      </c>
+      <c r="Z10" s="5">
+        <f>Z3/Table1[[#Headers],[25]]</f>
+        <v>227.52720000000002</v>
+      </c>
+      <c r="AA10" s="5">
+        <f>AA3/Table1[[#Headers],[30]]</f>
+        <v>196.41833333333335</v>
+      </c>
+      <c r="AB10" s="5">
+        <f>AB3/Table1[[#Headers],[40]]</f>
+        <v>145.33324999999999</v>
+      </c>
+      <c r="AC10" s="5">
+        <f>AC3/Table1[[#Headers],[50]]</f>
+        <v>119.7908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="P11" t="str">
+        <f t="shared" ref="P11:P14" si="0">P4</f>
+        <v>Standard_F16s_v2 Disabled</v>
+      </c>
+      <c r="Q11" s="5">
         <f>Q4/Table1[[#Headers],[1]]</f>
         <v>781.38890624999965</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R11" s="5">
         <f>R4/Table1[[#Headers],[2]]</f>
         <v>768.32015624999997</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S11" s="5">
         <f>S4/Table1[[#Headers],[3]]</f>
         <v>711.11263565891477</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T11" s="5">
         <f>T4/Table1[[#Headers],[4]]</f>
         <v>664.62726562499995</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U11" s="5">
         <f>U4/Table1[[#Headers],[5]]</f>
         <v>648.93269230769226</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V11" s="5">
         <f>V4/Table1[[#Headers],[8]]</f>
         <v>652.67429687499998</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W11" s="5">
         <f>W4/Table1[[#Headers],[12]]</f>
         <v>567.16522727272729</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X11" s="5">
         <f>X4/Table1[[#Headers],[16]]</f>
         <v>566.43109375000006</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y11" s="5">
         <f>Y4/Table1[[#Headers],[20]]</f>
         <v>451.36899999999997</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z11" s="5">
         <f>Z4/Table1[[#Headers],[25]]</f>
         <v>362.15913333333339</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA11" s="5">
         <f>AA4/Table1[[#Headers],[30]]</f>
         <v>314.64480000000003</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB11" s="5">
         <f>AB4/Table1[[#Headers],[40]]</f>
         <v>214.332875</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC11" s="5">
         <f>AC4/Table1[[#Headers],[50]]</f>
         <v>172.74293333333335</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="Q9" s="1">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="P12" t="str">
+        <f t="shared" si="0"/>
+        <v>Standard_F16s_v2 Enabled</v>
+      </c>
+      <c r="Q12" s="5">
         <f>Q5/Table1[[#Headers],[1]]</f>
         <v>981.33250000000032</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R12" s="5">
         <f>R5/Table1[[#Headers],[2]]</f>
         <v>991.81328124999993</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S12" s="5">
         <f>S5/Table1[[#Headers],[3]]</f>
         <v>947.17527131782947</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T12" s="5">
         <f>T5/Table1[[#Headers],[4]]</f>
         <v>932.53359375000002</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U12" s="5">
         <f>U5/Table1[[#Headers],[5]]</f>
         <v>875.6135384615385</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V12" s="5">
         <f>V5/Table1[[#Headers],[8]]</f>
         <v>877.46078125000008</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W12" s="5">
         <f>W5/Table1[[#Headers],[12]]</f>
         <v>816.96712121212124</v>
       </c>
-      <c r="X9" s="1">
+      <c r="X12" s="5">
         <f>X5/Table1[[#Headers],[16]]</f>
         <v>769.31164062499988</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Y12" s="5">
         <f>Y5/Table1[[#Headers],[20]]</f>
         <v>591.42321428571427</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z12" s="5">
         <f>Z5/Table1[[#Headers],[25]]</f>
         <v>585.32380000000001</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AA12" s="5">
         <f>AA5/Table1[[#Headers],[30]]</f>
         <v>509.05899999999997</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB12" s="5">
         <f>AB5/Table1[[#Headers],[40]]</f>
         <v>434.4559375</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AC12" s="5">
         <f>AC5/Table1[[#Headers],[50]]</f>
         <v>402.14006666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="Q10" s="1">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="P13" t="str">
+        <f t="shared" si="0"/>
+        <v>Standard_F32s_v2 Enabled</v>
+      </c>
+      <c r="Q13" s="5">
         <f>Q6/Table1[[#Headers],[1]]</f>
         <v>1037.7700781249998</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R13" s="5">
         <f>R6/Table1[[#Headers],[2]]</f>
         <v>1018.7546093749999</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S13" s="5">
         <f>S6/Table1[[#Headers],[3]]</f>
         <v>960.75155038759658</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T13" s="5">
         <f>T6/Table1[[#Headers],[4]]</f>
         <v>907.21148437500017</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U13" s="5">
         <f>U6/Table1[[#Headers],[5]]</f>
         <v>946.20946153846148</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V13" s="5">
         <f>V6/Table1[[#Headers],[8]]</f>
         <v>931.34664062500008</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W13" s="5">
         <f>W6/Table1[[#Headers],[12]]</f>
         <v>843.67196969696988</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X13" s="5">
         <f>X6/Table1[[#Headers],[16]]</f>
         <v>855.55226562500013</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Y13" s="5">
         <f>Y6/Table1[[#Headers],[20]]</f>
         <v>676.89400000000001</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Z13" s="5">
         <f>Z6/Table1[[#Headers],[25]]</f>
         <v>602.92840000000001</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AA13" s="5">
         <f>AA6/Table1[[#Headers],[30]]</f>
         <v>531.72826666666674</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB13" s="5">
         <f>AB6/Table1[[#Headers],[40]]</f>
         <v>437.85818749999999</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AC13" s="5">
         <f>AC6/Table1[[#Headers],[50]]</f>
         <v>422.09626666666668</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="Q11" s="1">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="P14" t="str">
+        <f t="shared" si="0"/>
+        <v>Standard_F64s_v2 enabled</v>
+      </c>
+      <c r="Q14" s="5">
         <f>Q7/Table1[[#Headers],[1]]</f>
         <v>1053.1199999999999</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R14" s="5">
         <f>R7/Table1[[#Headers],[2]]</f>
         <v>1011.47</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S14" s="5">
         <f>S7/Table1[[#Headers],[3]]</f>
         <v>1044.07</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T14" s="5">
         <f>T7/Table1[[#Headers],[4]]</f>
         <v>935.49249999999995</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U14" s="5">
         <f>U7/Table1[[#Headers],[5]]</f>
         <v>961.04200000000003</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V14" s="5">
         <f>V7/Table1[[#Headers],[8]]</f>
         <v>876.56124999999997</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W14" s="5">
         <f>W7/Table1[[#Headers],[12]]</f>
         <v>728.04333333333341</v>
       </c>
-      <c r="X11" s="1">
+      <c r="X14" s="5">
         <f>X7/Table1[[#Headers],[16]]</f>
         <v>790.14687500000002</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Y14" s="5">
         <f>Y7/Table1[[#Headers],[20]]</f>
         <v>762.56999999999994</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="Z14" s="5">
         <f>Z7/Table1[[#Headers],[25]]</f>
         <v>698.35880000000009</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AA14" s="5">
         <f>AA7/Table1[[#Headers],[30]]</f>
         <v>705.07100000000003</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AB14" s="5">
         <f>AB7/Table1[[#Headers],[40]]</f>
         <v>537.39300000000003</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AC14" s="5">
         <f>AC7/Table1[[#Headers],[50]]</f>
         <v>519.24059999999997</v>
       </c>

--- a/bench.xlsx
+++ b/bench.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chgeuer\Desktop\Azure Fast Track\#Moshik\SQream Technologies\src\ParallelDownload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA54139-58BE-49CE-95D3-86798E231DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F875E346-E4C0-409D-9F6E-A9842ADA5553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{FEA465FA-9062-4B2B-9BE7-0A2529C1F021}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
     <sheet name="diagrams" sheetId="3" r:id="rId2"/>
+    <sheet name="Interleaving" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="36">
   <si>
     <t>Number of parallel downloads</t>
   </si>
@@ -127,9 +128,6 @@
     <t>Standard_F16s_v2 enabled</t>
   </si>
   <si>
-    <t>Standard_F4s_v2 enabled</t>
-  </si>
-  <si>
     <t>Standard_F16s_v2 disabled</t>
   </si>
   <si>
@@ -144,6 +142,9 @@
   <si>
     <t>Standard_F4s_v2 Enabled</t>
   </si>
+  <si>
+    <t>Standard_NC8as_T4_v3</t>
+  </si>
 </sst>
 </file>
 
@@ -153,7 +154,7 @@
     <numFmt numFmtId="164" formatCode="0\ &quot;sec&quot;"/>
     <numFmt numFmtId="165" formatCode="0\ &quot;Mbit/s&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,13 +168,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -205,18 +242,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
@@ -400,7 +451,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standard_F4s_v2 enabled</c:v>
+                  <c:v>Standard_NC8as_T4_v3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -409,6 +460,134 @@
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>diagrams!$B$2:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>diagrams!$B$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>0\ "sec"</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1336.3447087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>727.33736959999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>514.41285530000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>391.70656659999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>303.10465110000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>185.52456129999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.3154681</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.420004300000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.045025199999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.858773400000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.845250900000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.785725100000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.802437300000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E851-459F-AC68-7BF8568026B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>diagrams!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard_F4s_v2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -467,7 +646,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>diagrams!$B$3:$N$3</c:f>
+              <c:f>diagrams!$B$4:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>0\ "sec"</c:formatCode>
                 <c:ptCount val="13"/>
@@ -516,16 +695,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E851-459F-AC68-7BF8568026B6}"/>
+              <c16:uniqueId val="{00000001-E851-459F-AC68-7BF8568026B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>diagrams!$A$4</c:f>
+              <c:f>diagrams!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -596,7 +775,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>diagrams!$B$4:$N$4</c:f>
+              <c:f>diagrams!$B$5:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>0\ "sec"</c:formatCode>
                 <c:ptCount val="13"/>
@@ -645,16 +824,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E851-459F-AC68-7BF8568026B6}"/>
+              <c16:uniqueId val="{00000002-E851-459F-AC68-7BF8568026B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>diagrams!$A$5</c:f>
+              <c:f>diagrams!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -724,7 +903,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>diagrams!$B$5:$N$5</c:f>
+              <c:f>diagrams!$B$6:$N$6</c:f>
               <c:numCache>
                 <c:formatCode>0\ "sec"</c:formatCode>
                 <c:ptCount val="13"/>
@@ -766,134 +945,6 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>51.3149388</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E851-459F-AC68-7BF8568026B6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>diagrams!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Standard_F32s_v2 enabled</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>diagrams!$B$2:$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>diagrams!$B$6:$N$6</c:f>
-              <c:numCache>
-                <c:formatCode>0\ "sec"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1015.1907108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>514.97431129999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>364.32382660000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>289.71701780000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>221.7066317</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>140.91504789999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>103.82829270000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>76.905319700000007</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>78.022894699999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>68.399199199999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>64.968697800000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>57.703642899999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>49.710804500000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -914,7 +965,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standard_F64s_v2 enabled</c:v>
+                  <c:v>Standard_F32s_v2 enabled</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -985,43 +1036,43 @@
                 <c:formatCode>0\ "sec"</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>995.68664060000003</c:v>
+                  <c:v>1015.1907108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>518.34310159999995</c:v>
+                  <c:v>514.97431129999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>334.7720233</c:v>
+                  <c:v>364.32382660000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>280.22020839999999</c:v>
+                  <c:v>289.71701780000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>218.21667289999999</c:v>
+                  <c:v>221.7066317</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>149.52983810000001</c:v>
+                  <c:v>140.91504789999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120.02213740000001</c:v>
+                  <c:v>103.82829270000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82.941544899999997</c:v>
+                  <c:v>76.905319700000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>68.752750899999995</c:v>
+                  <c:v>78.022894699999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.059433900000002</c:v>
+                  <c:v>68.399199199999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.573067500000001</c:v>
+                  <c:v>64.968697800000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48.780693900000003</c:v>
+                  <c:v>57.703642899999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40.388834899999999</c:v>
+                  <c:v>49.710804500000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1030,6 +1081,134 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E851-459F-AC68-7BF8568026B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>diagrams!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard_F64s_v2 enabled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>diagrams!$B$2:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>diagrams!$B$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>0\ "sec"</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>995.68664060000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>518.34310159999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>334.7720233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280.22020839999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>218.21667289999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>149.52983810000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.02213740000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.941544899999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.752750899999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.059433900000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.573067500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.780693900000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.388834899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-02E9-4803-94ED-4B437F790721}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1296,7 +1475,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standard_F4s_v2 Enabled</c:v>
+                  <c:v>Standard_NC8as_T4_v3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1386,43 +1565,43 @@
                 <c:formatCode>0\ "Mbit/s"</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1004.61</c:v>
+                  <c:v>784.66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1935.99</c:v>
+                  <c:v>1441.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2598.1999999999998</c:v>
+                  <c:v>2038.39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3651.11</c:v>
+                  <c:v>2676.94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3782.31</c:v>
+                  <c:v>3459.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4140.13</c:v>
+                  <c:v>5651.95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4883.3</c:v>
+                  <c:v>8108.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5568.7</c:v>
+                  <c:v>10989.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5630.22</c:v>
+                  <c:v>12780.49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5688.18</c:v>
+                  <c:v>15452.33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5892.55</c:v>
+                  <c:v>17819.21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5813.33</c:v>
+                  <c:v>18796.490000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5989.54</c:v>
+                  <c:v>21486.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,7 +1622,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standard_F16s_v2 Disabled</c:v>
+                  <c:v>Standard_F4s_v2 Enabled</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1451,9 +1630,10 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1532,43 +1712,43 @@
                 <c:formatCode>0\ "Mbit/s"</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>781.38890624999965</c:v>
+                  <c:v>1004.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1536.6403124999999</c:v>
+                  <c:v>1935.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2133.3379069767443</c:v>
+                  <c:v>2598.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2658.5090624999998</c:v>
+                  <c:v>3651.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3244.6634615384614</c:v>
+                  <c:v>3782.31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5221.3943749999999</c:v>
+                  <c:v>4140.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6805.9827272727271</c:v>
+                  <c:v>4883.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9062.8975000000009</c:v>
+                  <c:v>5568.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9027.3799999999992</c:v>
+                  <c:v>5630.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9053.9783333333344</c:v>
+                  <c:v>5688.18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9439.344000000001</c:v>
+                  <c:v>5892.55</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8573.3150000000005</c:v>
+                  <c:v>5813.33</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8637.1466666666674</c:v>
+                  <c:v>5989.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1589,7 +1769,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standard_F16s_v2 Enabled</c:v>
+                  <c:v>Standard_F16s_v2 Disabled</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1599,12 +1779,13 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
+            <c:symbol val="diamond"/>
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
@@ -1677,43 +1858,43 @@
                 <c:formatCode>0\ "Mbit/s"</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>981.33250000000032</c:v>
+                  <c:v>781.38890624999965</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1983.6265624999999</c:v>
+                  <c:v>1536.6403124999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2841.5258139534885</c:v>
+                  <c:v>2133.3379069767443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3730.1343750000001</c:v>
+                  <c:v>2658.5090624999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4378.0676923076926</c:v>
+                  <c:v>3244.6634615384614</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7019.6862500000007</c:v>
+                  <c:v>5221.3943749999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9803.6054545454554</c:v>
+                  <c:v>6805.9827272727271</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12308.986249999998</c:v>
+                  <c:v>9062.8975000000009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11828.464285714284</c:v>
+                  <c:v>9027.3799999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14633.095000000001</c:v>
+                  <c:v>9053.9783333333344</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15271.769999999999</c:v>
+                  <c:v>9439.344000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17378.237499999999</c:v>
+                  <c:v>8573.3150000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20107.003333333334</c:v>
+                  <c:v>8637.1466666666674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1734,7 +1915,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standard_F32s_v2 Enabled</c:v>
+                  <c:v>Standard_F16s_v2 Enabled</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1742,17 +1923,14 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="98500"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
+            <c:symbol val="square"/>
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
@@ -1825,43 +2003,43 @@
                 <c:formatCode>0\ "Mbit/s"</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1037.7700781249998</c:v>
+                  <c:v>981.33250000000032</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2037.5092187499997</c:v>
+                  <c:v>1983.6265624999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2882.2546511627897</c:v>
+                  <c:v>2841.5258139534885</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3628.8459375000007</c:v>
+                  <c:v>3730.1343750000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4731.0473076923072</c:v>
+                  <c:v>4378.0676923076926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7450.7731250000006</c:v>
+                  <c:v>7019.6862500000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10124.063636363639</c:v>
+                  <c:v>9803.6054545454554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13688.836250000002</c:v>
+                  <c:v>12308.986249999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13537.88</c:v>
+                  <c:v>11828.464285714284</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15073.210000000001</c:v>
+                  <c:v>14633.095000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15951.848000000002</c:v>
+                  <c:v>15271.769999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17514.327499999999</c:v>
+                  <c:v>17378.237499999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21104.813333333335</c:v>
+                  <c:v>20107.003333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,7 +2060,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standard_F64s_v2 enabled</c:v>
+                  <c:v>Standard_F32s_v2 Enabled</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1894,15 +2072,20 @@
                   <a:tint val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
+            <c:symbol val="triangle"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
@@ -1968,43 +2151,43 @@
                 <c:formatCode>0\ "Mbit/s"</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1053.1199999999999</c:v>
+                  <c:v>1037.7700781249998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2022.94</c:v>
+                  <c:v>2037.5092187499997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3132.21</c:v>
+                  <c:v>2882.2546511627897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3741.97</c:v>
+                  <c:v>3628.8459375000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4805.21</c:v>
+                  <c:v>4731.0473076923072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7012.49</c:v>
+                  <c:v>7450.7731250000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8736.52</c:v>
+                  <c:v>10124.063636363639</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12642.35</c:v>
+                  <c:v>13688.836250000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15251.4</c:v>
+                  <c:v>13537.88</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17458.97</c:v>
+                  <c:v>15073.210000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21152.13</c:v>
+                  <c:v>15951.848000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21495.72</c:v>
+                  <c:v>17514.327499999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25962.03</c:v>
+                  <c:v>21104.813333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2013,6 +2196,149 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2325-4BCE-91F9-AED571BCAA41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>diagrams!$P$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard_F64s_v2 enabled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>diagrams!$Q$2:$AC$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>diagrams!$Q$8:$AC$8</c:f>
+              <c:numCache>
+                <c:formatCode>0\ "Mbit/s"</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1053.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3132.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3741.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4805.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7012.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8736.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12642.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15251.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17458.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21152.13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21495.72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25962.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EBD0-40FE-BACE-9E7520815E9A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3445,13 +3771,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3174</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3481,13 +3807,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>40342</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>24279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>14942</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>68729</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3518,11 +3844,288 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>157103</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>115019</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>21790</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D5E8A15-20CB-42C0-8F0D-E1B65226A56D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2592000" y="2127873"/>
+            <a:ext cx="566640" cy="1940400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D5E8A15-20CB-42C0-8F0D-E1B65226A56D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2583000" y="2119233"/>
+              <a:ext cx="584280" cy="1958040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161674</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>17239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>162034</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>17599</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75794A01-E677-40E0-AD11-1859A6BD5B32}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6857640" y="2592273"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75794A01-E677-40E0-AD11-1859A6BD5B32}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6849000" y="2583273"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161674</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>17239</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F03427-E93B-4F44-BEB8-5C18E3206F89}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6857640" y="2592273"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F03427-E93B-4F44-BEB8-5C18E3206F89}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6849000" y="2583273"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-24T14:35:53.369"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1400 1 24575,'-2'3'0,"0"1"0,0 0 0,0 1 0,1-1 0,0 0 0,-1 0 0,1 1 0,1-1 0,-1 0 0,1 6 0,-3 8 0,-2 17 0,2 1 0,1-1 0,3 48 0,1-19 0,-2 29 0,10 472 0,3 150 0,-21-483 0,-42 251 0,-87 316 0,76-456 0,-85 390 0,126-621 0,5 1 0,5 0 0,7 173 0,4-229-1365,-1-45-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1369.39">427 4429 24575,'1'2'0,"-1"-1"0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,2 0 0,5 7 0,10 19 0,-1 0 0,-1 0 0,14 38 0,30 97 0,-55-149 0,19 64 0,16 88 0,1 84 0,-40-243 0,1 8 0,-1-6 0,0-1 0,1 1 0,0-1 0,0 1 0,5 12 0,-6-20 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,2-2 0,159-55 0,192-51 0,-349 107 0,1-2 0,-1 1 0,0-1 0,0 0 0,9-6 0,-13 7 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0-5 0,3-14 0,9-53 0,33-111 0,-32 141 0,3-1 0,1 2 0,45-77 0,-44 100 0,-18 21 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 1 0,-11-6 0,0 0 0,-1 1 0,0 0 0,0 0 0,0 1 0,-12-1 0,-4-3 0,-1248-295-934,1252 298 934,-126-17 0,147 21 0,-1 0 1,1 0-1,0-1 1,0 1-1,-1 0 1,1 0-1,0 0 0,0 1 1,-1-1-1,1 0 1,0 0-1,0 1 1,-1-1-1,1 0 1,0 1-1,-2 0 1,3 0-2,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 1,1-1-1,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 1,-1 0-1,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,42 18 169,11 3-754,-34-15-6240</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-24T14:35:56.683"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-06-24T14:37:27.221"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7BDD00DD-3781-437F-B8EF-B8F20773EE36}" name="Table2" displayName="Table2" ref="A2:N7" totalsRowShown="0">
-  <autoFilter ref="A2:N7" xr:uid="{7BDD00DD-3781-437F-B8EF-B8F20773EE36}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N7">
-    <sortCondition ref="A2:A7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7BDD00DD-3781-437F-B8EF-B8F20773EE36}" name="Table2" displayName="Table2" ref="A2:N8" totalsRowShown="0">
+  <autoFilter ref="A2:N8" xr:uid="{7BDD00DD-3781-437F-B8EF-B8F20773EE36}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N8">
+    <sortCondition ref="A2:A8"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{1E742399-FD6D-4114-8B72-E80043BD978A}" name="# of streams"/>
@@ -3545,8 +4148,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB8434B5-CBF4-40F3-8429-54CBA777122A}" name="Table1" displayName="Table1" ref="P2:AC7" totalsRowShown="0">
-  <autoFilter ref="P2:AC7" xr:uid="{FB8434B5-CBF4-40F3-8429-54CBA777122A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB8434B5-CBF4-40F3-8429-54CBA777122A}" name="Table1" displayName="Table1" ref="P2:AC8" totalsRowShown="0">
+  <autoFilter ref="P2:AC8" xr:uid="{FB8434B5-CBF4-40F3-8429-54CBA777122A}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{D8ECE691-65FB-44BD-9A23-C8AE07545892}" name="Concurrent Downloads"/>
     <tableColumn id="2" xr3:uid="{C9A0FC86-82CB-4F30-8379-9362B7CDBFA6}" name="1" dataDxfId="12"/>
@@ -3864,15 +4467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CE4B37-856E-40E0-9A51-108C0DDE3B53}">
-  <dimension ref="A1:BX253"/>
+  <dimension ref="A1:CN253"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AW5" sqref="AW5:BI5"/>
+    <sheetView topLeftCell="BN1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CB5" sqref="CB5:CN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4071,8 +4674,47 @@
       <c r="BX1">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="CB1">
+        <v>1</v>
+      </c>
+      <c r="CC1">
+        <v>2</v>
+      </c>
+      <c r="CD1">
+        <v>3</v>
+      </c>
+      <c r="CE1">
+        <v>4</v>
+      </c>
+      <c r="CF1">
+        <v>5</v>
+      </c>
+      <c r="CG1">
+        <v>8</v>
+      </c>
+      <c r="CH1">
+        <v>12</v>
+      </c>
+      <c r="CI1">
+        <v>16</v>
+      </c>
+      <c r="CJ1">
+        <v>20</v>
+      </c>
+      <c r="CK1">
+        <v>25</v>
+      </c>
+      <c r="CL1">
+        <v>30</v>
+      </c>
+      <c r="CM1">
+        <v>40</v>
+      </c>
+      <c r="CN1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4281,46 +4923,61 @@
         <v>Standard_F4s_v2</v>
       </c>
       <c r="BL2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BM2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BN2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BO2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BP2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BQ2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BR2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BS2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BT2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BU2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BV2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BW2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BX2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="CB2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC2" s="11"/>
+      <c r="CD2" s="11"/>
+      <c r="CE2" s="11"/>
+      <c r="CF2" s="11"/>
+      <c r="CG2" s="11"/>
+      <c r="CH2" s="11"/>
+      <c r="CI2" s="11"/>
+      <c r="CJ2" s="11"/>
+      <c r="CK2" s="11"/>
+      <c r="CL2" s="11"/>
+      <c r="CM2" s="11"/>
+      <c r="CN2" s="11"/>
+    </row>
+    <row r="3" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4519,8 +5176,47 @@
       <c r="BX3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="CB3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4720,8 +5416,47 @@
       <c r="BX4" s="2">
         <v>40.388834899999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB4" s="2">
+        <v>1336.3447087</v>
+      </c>
+      <c r="CC4" s="2">
+        <v>727.33736959999999</v>
+      </c>
+      <c r="CD4" s="2">
+        <v>514.41285530000005</v>
+      </c>
+      <c r="CE4" s="2">
+        <v>391.70656659999997</v>
+      </c>
+      <c r="CF4" s="2">
+        <v>303.10465110000001</v>
+      </c>
+      <c r="CG4" s="2">
+        <v>185.52456129999999</v>
+      </c>
+      <c r="CH4" s="2">
+        <v>129.3154681</v>
+      </c>
+      <c r="CI4" s="2">
+        <v>95.420004300000002</v>
+      </c>
+      <c r="CJ4" s="2">
+        <v>82.045025199999998</v>
+      </c>
+      <c r="CK4" s="2">
+        <v>67.858773400000004</v>
+      </c>
+      <c r="CL4" s="2">
+        <v>58.845250900000003</v>
+      </c>
+      <c r="CM4" s="2">
+        <v>55.785725100000001</v>
+      </c>
+      <c r="CN4" s="2">
+        <v>48.802437300000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -4842,43 +5577,43 @@
       <c r="AR5" s="3">
         <v>8768.4599999999991</v>
       </c>
-      <c r="AW5" s="3">
+      <c r="AW5" s="9">
         <v>1004.61</v>
       </c>
-      <c r="AX5" s="3">
+      <c r="AX5" s="9">
         <v>1935.99</v>
       </c>
-      <c r="AY5" s="3">
+      <c r="AY5" s="9">
         <v>2598.1999999999998</v>
       </c>
-      <c r="AZ5" s="3">
+      <c r="AZ5" s="9">
         <v>3651.11</v>
       </c>
-      <c r="BA5" s="3">
+      <c r="BA5" s="9">
         <v>3782.31</v>
       </c>
-      <c r="BB5" s="3">
+      <c r="BB5" s="9">
         <v>4140.13</v>
       </c>
-      <c r="BC5" s="3">
+      <c r="BC5" s="9">
         <v>4883.3</v>
       </c>
-      <c r="BD5" s="3">
+      <c r="BD5" s="9">
         <v>5568.7</v>
       </c>
-      <c r="BE5" s="3">
+      <c r="BE5" s="9">
         <v>5630.22</v>
       </c>
-      <c r="BF5" s="3">
+      <c r="BF5" s="9">
         <v>5688.18</v>
       </c>
-      <c r="BG5" s="3">
+      <c r="BG5" s="9">
         <v>5892.55</v>
       </c>
-      <c r="BH5" s="3">
+      <c r="BH5" s="9">
         <v>5813.33</v>
       </c>
-      <c r="BI5" s="3">
+      <c r="BI5" s="9">
         <v>5989.54</v>
       </c>
       <c r="BL5" s="3">
@@ -4920,8 +5655,47 @@
       <c r="BX5" s="3">
         <v>25962.03</v>
       </c>
-    </row>
-    <row r="6" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB5" s="3">
+        <v>784.66</v>
+      </c>
+      <c r="CC5" s="3">
+        <v>1441.66</v>
+      </c>
+      <c r="CD5" s="3">
+        <v>2038.39</v>
+      </c>
+      <c r="CE5" s="3">
+        <v>2676.94</v>
+      </c>
+      <c r="CF5" s="3">
+        <v>3459.45</v>
+      </c>
+      <c r="CG5" s="3">
+        <v>5651.95</v>
+      </c>
+      <c r="CH5" s="3">
+        <v>8108.67</v>
+      </c>
+      <c r="CI5" s="3">
+        <v>10989.06</v>
+      </c>
+      <c r="CJ5" s="3">
+        <v>12780.49</v>
+      </c>
+      <c r="CK5" s="3">
+        <v>15452.33</v>
+      </c>
+      <c r="CL5" s="3">
+        <v>17819.21</v>
+      </c>
+      <c r="CM5" s="3">
+        <v>18796.490000000002</v>
+      </c>
+      <c r="CN5" s="3">
+        <v>21486.14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -5081,55 +5855,55 @@
         <f t="shared" si="15"/>
         <v>8637.1466666666674</v>
       </c>
-      <c r="AW6" s="3">
+      <c r="AW6" s="10">
         <f t="shared" ref="AW6" si="16">AVERAGE(AW7:AW134)</f>
         <v>1011.596171875</v>
       </c>
-      <c r="AX6" s="3">
+      <c r="AX6" s="10">
         <f t="shared" ref="AX6" si="17">AVERAGE(AX7:AX134)</f>
         <v>1938.5110937500006</v>
       </c>
-      <c r="AY6" s="3">
+      <c r="AY6" s="10">
         <f t="shared" ref="AY6" si="18">AVERAGE(AY7:AY134)</f>
         <v>2607.1002325581399</v>
       </c>
-      <c r="AZ6" s="3">
+      <c r="AZ6" s="10">
         <f t="shared" ref="AZ6" si="19">AVERAGE(AZ7:AZ134)</f>
         <v>3676.9078125000001</v>
       </c>
-      <c r="BA6" s="3">
+      <c r="BA6" s="10">
         <f t="shared" ref="BA6" si="20">AVERAGE(BA7:BA134)</f>
         <v>3787.3049999999998</v>
       </c>
-      <c r="BB6" s="3">
+      <c r="BB6" s="10">
         <f t="shared" ref="BB6" si="21">AVERAGE(BB7:BB134)</f>
         <v>4154.4093750000002</v>
       </c>
-      <c r="BC6" s="3">
+      <c r="BC6" s="10">
         <f t="shared" ref="BC6" si="22">AVERAGE(BC7:BC134)</f>
         <v>4892.1027272727279</v>
       </c>
-      <c r="BD6" s="3">
+      <c r="BD6" s="10">
         <f t="shared" ref="BD6" si="23">AVERAGE(BD7:BD134)</f>
         <v>5577.0375000000004</v>
       </c>
-      <c r="BE6" s="3">
+      <c r="BE6" s="10">
         <f t="shared" ref="BE6" si="24">AVERAGE(BE7:BE134)</f>
         <v>5578.0414285714287</v>
       </c>
-      <c r="BF6" s="3">
+      <c r="BF6" s="10">
         <f t="shared" ref="BF6" si="25">AVERAGE(BF7:BF134)</f>
         <v>5312.9466666666667</v>
       </c>
-      <c r="BG6" s="3">
+      <c r="BG6" s="10">
         <f t="shared" ref="BG6" si="26">AVERAGE(BG7:BG134)</f>
         <v>5813.8320000000003</v>
       </c>
-      <c r="BH6" s="3">
+      <c r="BH6" s="10">
         <f t="shared" ref="BH6" si="27">AVERAGE(BH7:BH134)</f>
         <v>5552.3950000000004</v>
       </c>
-      <c r="BI6" s="3">
+      <c r="BI6" s="10">
         <f t="shared" ref="BI6" si="28">AVERAGE(BI7:BI134)</f>
         <v>5967.6466666666665</v>
       </c>
@@ -5185,8 +5959,60 @@
         <f t="shared" si="30"/>
         <v>25620.91333333333</v>
       </c>
-    </row>
-    <row r="7" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB6" s="3">
+        <f t="shared" ref="CB6:CN6" si="31">AVERAGE(CB7:CB134)</f>
+        <v>795.1691406250003</v>
+      </c>
+      <c r="CC6" s="3">
+        <f t="shared" si="31"/>
+        <v>1444.6954687499997</v>
+      </c>
+      <c r="CD6" s="3">
+        <f t="shared" si="31"/>
+        <v>2043.8997674418601</v>
+      </c>
+      <c r="CE6" s="3">
+        <f t="shared" si="31"/>
+        <v>2680.5068750000005</v>
+      </c>
+      <c r="CF6" s="3">
+        <f t="shared" si="31"/>
+        <v>3458.9157692307685</v>
+      </c>
+      <c r="CG6" s="3">
+        <f t="shared" si="31"/>
+        <v>5667.45</v>
+      </c>
+      <c r="CH6" s="3">
+        <f t="shared" si="31"/>
+        <v>8122.8954545454553</v>
+      </c>
+      <c r="CI6" s="3">
+        <f t="shared" si="31"/>
+        <v>11004.0825</v>
+      </c>
+      <c r="CJ6" s="3">
+        <f t="shared" si="31"/>
+        <v>12759.632857142857</v>
+      </c>
+      <c r="CK6" s="3">
+        <f t="shared" si="31"/>
+        <v>15297.438333333334</v>
+      </c>
+      <c r="CL6" s="3">
+        <f t="shared" si="31"/>
+        <v>17526.379999999997</v>
+      </c>
+      <c r="CM6" s="3">
+        <f t="shared" si="31"/>
+        <v>18087.462500000001</v>
+      </c>
+      <c r="CN6" s="3">
+        <f t="shared" si="31"/>
+        <v>21154.959999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>979.72</v>
       </c>
@@ -5385,8 +6211,47 @@
       <c r="BX7" s="3">
         <v>28449.93</v>
       </c>
-    </row>
-    <row r="8" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB7" s="3">
+        <v>748.25</v>
+      </c>
+      <c r="CC7" s="3">
+        <v>1383.42</v>
+      </c>
+      <c r="CD7" s="3">
+        <v>2104.94</v>
+      </c>
+      <c r="CE7" s="3">
+        <v>2655.78</v>
+      </c>
+      <c r="CF7" s="3">
+        <v>3556.4</v>
+      </c>
+      <c r="CG7" s="3">
+        <v>4898.42</v>
+      </c>
+      <c r="CH7" s="3">
+        <v>7808.94</v>
+      </c>
+      <c r="CI7" s="3">
+        <v>11040.1</v>
+      </c>
+      <c r="CJ7" s="3">
+        <v>13999.3</v>
+      </c>
+      <c r="CK7" s="3">
+        <v>17548.939999999999</v>
+      </c>
+      <c r="CL7" s="3">
+        <v>20355.27</v>
+      </c>
+      <c r="CM7" s="3">
+        <v>21289.49</v>
+      </c>
+      <c r="CN7" s="3">
+        <v>22493.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>1044.97</v>
       </c>
@@ -5585,8 +6450,47 @@
       <c r="BX8" s="3">
         <v>29203.19</v>
       </c>
-    </row>
-    <row r="9" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB8" s="3">
+        <v>752.92</v>
+      </c>
+      <c r="CC8" s="3">
+        <v>1392.79</v>
+      </c>
+      <c r="CD8" s="3">
+        <v>2114.02</v>
+      </c>
+      <c r="CE8" s="3">
+        <v>2593.46</v>
+      </c>
+      <c r="CF8" s="3">
+        <v>3417.49</v>
+      </c>
+      <c r="CG8" s="3">
+        <v>5589.62</v>
+      </c>
+      <c r="CH8" s="3">
+        <v>8482.2800000000007</v>
+      </c>
+      <c r="CI8" s="3">
+        <v>11464.35</v>
+      </c>
+      <c r="CJ8" s="3">
+        <v>13790.77</v>
+      </c>
+      <c r="CK8" s="3">
+        <v>17415.38</v>
+      </c>
+      <c r="CL8" s="3">
+        <v>20277.32</v>
+      </c>
+      <c r="CM8" s="3">
+        <v>22006.240000000002</v>
+      </c>
+      <c r="CN8" s="3">
+        <v>23085.67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>1044.96</v>
       </c>
@@ -5785,8 +6689,47 @@
       <c r="BX9" s="3">
         <v>19209.62</v>
       </c>
-    </row>
-    <row r="10" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB9" s="3">
+        <v>750.71</v>
+      </c>
+      <c r="CC9" s="3">
+        <v>1419.2</v>
+      </c>
+      <c r="CD9" s="3">
+        <v>2124.64</v>
+      </c>
+      <c r="CE9" s="3">
+        <v>2593.46</v>
+      </c>
+      <c r="CF9" s="3">
+        <v>3402.71</v>
+      </c>
+      <c r="CG9" s="3">
+        <v>5765.05</v>
+      </c>
+      <c r="CH9" s="3">
+        <v>7963.74</v>
+      </c>
+      <c r="CI9" s="3">
+        <v>10759.84</v>
+      </c>
+      <c r="CJ9" s="3">
+        <v>14203.38</v>
+      </c>
+      <c r="CK9" s="3">
+        <v>18189.71</v>
+      </c>
+      <c r="CL9" s="3">
+        <v>20753.5</v>
+      </c>
+      <c r="CM9" s="3">
+        <v>23318.78</v>
+      </c>
+      <c r="CN9" s="3">
+        <v>17885.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>1019.69</v>
       </c>
@@ -5970,8 +6913,44 @@
       <c r="BW10" s="3">
         <v>6112.48</v>
       </c>
-    </row>
-    <row r="11" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB10" s="3">
+        <v>754.38</v>
+      </c>
+      <c r="CC10" s="3">
+        <v>1347.65</v>
+      </c>
+      <c r="CD10" s="3">
+        <v>2158.8200000000002</v>
+      </c>
+      <c r="CE10" s="3">
+        <v>2577.71</v>
+      </c>
+      <c r="CF10" s="3">
+        <v>3428.23</v>
+      </c>
+      <c r="CG10" s="3">
+        <v>5605.68</v>
+      </c>
+      <c r="CH10" s="3">
+        <v>8297.8700000000008</v>
+      </c>
+      <c r="CI10" s="3">
+        <v>10429.200000000001</v>
+      </c>
+      <c r="CJ10" s="3">
+        <v>14325.71</v>
+      </c>
+      <c r="CK10" s="3">
+        <v>18040.78</v>
+      </c>
+      <c r="CL10" s="3">
+        <v>20005.89</v>
+      </c>
+      <c r="CM10" s="3">
+        <v>5735.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>937.43</v>
       </c>
@@ -6140,8 +7119,41 @@
       <c r="BV11" s="3">
         <v>7497.35</v>
       </c>
-    </row>
-    <row r="12" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB11" s="3">
+        <v>739.67</v>
+      </c>
+      <c r="CC11" s="3">
+        <v>1411.35</v>
+      </c>
+      <c r="CD11" s="3">
+        <v>2121.9699999999998</v>
+      </c>
+      <c r="CE11" s="3">
+        <v>2581.52</v>
+      </c>
+      <c r="CF11" s="3">
+        <v>3490.52</v>
+      </c>
+      <c r="CG11" s="3">
+        <v>5729.8</v>
+      </c>
+      <c r="CH11" s="3">
+        <v>8813.33</v>
+      </c>
+      <c r="CI11" s="3">
+        <v>10664.89</v>
+      </c>
+      <c r="CJ11" s="3">
+        <v>14158.69</v>
+      </c>
+      <c r="CK11" s="3">
+        <v>18267.330000000002</v>
+      </c>
+      <c r="CL11" s="3">
+        <v>6239.92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>1017.11</v>
       </c>
@@ -6295,8 +7307,38 @@
       <c r="BU12" s="3">
         <v>2813.05</v>
       </c>
-    </row>
-    <row r="13" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB12" s="3">
+        <v>737.75</v>
+      </c>
+      <c r="CC12" s="3">
+        <v>1478.13</v>
+      </c>
+      <c r="CD12" s="3">
+        <v>2100.58</v>
+      </c>
+      <c r="CE12" s="3">
+        <v>2584.4499999999998</v>
+      </c>
+      <c r="CF12" s="3">
+        <v>3413.91</v>
+      </c>
+      <c r="CG12" s="3">
+        <v>5651.66</v>
+      </c>
+      <c r="CH12" s="3">
+        <v>8683.6</v>
+      </c>
+      <c r="CI12" s="3">
+        <v>10968.15</v>
+      </c>
+      <c r="CJ12" s="3">
+        <v>13035.56</v>
+      </c>
+      <c r="CK12" s="3">
+        <v>2322.4899999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>1015.52</v>
       </c>
@@ -6435,8 +7477,35 @@
       <c r="BT13" s="3">
         <v>7528.45</v>
       </c>
-    </row>
-    <row r="14" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB13" s="3">
+        <v>749.73</v>
+      </c>
+      <c r="CC13" s="3">
+        <v>1460.76</v>
+      </c>
+      <c r="CD13" s="3">
+        <v>2126.46</v>
+      </c>
+      <c r="CE13" s="3">
+        <v>2594.35</v>
+      </c>
+      <c r="CF13" s="3">
+        <v>3486.37</v>
+      </c>
+      <c r="CG13" s="3">
+        <v>5653.36</v>
+      </c>
+      <c r="CH13" s="3">
+        <v>8566.65</v>
+      </c>
+      <c r="CI13" s="3">
+        <v>11364.42</v>
+      </c>
+      <c r="CJ13" s="3">
+        <v>5804.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>1037.53</v>
       </c>
@@ -6560,8 +7629,32 @@
       <c r="BS14" s="3">
         <v>13273.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB14" s="3">
+        <v>756.1</v>
+      </c>
+      <c r="CC14" s="3">
+        <v>1560.04</v>
+      </c>
+      <c r="CD14" s="3">
+        <v>2077.36</v>
+      </c>
+      <c r="CE14" s="3">
+        <v>2653.64</v>
+      </c>
+      <c r="CF14" s="3">
+        <v>3535.8</v>
+      </c>
+      <c r="CG14" s="3">
+        <v>5650.58</v>
+      </c>
+      <c r="CH14" s="3">
+        <v>8849.25</v>
+      </c>
+      <c r="CI14" s="3">
+        <v>11341.71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>1038.3599999999999</v>
       </c>
@@ -6670,8 +7763,29 @@
       <c r="BR15" s="3">
         <v>9095.11</v>
       </c>
-    </row>
-    <row r="16" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB15" s="3">
+        <v>755.82</v>
+      </c>
+      <c r="CC15" s="3">
+        <v>1482.98</v>
+      </c>
+      <c r="CD15" s="3">
+        <v>2124.88</v>
+      </c>
+      <c r="CE15" s="3">
+        <v>2665.43</v>
+      </c>
+      <c r="CF15" s="3">
+        <v>3499.61</v>
+      </c>
+      <c r="CG15" s="3">
+        <v>5706.59</v>
+      </c>
+      <c r="CH15" s="3">
+        <v>8163.53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <v>1031.3599999999999</v>
       </c>
@@ -6780,8 +7894,29 @@
       <c r="BR16" s="3">
         <v>8640.6</v>
       </c>
-    </row>
-    <row r="17" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB16" s="3">
+        <v>755.64</v>
+      </c>
+      <c r="CC16" s="3">
+        <v>1529.57</v>
+      </c>
+      <c r="CD16" s="3">
+        <v>2063.75</v>
+      </c>
+      <c r="CE16" s="3">
+        <v>2593.41</v>
+      </c>
+      <c r="CF16" s="3">
+        <v>3459.66</v>
+      </c>
+      <c r="CG16" s="3">
+        <v>5949.18</v>
+      </c>
+      <c r="CH16" s="3">
+        <v>8151.28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>1044.56</v>
       </c>
@@ -6890,8 +8025,29 @@
       <c r="BR17" s="3">
         <v>6089.42</v>
       </c>
-    </row>
-    <row r="18" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB17" s="3">
+        <v>783.1</v>
+      </c>
+      <c r="CC17" s="3">
+        <v>1617.83</v>
+      </c>
+      <c r="CD17" s="3">
+        <v>2062.73</v>
+      </c>
+      <c r="CE17" s="3">
+        <v>2617.84</v>
+      </c>
+      <c r="CF17" s="3">
+        <v>3538.57</v>
+      </c>
+      <c r="CG17" s="3">
+        <v>5524.66</v>
+      </c>
+      <c r="CH17" s="3">
+        <v>5571.38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>1024.9000000000001</v>
       </c>
@@ -6985,8 +8141,26 @@
       <c r="BQ18" s="3">
         <v>7077.99</v>
       </c>
-    </row>
-    <row r="19" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB18" s="3">
+        <v>756.86</v>
+      </c>
+      <c r="CC18" s="3">
+        <v>1557.59</v>
+      </c>
+      <c r="CD18" s="3">
+        <v>2068.19</v>
+      </c>
+      <c r="CE18" s="3">
+        <v>2663.61</v>
+      </c>
+      <c r="CF18" s="3">
+        <v>3351.14</v>
+      </c>
+      <c r="CG18" s="3">
+        <v>5650.57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>1015.28</v>
       </c>
@@ -7080,8 +8254,26 @@
       <c r="BQ19" s="3">
         <v>7168.38</v>
       </c>
-    </row>
-    <row r="20" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB19" s="3">
+        <v>781.24</v>
+      </c>
+      <c r="CC19" s="3">
+        <v>1529.92</v>
+      </c>
+      <c r="CD19" s="3">
+        <v>2091.46</v>
+      </c>
+      <c r="CE19" s="3">
+        <v>2667.21</v>
+      </c>
+      <c r="CF19" s="3">
+        <v>3570.03</v>
+      </c>
+      <c r="CG19" s="3">
+        <v>5710.77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <v>1031.78</v>
       </c>
@@ -7175,8 +8367,26 @@
       <c r="BQ20" s="3">
         <v>7185.56</v>
       </c>
-    </row>
-    <row r="21" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB20" s="3">
+        <v>755</v>
+      </c>
+      <c r="CC20" s="3">
+        <v>1482.43</v>
+      </c>
+      <c r="CD20" s="3">
+        <v>2038.33</v>
+      </c>
+      <c r="CE20" s="3">
+        <v>2602.98</v>
+      </c>
+      <c r="CF20" s="3">
+        <v>3602.62</v>
+      </c>
+      <c r="CG20" s="3">
+        <v>5885.83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <v>1047.18</v>
       </c>
@@ -7270,8 +8480,26 @@
       <c r="BQ21" s="3">
         <v>7071.22</v>
       </c>
-    </row>
-    <row r="22" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB21" s="3">
+        <v>767.44</v>
+      </c>
+      <c r="CC21" s="3">
+        <v>1493.41</v>
+      </c>
+      <c r="CD21" s="3">
+        <v>1997.24</v>
+      </c>
+      <c r="CE21" s="3">
+        <v>2599.11</v>
+      </c>
+      <c r="CF21" s="3">
+        <v>3587.27</v>
+      </c>
+      <c r="CG21" s="3">
+        <v>6029.94</v>
+      </c>
+    </row>
+    <row r="22" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <v>1051.32</v>
       </c>
@@ -7365,8 +8593,26 @@
       <c r="BQ22" s="3">
         <v>7070.25</v>
       </c>
-    </row>
-    <row r="23" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB22" s="3">
+        <v>791.59</v>
+      </c>
+      <c r="CC22" s="3">
+        <v>1489.62</v>
+      </c>
+      <c r="CD22" s="3">
+        <v>1970.74</v>
+      </c>
+      <c r="CE22" s="3">
+        <v>2620.2199999999998</v>
+      </c>
+      <c r="CF22" s="3">
+        <v>3543.31</v>
+      </c>
+      <c r="CG22" s="3">
+        <v>5677.49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <v>1024.78</v>
       </c>
@@ -7445,8 +8691,23 @@
       <c r="BP23" s="3">
         <v>4923.92</v>
       </c>
-    </row>
-    <row r="24" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB23" s="3">
+        <v>788.68</v>
+      </c>
+      <c r="CC23" s="3">
+        <v>1470.8</v>
+      </c>
+      <c r="CD23" s="3">
+        <v>2116.6</v>
+      </c>
+      <c r="CE23" s="3">
+        <v>2677.76</v>
+      </c>
+      <c r="CF23" s="3">
+        <v>3584.88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <v>1050.07</v>
       </c>
@@ -7525,8 +8786,23 @@
       <c r="BP24" s="3">
         <v>4781.78</v>
       </c>
-    </row>
-    <row r="25" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB24" s="3">
+        <v>896</v>
+      </c>
+      <c r="CC24" s="3">
+        <v>1470.5</v>
+      </c>
+      <c r="CD24" s="3">
+        <v>2144.85</v>
+      </c>
+      <c r="CE24" s="3">
+        <v>2677.45</v>
+      </c>
+      <c r="CF24" s="3">
+        <v>3664.27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>1033.3499999999999</v>
       </c>
@@ -7605,8 +8881,23 @@
       <c r="BP25" s="3">
         <v>4786.12</v>
       </c>
-    </row>
-    <row r="26" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB25" s="3">
+        <v>838.03</v>
+      </c>
+      <c r="CC25" s="3">
+        <v>1488.46</v>
+      </c>
+      <c r="CD25" s="3">
+        <v>2123.33</v>
+      </c>
+      <c r="CE25" s="3">
+        <v>2652.05</v>
+      </c>
+      <c r="CF25" s="3">
+        <v>3404.8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <v>1011.61</v>
       </c>
@@ -7685,8 +8976,23 @@
       <c r="BP26" s="3">
         <v>4930.59</v>
       </c>
-    </row>
-    <row r="27" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB26" s="3">
+        <v>805.14</v>
+      </c>
+      <c r="CC26" s="3">
+        <v>1442.42</v>
+      </c>
+      <c r="CD26" s="3">
+        <v>2146.7399999999998</v>
+      </c>
+      <c r="CE26" s="3">
+        <v>2705.23</v>
+      </c>
+      <c r="CF26" s="3">
+        <v>3659.68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <v>1032.45</v>
       </c>
@@ -7765,8 +9071,23 @@
       <c r="BP27" s="3">
         <v>4861.47</v>
       </c>
-    </row>
-    <row r="28" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB27" s="3">
+        <v>801.47</v>
+      </c>
+      <c r="CC27" s="3">
+        <v>1466.59</v>
+      </c>
+      <c r="CD27" s="3">
+        <v>2157.09</v>
+      </c>
+      <c r="CE27" s="3">
+        <v>2575.3000000000002</v>
+      </c>
+      <c r="CF27" s="3">
+        <v>3404.07</v>
+      </c>
+    </row>
+    <row r="28" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>1052.8399999999999</v>
       </c>
@@ -7845,8 +9166,23 @@
       <c r="BP28" s="3">
         <v>4800.51</v>
       </c>
-    </row>
-    <row r="29" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB28" s="3">
+        <v>817.7</v>
+      </c>
+      <c r="CC28" s="3">
+        <v>1484.31</v>
+      </c>
+      <c r="CD28" s="3">
+        <v>2255.5500000000002</v>
+      </c>
+      <c r="CE28" s="3">
+        <v>2676.36</v>
+      </c>
+      <c r="CF28" s="3">
+        <v>3361.12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>1069.96</v>
       </c>
@@ -7925,8 +9261,23 @@
       <c r="BP29" s="3">
         <v>4830.5600000000004</v>
       </c>
-    </row>
-    <row r="30" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB29" s="3">
+        <v>810.45</v>
+      </c>
+      <c r="CC29" s="3">
+        <v>1498.86</v>
+      </c>
+      <c r="CD29" s="3">
+        <v>2239.41</v>
+      </c>
+      <c r="CE29" s="3">
+        <v>2620.1</v>
+      </c>
+      <c r="CF29" s="3">
+        <v>3419.6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>1057.8399999999999</v>
       </c>
@@ -8005,8 +9356,23 @@
       <c r="BP30" s="3">
         <v>4846.3900000000003</v>
       </c>
-    </row>
-    <row r="31" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB30" s="3">
+        <v>808.76</v>
+      </c>
+      <c r="CC30" s="3">
+        <v>1453.59</v>
+      </c>
+      <c r="CD30" s="3">
+        <v>2164.62</v>
+      </c>
+      <c r="CE30" s="3">
+        <v>2753.38</v>
+      </c>
+      <c r="CF30" s="3">
+        <v>3621.45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <v>1053.3499999999999</v>
       </c>
@@ -8085,8 +9451,23 @@
       <c r="BP31" s="3">
         <v>4747.8599999999997</v>
       </c>
-    </row>
-    <row r="32" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB31" s="3">
+        <v>805.41</v>
+      </c>
+      <c r="CC31" s="3">
+        <v>1452.39</v>
+      </c>
+      <c r="CD31" s="3">
+        <v>2099.71</v>
+      </c>
+      <c r="CE31" s="3">
+        <v>2816.07</v>
+      </c>
+      <c r="CF31" s="3">
+        <v>3661.64</v>
+      </c>
+    </row>
+    <row r="32" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <v>1057.23</v>
       </c>
@@ -8165,8 +9546,23 @@
       <c r="BP32" s="3">
         <v>2901.2</v>
       </c>
-    </row>
-    <row r="33" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB32" s="3">
+        <v>770.27</v>
+      </c>
+      <c r="CC32" s="3">
+        <v>1479.56</v>
+      </c>
+      <c r="CD32" s="3">
+        <v>2085.1999999999998</v>
+      </c>
+      <c r="CE32" s="3">
+        <v>2862.87</v>
+      </c>
+      <c r="CF32" s="3">
+        <v>2266.66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <v>1019.12</v>
       </c>
@@ -8230,8 +9626,20 @@
       <c r="BO33" s="3">
         <v>3915.87</v>
       </c>
-    </row>
-    <row r="34" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB33" s="3">
+        <v>752.1</v>
+      </c>
+      <c r="CC33" s="3">
+        <v>1448.57</v>
+      </c>
+      <c r="CD33" s="3">
+        <v>2167.33</v>
+      </c>
+      <c r="CE33" s="3">
+        <v>2826.91</v>
+      </c>
+    </row>
+    <row r="34" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="3">
         <v>1004.71</v>
       </c>
@@ -8295,8 +9703,20 @@
       <c r="BO34" s="3">
         <v>3915.87</v>
       </c>
-    </row>
-    <row r="35" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB34" s="3">
+        <v>788</v>
+      </c>
+      <c r="CC34" s="3">
+        <v>1345.57</v>
+      </c>
+      <c r="CD34" s="3">
+        <v>2163.92</v>
+      </c>
+      <c r="CE34" s="3">
+        <v>2770.71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
         <v>1023.48</v>
       </c>
@@ -8360,8 +9780,23 @@
       <c r="BO35" s="3">
         <v>3915.87</v>
       </c>
-    </row>
-    <row r="36" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BY35"/>
+      <c r="BZ35"/>
+      <c r="CA35"/>
+      <c r="CB35" s="3">
+        <v>795.63</v>
+      </c>
+      <c r="CC35" s="3">
+        <v>1351.88</v>
+      </c>
+      <c r="CD35" s="3">
+        <v>2086.52</v>
+      </c>
+      <c r="CE35" s="3">
+        <v>2886.47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <v>1032.77</v>
       </c>
@@ -8425,8 +9860,23 @@
       <c r="BO36" s="3">
         <v>3915.87</v>
       </c>
-    </row>
-    <row r="37" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BY36"/>
+      <c r="BZ36"/>
+      <c r="CA36"/>
+      <c r="CB36" s="3">
+        <v>908.95</v>
+      </c>
+      <c r="CC36" s="3">
+        <v>1374.33</v>
+      </c>
+      <c r="CD36" s="3">
+        <v>1995.56</v>
+      </c>
+      <c r="CE36" s="3">
+        <v>2825.7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="3">
         <v>1044.76</v>
       </c>
@@ -8490,8 +9940,23 @@
       <c r="BO37" s="3">
         <v>3915.87</v>
       </c>
-    </row>
-    <row r="38" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BY37"/>
+      <c r="BZ37"/>
+      <c r="CA37"/>
+      <c r="CB37" s="3">
+        <v>902.23</v>
+      </c>
+      <c r="CC37" s="3">
+        <v>1373.57</v>
+      </c>
+      <c r="CD37" s="3">
+        <v>2061.86</v>
+      </c>
+      <c r="CE37" s="3">
+        <v>2811.51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>1050.6300000000001</v>
       </c>
@@ -8555,8 +10020,23 @@
       <c r="BO38" s="3">
         <v>3915.87</v>
       </c>
-    </row>
-    <row r="39" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BY38"/>
+      <c r="BZ38"/>
+      <c r="CA38"/>
+      <c r="CB38" s="3">
+        <v>872.24</v>
+      </c>
+      <c r="CC38" s="3">
+        <v>1350.28</v>
+      </c>
+      <c r="CD38" s="3">
+        <v>2020.23</v>
+      </c>
+      <c r="CE38" s="3">
+        <v>2774.17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3">
         <v>1052.81</v>
       </c>
@@ -8605,8 +10085,20 @@
       <c r="BN39" s="3">
         <v>3167.86</v>
       </c>
-    </row>
-    <row r="40" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BY39"/>
+      <c r="BZ39"/>
+      <c r="CA39"/>
+      <c r="CB39" s="3">
+        <v>909.93</v>
+      </c>
+      <c r="CC39" s="3">
+        <v>1362.85</v>
+      </c>
+      <c r="CD39" s="3">
+        <v>2007.42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B40" s="3">
         <v>1045.2</v>
       </c>
@@ -8655,8 +10147,20 @@
       <c r="BN40" s="3">
         <v>3121.62</v>
       </c>
-    </row>
-    <row r="41" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BY40"/>
+      <c r="BZ40"/>
+      <c r="CA40"/>
+      <c r="CB40" s="3">
+        <v>900.36</v>
+      </c>
+      <c r="CC40" s="3">
+        <v>1368.52</v>
+      </c>
+      <c r="CD40" s="3">
+        <v>1931.09</v>
+      </c>
+    </row>
+    <row r="41" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B41" s="3">
         <v>1021.89</v>
       </c>
@@ -8705,8 +10209,20 @@
       <c r="BN41" s="3">
         <v>3181.52</v>
       </c>
-    </row>
-    <row r="42" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BY41"/>
+      <c r="BZ41"/>
+      <c r="CA41"/>
+      <c r="CB41" s="3">
+        <v>910.47</v>
+      </c>
+      <c r="CC41" s="3">
+        <v>1351.99</v>
+      </c>
+      <c r="CD41" s="3">
+        <v>1932.39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B42" s="3">
         <v>1021.09</v>
       </c>
@@ -8755,8 +10271,20 @@
       <c r="BN42" s="3">
         <v>3171.31</v>
       </c>
-    </row>
-    <row r="43" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BY42"/>
+      <c r="BZ42"/>
+      <c r="CA42"/>
+      <c r="CB42" s="3">
+        <v>911.43</v>
+      </c>
+      <c r="CC42" s="3">
+        <v>1341.57</v>
+      </c>
+      <c r="CD42" s="3">
+        <v>1924.98</v>
+      </c>
+    </row>
+    <row r="43" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>1029.45</v>
       </c>
@@ -8805,8 +10333,20 @@
       <c r="BN43" s="3">
         <v>3208.38</v>
       </c>
-    </row>
-    <row r="44" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BY43"/>
+      <c r="BZ43"/>
+      <c r="CA43"/>
+      <c r="CB43" s="3">
+        <v>917.01</v>
+      </c>
+      <c r="CC43" s="3">
+        <v>1385.27</v>
+      </c>
+      <c r="CD43" s="3">
+        <v>1902.17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>1034.01</v>
       </c>
@@ -8855,8 +10395,20 @@
       <c r="BN44" s="3">
         <v>3234.29</v>
       </c>
-    </row>
-    <row r="45" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BY44"/>
+      <c r="BZ44"/>
+      <c r="CA44"/>
+      <c r="CB44" s="3">
+        <v>918.65</v>
+      </c>
+      <c r="CC44" s="3">
+        <v>1487.95</v>
+      </c>
+      <c r="CD44" s="3">
+        <v>1893.58</v>
+      </c>
+    </row>
+    <row r="45" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
         <v>928</v>
       </c>
@@ -8905,8 +10457,20 @@
       <c r="BN45" s="3">
         <v>3149.1</v>
       </c>
-    </row>
-    <row r="46" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BY45"/>
+      <c r="BZ45"/>
+      <c r="CA45"/>
+      <c r="CB45" s="3">
+        <v>892.62</v>
+      </c>
+      <c r="CC45" s="3">
+        <v>1453.46</v>
+      </c>
+      <c r="CD45" s="3">
+        <v>1901.42</v>
+      </c>
+    </row>
+    <row r="46" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B46" s="3">
         <v>991.96</v>
       </c>
@@ -8955,8 +10519,20 @@
       <c r="BN46" s="3">
         <v>2887.28</v>
       </c>
-    </row>
-    <row r="47" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BY46"/>
+      <c r="BZ46"/>
+      <c r="CA46"/>
+      <c r="CB46" s="3">
+        <v>917.65</v>
+      </c>
+      <c r="CC46" s="3">
+        <v>1436.33</v>
+      </c>
+      <c r="CD46" s="3">
+        <v>1888.98</v>
+      </c>
+    </row>
+    <row r="47" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3">
         <v>1024.1500000000001</v>
       </c>
@@ -9005,8 +10581,20 @@
       <c r="BN47" s="3">
         <v>2740.46</v>
       </c>
-    </row>
-    <row r="48" spans="2:67" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BY47"/>
+      <c r="BZ47"/>
+      <c r="CA47"/>
+      <c r="CB47" s="3">
+        <v>922.97</v>
+      </c>
+      <c r="CC47" s="3">
+        <v>1347.07</v>
+      </c>
+      <c r="CD47" s="3">
+        <v>1852.97</v>
+      </c>
+    </row>
+    <row r="48" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B48" s="3">
         <v>986.51</v>
       </c>
@@ -9055,8 +10643,17 @@
       <c r="BN48" s="3">
         <v>2756.61</v>
       </c>
-    </row>
-    <row r="49" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB48" s="3">
+        <v>916.33</v>
+      </c>
+      <c r="CC48" s="3">
+        <v>1360.17</v>
+      </c>
+      <c r="CD48" s="3">
+        <v>1965.8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B49" s="3">
         <v>976.08</v>
       </c>
@@ -9105,8 +10702,17 @@
       <c r="BN49" s="3">
         <v>1882.06</v>
       </c>
-    </row>
-    <row r="50" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB49" s="3">
+        <v>930.48</v>
+      </c>
+      <c r="CC49" s="3">
+        <v>1361.39</v>
+      </c>
+      <c r="CD49" s="3">
+        <v>1312.26</v>
+      </c>
+    </row>
+    <row r="50" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B50" s="3">
         <v>971.95</v>
       </c>
@@ -9140,8 +10746,22 @@
       <c r="BM50" s="3">
         <v>2107.61</v>
       </c>
-    </row>
-    <row r="51" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BY50"/>
+      <c r="BZ50"/>
+      <c r="CA50"/>
+      <c r="CB50" s="3">
+        <v>915.67</v>
+      </c>
+      <c r="CC50" s="3">
+        <v>1365.24</v>
+      </c>
+      <c r="CG50"/>
+      <c r="CH50"/>
+      <c r="CI50"/>
+      <c r="CJ50"/>
+      <c r="CK50"/>
+    </row>
+    <row r="51" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51" s="3">
         <v>1007.79</v>
       </c>
@@ -9175,8 +10795,22 @@
       <c r="BM51" s="3">
         <v>2113.91</v>
       </c>
-    </row>
-    <row r="52" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BY51" s="2"/>
+      <c r="BZ51" s="2"/>
+      <c r="CA51" s="2"/>
+      <c r="CB51" s="3">
+        <v>929.8</v>
+      </c>
+      <c r="CC51" s="3">
+        <v>1422.27</v>
+      </c>
+      <c r="CG51" s="2"/>
+      <c r="CH51" s="2"/>
+      <c r="CI51" s="2"/>
+      <c r="CJ51" s="2"/>
+      <c r="CK51" s="2"/>
+    </row>
+    <row r="52" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
         <v>1012.41</v>
       </c>
@@ -9210,8 +10844,14 @@
       <c r="BM52" s="3">
         <v>2115.46</v>
       </c>
-    </row>
-    <row r="53" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB52" s="3">
+        <v>885.9</v>
+      </c>
+      <c r="CC52" s="3">
+        <v>1389.94</v>
+      </c>
+    </row>
+    <row r="53" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B53" s="3">
         <v>1021.28</v>
       </c>
@@ -9245,8 +10885,14 @@
       <c r="BM53" s="3">
         <v>2121.06</v>
       </c>
-    </row>
-    <row r="54" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB53" s="3">
+        <v>919.3</v>
+      </c>
+      <c r="CC53" s="3">
+        <v>1364.86</v>
+      </c>
+    </row>
+    <row r="54" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B54" s="3">
         <v>1017.08</v>
       </c>
@@ -9280,8 +10926,14 @@
       <c r="BM54" s="3">
         <v>2109.7600000000002</v>
       </c>
-    </row>
-    <row r="55" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB54" s="3">
+        <v>922.91</v>
+      </c>
+      <c r="CC54" s="3">
+        <v>1411.1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
         <v>993.91</v>
       </c>
@@ -9315,8 +10967,14 @@
       <c r="BM55" s="3">
         <v>2120.15</v>
       </c>
-    </row>
-    <row r="56" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB55" s="3">
+        <v>891.9</v>
+      </c>
+      <c r="CC55" s="3">
+        <v>1452.08</v>
+      </c>
+    </row>
+    <row r="56" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B56" s="3">
         <v>981.47</v>
       </c>
@@ -9350,8 +11008,14 @@
       <c r="BM56" s="3">
         <v>2103.21</v>
       </c>
-    </row>
-    <row r="57" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB56" s="3">
+        <v>1034.27</v>
+      </c>
+      <c r="CC56" s="3">
+        <v>1509.07</v>
+      </c>
+    </row>
+    <row r="57" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B57" s="3">
         <v>1006.61</v>
       </c>
@@ -9385,8 +11049,14 @@
       <c r="BM57" s="3">
         <v>2101.37</v>
       </c>
-    </row>
-    <row r="58" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB57" s="3">
+        <v>1017.7</v>
+      </c>
+      <c r="CC57" s="3">
+        <v>1517.25</v>
+      </c>
+    </row>
+    <row r="58" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B58" s="3">
         <v>999.85</v>
       </c>
@@ -9420,8 +11090,14 @@
       <c r="BM58" s="3">
         <v>2124.96</v>
       </c>
-    </row>
-    <row r="59" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB58" s="3">
+        <v>1010.73</v>
+      </c>
+      <c r="CC58" s="3">
+        <v>1482.02</v>
+      </c>
+    </row>
+    <row r="59" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B59" s="3">
         <v>1023.31</v>
       </c>
@@ -9455,8 +11131,14 @@
       <c r="BM59" s="3">
         <v>2120.4</v>
       </c>
-    </row>
-    <row r="60" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB59" s="3">
+        <v>997.62</v>
+      </c>
+      <c r="CC59" s="3">
+        <v>1443.27</v>
+      </c>
+    </row>
+    <row r="60" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B60" s="3">
         <v>1039.8499999999999</v>
       </c>
@@ -9490,8 +11172,14 @@
       <c r="BM60" s="3">
         <v>2117.4899999999998</v>
       </c>
-    </row>
-    <row r="61" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB60" s="3">
+        <v>923.54</v>
+      </c>
+      <c r="CC60" s="3">
+        <v>1375.78</v>
+      </c>
+    </row>
+    <row r="61" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="3">
         <v>1009.16</v>
       </c>
@@ -9525,8 +11213,14 @@
       <c r="BM61" s="3">
         <v>2134.5500000000002</v>
       </c>
-    </row>
-    <row r="62" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB61" s="3">
+        <v>907.71</v>
+      </c>
+      <c r="CC61" s="3">
+        <v>1523.62</v>
+      </c>
+    </row>
+    <row r="62" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
         <v>1005.45</v>
       </c>
@@ -9560,8 +11254,14 @@
       <c r="BM62" s="3">
         <v>2095.89</v>
       </c>
-    </row>
-    <row r="63" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB62" s="3">
+        <v>925.45</v>
+      </c>
+      <c r="CC62" s="3">
+        <v>1489.29</v>
+      </c>
+    </row>
+    <row r="63" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="3">
         <v>962.42</v>
       </c>
@@ -9595,8 +11295,14 @@
       <c r="BM63" s="3">
         <v>2094.4499999999998</v>
       </c>
-    </row>
-    <row r="64" spans="2:66" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB63" s="3">
+        <v>917.7</v>
+      </c>
+      <c r="CC63" s="3">
+        <v>1505.33</v>
+      </c>
+    </row>
+    <row r="64" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <v>983.12</v>
       </c>
@@ -9630,8 +11336,14 @@
       <c r="BM64" s="3">
         <v>2068.5</v>
       </c>
-    </row>
-    <row r="65" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB64" s="3">
+        <v>925.33</v>
+      </c>
+      <c r="CC64" s="3">
+        <v>1470.58</v>
+      </c>
+    </row>
+    <row r="65" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>999.38</v>
       </c>
@@ -9665,8 +11377,14 @@
       <c r="BM65" s="3">
         <v>2127</v>
       </c>
-    </row>
-    <row r="66" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB65" s="3">
+        <v>921.43</v>
+      </c>
+      <c r="CC65" s="3">
+        <v>1528.09</v>
+      </c>
+    </row>
+    <row r="66" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
         <v>1010.43</v>
       </c>
@@ -9700,8 +11418,14 @@
       <c r="BM66" s="3">
         <v>2153.1</v>
       </c>
-    </row>
-    <row r="67" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB66" s="3">
+        <v>925.38</v>
+      </c>
+      <c r="CC66" s="3">
+        <v>1524.02</v>
+      </c>
+    </row>
+    <row r="67" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B67" s="3">
         <v>993.74</v>
       </c>
@@ -9735,8 +11459,14 @@
       <c r="BM67" s="3">
         <v>2140.2199999999998</v>
       </c>
-    </row>
-    <row r="68" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB67" s="3">
+        <v>927.63</v>
+      </c>
+      <c r="CC67" s="3">
+        <v>1501.47</v>
+      </c>
+    </row>
+    <row r="68" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B68" s="3">
         <v>1020.2</v>
       </c>
@@ -9770,8 +11500,14 @@
       <c r="BM68" s="3">
         <v>2136.09</v>
       </c>
-    </row>
-    <row r="69" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB68" s="3">
+        <v>927.9</v>
+      </c>
+      <c r="CC68" s="3">
+        <v>1469.78</v>
+      </c>
+    </row>
+    <row r="69" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B69" s="3">
         <v>1003.5</v>
       </c>
@@ -9805,8 +11541,14 @@
       <c r="BM69" s="3">
         <v>2121.83</v>
       </c>
-    </row>
-    <row r="70" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB69" s="3">
+        <v>920.14</v>
+      </c>
+      <c r="CC69" s="3">
+        <v>1442.17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B70" s="3">
         <v>973.78</v>
       </c>
@@ -9840,8 +11582,14 @@
       <c r="BM70" s="3">
         <v>2184.0300000000002</v>
       </c>
-    </row>
-    <row r="71" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB70" s="3">
+        <v>698.73</v>
+      </c>
+      <c r="CC70" s="3">
+        <v>1428.34</v>
+      </c>
+    </row>
+    <row r="71" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B71" s="3">
         <v>977.35</v>
       </c>
@@ -9860,8 +11608,11 @@
       <c r="BL71" s="3">
         <v>1112.48</v>
       </c>
-    </row>
-    <row r="72" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB71" s="3">
+        <v>696.36</v>
+      </c>
+    </row>
+    <row r="72" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B72" s="3">
         <v>975.93</v>
       </c>
@@ -9880,8 +11631,11 @@
       <c r="BL72" s="3">
         <v>1114.6300000000001</v>
       </c>
-    </row>
-    <row r="73" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB72" s="3">
+        <v>696.85</v>
+      </c>
+    </row>
+    <row r="73" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B73" s="3">
         <v>989.59</v>
       </c>
@@ -9900,8 +11654,11 @@
       <c r="BL73" s="3">
         <v>1164.0899999999999</v>
       </c>
-    </row>
-    <row r="74" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB73" s="3">
+        <v>690.98</v>
+      </c>
+    </row>
+    <row r="74" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B74" s="3">
         <v>1008.21</v>
       </c>
@@ -9920,8 +11677,11 @@
       <c r="BL74" s="3">
         <v>1155.25</v>
       </c>
-    </row>
-    <row r="75" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB74" s="3">
+        <v>720.62</v>
+      </c>
+    </row>
+    <row r="75" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B75" s="3">
         <v>1013.99</v>
       </c>
@@ -9940,8 +11700,11 @@
       <c r="BL75" s="3">
         <v>1155.23</v>
       </c>
-    </row>
-    <row r="76" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB75" s="3">
+        <v>702.02</v>
+      </c>
+    </row>
+    <row r="76" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B76" s="3">
         <v>987.56</v>
       </c>
@@ -9960,8 +11723,11 @@
       <c r="BL76" s="3">
         <v>1172.1500000000001</v>
       </c>
-    </row>
-    <row r="77" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB76" s="3">
+        <v>706.47</v>
+      </c>
+    </row>
+    <row r="77" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B77" s="3">
         <v>994.07</v>
       </c>
@@ -9980,8 +11746,11 @@
       <c r="BL77" s="3">
         <v>1149.0899999999999</v>
       </c>
-    </row>
-    <row r="78" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB77" s="3">
+        <v>693.49</v>
+      </c>
+    </row>
+    <row r="78" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B78" s="3">
         <v>1000.45</v>
       </c>
@@ -10000,8 +11769,11 @@
       <c r="BL78" s="3">
         <v>1145.28</v>
       </c>
-    </row>
-    <row r="79" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB78" s="3">
+        <v>686.09</v>
+      </c>
+    </row>
+    <row r="79" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B79" s="3">
         <v>970.35</v>
       </c>
@@ -10020,8 +11792,11 @@
       <c r="BL79" s="3">
         <v>1144.19</v>
       </c>
-    </row>
-    <row r="80" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB79" s="3">
+        <v>828.05</v>
+      </c>
+    </row>
+    <row r="80" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B80" s="3">
         <v>1000.07</v>
       </c>
@@ -10040,8 +11815,11 @@
       <c r="BL80" s="3">
         <v>1140.8</v>
       </c>
-    </row>
-    <row r="81" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB80" s="3">
+        <v>804.67</v>
+      </c>
+    </row>
+    <row r="81" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B81" s="3">
         <v>1010.66</v>
       </c>
@@ -10060,8 +11838,11 @@
       <c r="BL81" s="3">
         <v>1169.56</v>
       </c>
-    </row>
-    <row r="82" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB81" s="3">
+        <v>796.15</v>
+      </c>
+    </row>
+    <row r="82" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B82" s="3">
         <v>939.4</v>
       </c>
@@ -10080,8 +11861,11 @@
       <c r="BL82" s="3">
         <v>1141.96</v>
       </c>
-    </row>
-    <row r="83" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB82" s="3">
+        <v>754.19</v>
+      </c>
+    </row>
+    <row r="83" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B83" s="3">
         <v>1011.69</v>
       </c>
@@ -10100,8 +11884,11 @@
       <c r="BL83" s="3">
         <v>1142.55</v>
       </c>
-    </row>
-    <row r="84" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB83" s="3">
+        <v>761.44</v>
+      </c>
+    </row>
+    <row r="84" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B84" s="3">
         <v>1000.56</v>
       </c>
@@ -10120,8 +11907,11 @@
       <c r="BL84" s="3">
         <v>1153.83</v>
       </c>
-    </row>
-    <row r="85" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB84" s="3">
+        <v>732.66</v>
+      </c>
+    </row>
+    <row r="85" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B85" s="3">
         <v>959.13</v>
       </c>
@@ -10140,8 +11930,11 @@
       <c r="BL85" s="3">
         <v>979.55</v>
       </c>
-    </row>
-    <row r="86" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB85" s="3">
+        <v>716.51</v>
+      </c>
+    </row>
+    <row r="86" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B86" s="3">
         <v>1053.6500000000001</v>
       </c>
@@ -10160,8 +11953,11 @@
       <c r="BL86" s="3">
         <v>1043.3599999999999</v>
       </c>
-    </row>
-    <row r="87" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB86" s="3">
+        <v>703.22</v>
+      </c>
+    </row>
+    <row r="87" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B87" s="3">
         <v>1060.02</v>
       </c>
@@ -10180,8 +11976,11 @@
       <c r="BL87" s="3">
         <v>1043.33</v>
       </c>
-    </row>
-    <row r="88" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB87" s="3">
+        <v>697.91</v>
+      </c>
+    </row>
+    <row r="88" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B88" s="3">
         <v>1096.07</v>
       </c>
@@ -10200,8 +11999,11 @@
       <c r="BL88" s="3">
         <v>1043.72</v>
       </c>
-    </row>
-    <row r="89" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB88" s="3">
+        <v>707.66</v>
+      </c>
+    </row>
+    <row r="89" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B89" s="3">
         <v>1096.1199999999999</v>
       </c>
@@ -10220,8 +12022,11 @@
       <c r="BL89" s="3">
         <v>1042.78</v>
       </c>
-    </row>
-    <row r="90" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB89" s="3">
+        <v>696.32</v>
+      </c>
+    </row>
+    <row r="90" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B90" s="3">
         <v>1016.46</v>
       </c>
@@ -10240,8 +12045,11 @@
       <c r="BL90" s="3">
         <v>1010.77</v>
       </c>
-    </row>
-    <row r="91" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB90" s="3">
+        <v>668.47</v>
+      </c>
+    </row>
+    <row r="91" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B91" s="3">
         <v>1006.32</v>
       </c>
@@ -10260,8 +12068,11 @@
       <c r="BL91" s="3">
         <v>1017.93</v>
       </c>
-    </row>
-    <row r="92" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB91" s="3">
+        <v>669.8</v>
+      </c>
+    </row>
+    <row r="92" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B92" s="3">
         <v>1001.69</v>
       </c>
@@ -10280,8 +12091,11 @@
       <c r="BL92" s="3">
         <v>1039.32</v>
       </c>
-    </row>
-    <row r="93" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB92" s="3">
+        <v>713.84</v>
+      </c>
+    </row>
+    <row r="93" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B93" s="3">
         <v>976.83</v>
       </c>
@@ -10300,8 +12114,11 @@
       <c r="BL93" s="3">
         <v>1040.8599999999999</v>
       </c>
-    </row>
-    <row r="94" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB93" s="3">
+        <v>713.88</v>
+      </c>
+    </row>
+    <row r="94" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B94" s="3">
         <v>980.07</v>
       </c>
@@ -10320,8 +12137,11 @@
       <c r="BL94" s="3">
         <v>1057.8</v>
       </c>
-    </row>
-    <row r="95" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB94" s="3">
+        <v>711.1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B95" s="3">
         <v>1004.12</v>
       </c>
@@ -10340,8 +12160,11 @@
       <c r="BL95" s="3">
         <v>1045.27</v>
       </c>
-    </row>
-    <row r="96" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB95" s="3">
+        <v>692.86</v>
+      </c>
+    </row>
+    <row r="96" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B96" s="3">
         <v>1027.48</v>
       </c>
@@ -10360,8 +12183,11 @@
       <c r="BL96" s="3">
         <v>1036.93</v>
       </c>
-    </row>
-    <row r="97" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB96" s="3">
+        <v>717.09</v>
+      </c>
+    </row>
+    <row r="97" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B97" s="3">
         <v>1024.45</v>
       </c>
@@ -10380,8 +12206,11 @@
       <c r="BL97" s="3">
         <v>1045.5</v>
       </c>
-    </row>
-    <row r="98" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB97" s="3">
+        <v>756.64</v>
+      </c>
+    </row>
+    <row r="98" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B98" s="3">
         <v>1090.22</v>
       </c>
@@ -10400,8 +12229,11 @@
       <c r="BL98" s="3">
         <v>1039.51</v>
       </c>
-    </row>
-    <row r="99" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB98" s="3">
+        <v>736.87</v>
+      </c>
+    </row>
+    <row r="99" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B99" s="3">
         <v>1095.31</v>
       </c>
@@ -10420,8 +12252,11 @@
       <c r="BL99" s="3">
         <v>1030.75</v>
       </c>
-    </row>
-    <row r="100" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB99" s="3">
+        <v>730.11</v>
+      </c>
+    </row>
+    <row r="100" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B100" s="3">
         <v>1062.24</v>
       </c>
@@ -10440,8 +12275,11 @@
       <c r="BL100" s="3">
         <v>1010.38</v>
       </c>
-    </row>
-    <row r="101" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB100" s="3">
+        <v>766.41</v>
+      </c>
+    </row>
+    <row r="101" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B101" s="3">
         <v>1063.31</v>
       </c>
@@ -10460,8 +12298,11 @@
       <c r="BL101" s="3">
         <v>1023.87</v>
       </c>
-    </row>
-    <row r="102" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB101" s="3">
+        <v>745.14</v>
+      </c>
+    </row>
+    <row r="102" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B102" s="3">
         <v>1053.07</v>
       </c>
@@ -10480,8 +12321,11 @@
       <c r="BL102" s="3">
         <v>1037.82</v>
       </c>
-    </row>
-    <row r="103" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB102" s="3">
+        <v>759.17</v>
+      </c>
+    </row>
+    <row r="103" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B103" s="3">
         <v>1083.93</v>
       </c>
@@ -10500,8 +12344,11 @@
       <c r="BL103" s="3">
         <v>1046.74</v>
       </c>
-    </row>
-    <row r="104" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB103" s="3">
+        <v>753.95</v>
+      </c>
+    </row>
+    <row r="104" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B104" s="3">
         <v>1015.81</v>
       </c>
@@ -10520,8 +12367,11 @@
       <c r="BL104" s="3">
         <v>1043.95</v>
       </c>
-    </row>
-    <row r="105" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB104" s="3">
+        <v>745.14</v>
+      </c>
+    </row>
+    <row r="105" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B105" s="3">
         <v>1024.08</v>
       </c>
@@ -10540,8 +12390,11 @@
       <c r="BL105" s="3">
         <v>1058.72</v>
       </c>
-    </row>
-    <row r="106" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB105" s="3">
+        <v>744.02</v>
+      </c>
+    </row>
+    <row r="106" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B106" s="3">
         <v>1009.2</v>
       </c>
@@ -10560,8 +12413,11 @@
       <c r="BL106" s="3">
         <v>1044.3900000000001</v>
       </c>
-    </row>
-    <row r="107" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB106" s="3">
+        <v>772.78</v>
+      </c>
+    </row>
+    <row r="107" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B107" s="3">
         <v>997.03</v>
       </c>
@@ -10580,8 +12436,11 @@
       <c r="BL107" s="3">
         <v>1035.06</v>
       </c>
-    </row>
-    <row r="108" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB107" s="3">
+        <v>808.45</v>
+      </c>
+    </row>
+    <row r="108" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B108" s="3">
         <v>971.4</v>
       </c>
@@ -10600,8 +12459,11 @@
       <c r="BL108" s="3">
         <v>1031.28</v>
       </c>
-    </row>
-    <row r="109" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB108" s="3">
+        <v>905.63</v>
+      </c>
+    </row>
+    <row r="109" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B109" s="3">
         <v>978.62</v>
       </c>
@@ -10620,8 +12482,11 @@
       <c r="BL109" s="3">
         <v>1044.4000000000001</v>
       </c>
-    </row>
-    <row r="110" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB109" s="3">
+        <v>899.46</v>
+      </c>
+    </row>
+    <row r="110" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B110" s="3">
         <v>1018.57</v>
       </c>
@@ -10640,8 +12505,11 @@
       <c r="BL110" s="3">
         <v>1045.08</v>
       </c>
-    </row>
-    <row r="111" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB110" s="3">
+        <v>849.66</v>
+      </c>
+    </row>
+    <row r="111" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B111" s="3">
         <v>1010.23</v>
       </c>
@@ -10660,8 +12528,11 @@
       <c r="BL111" s="3">
         <v>1048.56</v>
       </c>
-    </row>
-    <row r="112" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB111" s="3">
+        <v>835.77</v>
+      </c>
+    </row>
+    <row r="112" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B112" s="3">
         <v>1026.03</v>
       </c>
@@ -10680,8 +12551,11 @@
       <c r="BL112" s="3">
         <v>1041.3699999999999</v>
       </c>
-    </row>
-    <row r="113" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB112" s="3">
+        <v>809.91</v>
+      </c>
+    </row>
+    <row r="113" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B113" s="3">
         <v>1023.78</v>
       </c>
@@ -10700,8 +12574,11 @@
       <c r="BL113" s="3">
         <v>1028.47</v>
       </c>
-    </row>
-    <row r="114" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB113" s="3">
+        <v>784.15</v>
+      </c>
+    </row>
+    <row r="114" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B114" s="3">
         <v>1012.81</v>
       </c>
@@ -10720,8 +12597,11 @@
       <c r="BL114" s="3">
         <v>1030.6400000000001</v>
       </c>
-    </row>
-    <row r="115" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB114" s="3">
+        <v>742.04</v>
+      </c>
+    </row>
+    <row r="115" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B115" s="3">
         <v>976.66</v>
       </c>
@@ -10740,8 +12620,11 @@
       <c r="BL115" s="3">
         <v>1045.68</v>
       </c>
-    </row>
-    <row r="116" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB115" s="3">
+        <v>740.9</v>
+      </c>
+    </row>
+    <row r="116" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B116" s="3">
         <v>995.65</v>
       </c>
@@ -10760,8 +12643,11 @@
       <c r="BL116" s="3">
         <v>1033.05</v>
       </c>
-    </row>
-    <row r="117" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB116" s="3">
+        <v>739.3</v>
+      </c>
+    </row>
+    <row r="117" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B117" s="3">
         <v>1027.4000000000001</v>
       </c>
@@ -10780,8 +12666,11 @@
       <c r="BL117" s="3">
         <v>1052.9000000000001</v>
       </c>
-    </row>
-    <row r="118" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB117" s="3">
+        <v>725.25</v>
+      </c>
+    </row>
+    <row r="118" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B118" s="3">
         <v>1045.68</v>
       </c>
@@ -10800,8 +12689,11 @@
       <c r="BL118" s="3">
         <v>1029.55</v>
       </c>
-    </row>
-    <row r="119" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB118" s="3">
+        <v>741.39</v>
+      </c>
+    </row>
+    <row r="119" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B119" s="3">
         <v>1017.95</v>
       </c>
@@ -10820,8 +12712,11 @@
       <c r="BL119" s="3">
         <v>1043.2</v>
       </c>
-    </row>
-    <row r="120" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB119" s="3">
+        <v>753.45</v>
+      </c>
+    </row>
+    <row r="120" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B120" s="3">
         <v>1202.02</v>
       </c>
@@ -10840,8 +12735,11 @@
       <c r="BL120" s="3">
         <v>1060.9000000000001</v>
       </c>
-    </row>
-    <row r="121" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB120" s="3">
+        <v>744.71</v>
+      </c>
+    </row>
+    <row r="121" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B121" s="3">
         <v>1201.56</v>
       </c>
@@ -10860,8 +12758,11 @@
       <c r="BL121" s="3">
         <v>1030.0899999999999</v>
       </c>
-    </row>
-    <row r="122" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB121" s="3">
+        <v>751.42</v>
+      </c>
+    </row>
+    <row r="122" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B122" s="3">
         <v>1200.68</v>
       </c>
@@ -10880,8 +12781,11 @@
       <c r="BL122" s="3">
         <v>1041.6500000000001</v>
       </c>
-    </row>
-    <row r="123" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB122" s="3">
+        <v>749.17</v>
+      </c>
+    </row>
+    <row r="123" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B123" s="3">
         <v>1156.8699999999999</v>
       </c>
@@ -10900,8 +12804,11 @@
       <c r="BL123" s="3">
         <v>1009.33</v>
       </c>
-    </row>
-    <row r="124" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB123" s="3">
+        <v>759.03</v>
+      </c>
+    </row>
+    <row r="124" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B124" s="3">
         <v>1181.49</v>
       </c>
@@ -10920,8 +12827,11 @@
       <c r="BL124" s="3">
         <v>1061.45</v>
       </c>
-    </row>
-    <row r="125" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB124" s="3">
+        <v>759.98</v>
+      </c>
+    </row>
+    <row r="125" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B125" s="3">
         <v>1195.07</v>
       </c>
@@ -10940,8 +12850,11 @@
       <c r="BL125" s="3">
         <v>1042.8699999999999</v>
       </c>
-    </row>
-    <row r="126" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB125" s="3">
+        <v>748.22</v>
+      </c>
+    </row>
+    <row r="126" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B126" s="3">
         <v>1218.1199999999999</v>
       </c>
@@ -10960,8 +12873,11 @@
       <c r="BL126" s="3">
         <v>1065.58</v>
       </c>
-    </row>
-    <row r="127" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB126" s="3">
+        <v>630.85</v>
+      </c>
+    </row>
+    <row r="127" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B127" s="3">
         <v>1227.24</v>
       </c>
@@ -10980,8 +12896,11 @@
       <c r="BL127" s="3">
         <v>1038.3</v>
       </c>
-    </row>
-    <row r="128" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB127" s="3">
+        <v>668.58</v>
+      </c>
+    </row>
+    <row r="128" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B128" s="3">
         <v>1197.3499999999999</v>
       </c>
@@ -11000,8 +12919,11 @@
       <c r="BL128" s="3">
         <v>1065.3599999999999</v>
       </c>
-    </row>
-    <row r="129" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB128" s="3">
+        <v>658.69</v>
+      </c>
+    </row>
+    <row r="129" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B129" s="3">
         <v>1192.1500000000001</v>
       </c>
@@ -11020,8 +12942,11 @@
       <c r="BL129" s="3">
         <v>1067.6099999999999</v>
       </c>
-    </row>
-    <row r="130" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB129" s="3">
+        <v>672.98</v>
+      </c>
+    </row>
+    <row r="130" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B130" s="3">
         <v>1201.05</v>
       </c>
@@ -11040,8 +12965,11 @@
       <c r="BL130" s="3">
         <v>1061.08</v>
       </c>
-    </row>
-    <row r="131" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB130" s="3">
+        <v>674.54</v>
+      </c>
+    </row>
+    <row r="131" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B131" s="3">
         <v>1172.1400000000001</v>
       </c>
@@ -11060,8 +12988,11 @@
       <c r="BL131" s="3">
         <v>1091.1199999999999</v>
       </c>
-    </row>
-    <row r="132" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB131" s="3">
+        <v>671.29</v>
+      </c>
+    </row>
+    <row r="132" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B132" s="3">
         <v>1175.98</v>
       </c>
@@ -11080,8 +13011,11 @@
       <c r="BL132" s="3">
         <v>1066.69</v>
       </c>
-    </row>
-    <row r="133" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB132" s="3">
+        <v>660.98</v>
+      </c>
+    </row>
+    <row r="133" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B133" s="3">
         <v>1189.6099999999999</v>
       </c>
@@ -11100,8 +13034,11 @@
       <c r="BL133" s="3">
         <v>1084.81</v>
       </c>
-    </row>
-    <row r="134" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CB133" s="3">
+        <v>672.96</v>
+      </c>
+    </row>
+    <row r="134" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B134" s="3">
         <v>1193.51</v>
       </c>
@@ -11120,12 +13057,15 @@
       <c r="BL134" s="3">
         <v>1095.07</v>
       </c>
-    </row>
-    <row r="135" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="136" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="137" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="138" spans="2:64" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="139" spans="2:64" x14ac:dyDescent="0.35">
+      <c r="CB134" s="3">
+        <v>642.05999999999995</v>
+      </c>
+    </row>
+    <row r="135" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" spans="2:80" x14ac:dyDescent="0.35">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -11187,7 +13127,7 @@
       <c r="BI139" s="1"/>
       <c r="BJ139" s="1"/>
     </row>
-    <row r="140" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:80" x14ac:dyDescent="0.35">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -11249,7 +13189,7 @@
       <c r="BI140" s="1"/>
       <c r="BJ140" s="1"/>
     </row>
-    <row r="141" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:80" x14ac:dyDescent="0.35">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -11311,7 +13251,7 @@
       <c r="BI141" s="1"/>
       <c r="BJ141" s="1"/>
     </row>
-    <row r="142" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:80" x14ac:dyDescent="0.35">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -11358,7 +13298,7 @@
       <c r="BI142" s="1"/>
       <c r="BJ142" s="1"/>
     </row>
-    <row r="143" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:80" x14ac:dyDescent="0.35">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -11405,7 +13345,7 @@
       <c r="BI143" s="1"/>
       <c r="BJ143" s="1"/>
     </row>
-    <row r="144" spans="2:64" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:80" x14ac:dyDescent="0.35">
       <c r="AF144" s="1"/>
       <c r="AG144" s="1"/>
       <c r="AH144" s="1"/>
@@ -15036,6 +16976,9 @@
       <c r="BJ253" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="CB2:CN2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15044,10 +16987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56E8001-F21C-419C-8F83-A2C49E4954F4}">
-  <dimension ref="A2:AJ14"/>
+  <dimension ref="A2:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15063,7 +17006,7 @@
   <sheetData>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -15149,88 +17092,88 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>1043.7671746000001</v>
+        <v>1336.3447087</v>
       </c>
       <c r="C3" s="2">
-        <v>541.62362370000005</v>
+        <v>727.33736959999999</v>
       </c>
       <c r="D3" s="2">
-        <v>403.57800859999998</v>
+        <v>514.41285530000005</v>
       </c>
       <c r="E3" s="2">
-        <v>287.19364460000003</v>
+        <v>391.70656659999997</v>
       </c>
       <c r="F3" s="2">
-        <v>277.23140330000001</v>
+        <v>303.10465110000001</v>
       </c>
       <c r="G3" s="2">
-        <v>253.27156389999999</v>
+        <v>185.52456129999999</v>
       </c>
       <c r="H3" s="2">
-        <v>214.72702090000001</v>
+        <v>129.3154681</v>
       </c>
       <c r="I3" s="2">
-        <v>188.29820910000001</v>
+        <v>95.420004300000002</v>
       </c>
       <c r="J3" s="2">
-        <v>186.2408015</v>
+        <v>82.045025199999998</v>
       </c>
       <c r="K3" s="2">
-        <v>184.34304359999999</v>
+        <v>67.858773400000004</v>
       </c>
       <c r="L3" s="2">
-        <v>177.94947999999999</v>
+        <v>58.845250900000003</v>
       </c>
       <c r="M3" s="2">
-        <v>180.3744901</v>
+        <v>55.785725100000001</v>
       </c>
       <c r="N3" s="2">
-        <v>175.06794790000001</v>
+        <v>48.802437300000001</v>
       </c>
       <c r="P3" t="s">
         <v>35</v>
       </c>
       <c r="Q3" s="3">
-        <v>1004.61</v>
+        <v>784.66</v>
       </c>
       <c r="R3" s="3">
-        <v>1935.99</v>
+        <v>1441.66</v>
       </c>
       <c r="S3" s="3">
-        <v>2598.1999999999998</v>
+        <v>2038.39</v>
       </c>
       <c r="T3" s="3">
-        <v>3651.11</v>
+        <v>2676.94</v>
       </c>
       <c r="U3" s="3">
-        <v>3782.31</v>
+        <v>3459.45</v>
       </c>
       <c r="V3" s="3">
-        <v>4140.13</v>
+        <v>5651.95</v>
       </c>
       <c r="W3" s="3">
-        <v>4883.3</v>
+        <v>8108.67</v>
       </c>
       <c r="X3" s="3">
-        <v>5568.7</v>
+        <v>10989.06</v>
       </c>
       <c r="Y3" s="3">
-        <v>5630.22</v>
+        <v>12780.49</v>
       </c>
       <c r="Z3" s="3">
-        <v>5688.18</v>
+        <v>15452.33</v>
       </c>
       <c r="AA3" s="3">
-        <v>5892.55</v>
+        <v>17819.21</v>
       </c>
       <c r="AB3" s="3">
-        <v>5813.33</v>
+        <v>18796.490000000002</v>
       </c>
       <c r="AC3" s="3">
-        <v>5989.54</v>
+        <v>21486.14</v>
       </c>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
@@ -15242,635 +17185,721 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2">
-        <v>1344.571371</v>
+        <v>1043.7671746000001</v>
       </c>
       <c r="C4" s="2">
-        <v>683.44848709999997</v>
+        <v>541.62362370000005</v>
       </c>
       <c r="D4" s="2">
-        <v>491.68080609999998</v>
+        <v>403.57800859999998</v>
       </c>
       <c r="E4" s="2">
-        <v>396.3799272</v>
+        <v>287.19364460000003</v>
       </c>
       <c r="F4" s="2">
-        <v>323.02177549999999</v>
+        <v>277.23140330000001</v>
       </c>
       <c r="G4" s="2">
-        <v>200.98798959999999</v>
+        <v>253.27156389999999</v>
       </c>
       <c r="H4" s="2">
-        <v>154.59785679999999</v>
+        <v>214.72702090000001</v>
       </c>
       <c r="I4" s="2">
-        <v>115.99432830000001</v>
+        <v>188.29820910000001</v>
       </c>
       <c r="J4" s="2">
-        <v>115.2029709</v>
+        <v>186.2408015</v>
       </c>
       <c r="K4" s="2">
-        <v>109.7016514</v>
+        <v>184.34304359999999</v>
       </c>
       <c r="L4" s="2">
-        <v>106.9848475</v>
+        <v>177.94947999999999</v>
       </c>
       <c r="M4" s="2">
-        <v>114.6617182</v>
+        <v>180.3744901</v>
       </c>
       <c r="N4" s="2">
-        <v>119.5849667</v>
+        <v>175.06794790000001</v>
       </c>
       <c r="P4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="3">
-        <v>781.38890624999965</v>
+        <v>1004.61</v>
       </c>
       <c r="R4" s="3">
-        <v>1536.6403124999999</v>
+        <v>1935.99</v>
       </c>
       <c r="S4" s="3">
-        <v>2133.3379069767443</v>
+        <v>2598.1999999999998</v>
       </c>
       <c r="T4" s="3">
-        <v>2658.5090624999998</v>
+        <v>3651.11</v>
       </c>
       <c r="U4" s="3">
-        <v>3244.6634615384614</v>
+        <v>3782.31</v>
       </c>
       <c r="V4" s="3">
-        <v>5221.3943749999999</v>
+        <v>4140.13</v>
       </c>
       <c r="W4" s="3">
-        <v>6805.9827272727271</v>
+        <v>4883.3</v>
       </c>
       <c r="X4" s="3">
-        <v>9062.8975000000009</v>
+        <v>5568.7</v>
       </c>
       <c r="Y4" s="3">
-        <v>9027.3799999999992</v>
+        <v>5630.22</v>
       </c>
       <c r="Z4" s="3">
-        <v>9053.9783333333344</v>
+        <v>5688.18</v>
       </c>
       <c r="AA4" s="3">
-        <v>9439.344000000001</v>
+        <v>5892.55</v>
       </c>
       <c r="AB4" s="3">
-        <v>8573.3150000000005</v>
+        <v>5813.33</v>
       </c>
       <c r="AC4" s="3">
-        <v>8637.1466666666674</v>
+        <v>5989.54</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2">
-        <v>1071.6672612</v>
+        <v>1344.571371</v>
       </c>
       <c r="C5" s="2">
-        <v>529.56374740000001</v>
+        <v>683.44848709999997</v>
       </c>
       <c r="D5" s="2">
-        <v>369.62835799999999</v>
+        <v>491.68080609999998</v>
       </c>
       <c r="E5" s="2">
-        <v>281.5555918</v>
+        <v>396.3799272</v>
       </c>
       <c r="F5" s="2">
-        <v>239.8264211</v>
+        <v>323.02177549999999</v>
       </c>
       <c r="G5" s="2">
-        <v>149.60218459999999</v>
+        <v>200.98798959999999</v>
       </c>
       <c r="H5" s="2">
-        <v>106.76822009999999</v>
+        <v>154.59785679999999</v>
       </c>
       <c r="I5" s="2">
-        <v>85.661810099999997</v>
+        <v>115.99432830000001</v>
       </c>
       <c r="J5" s="2">
-        <v>87.795216800000006</v>
+        <v>115.2029709</v>
       </c>
       <c r="K5" s="2">
-        <v>68.875424800000005</v>
+        <v>109.7016514</v>
       </c>
       <c r="L5" s="2">
-        <v>67.065877700000001</v>
+        <v>106.9848475</v>
       </c>
       <c r="M5" s="2">
-        <v>56.771806599999998</v>
+        <v>114.6617182</v>
       </c>
       <c r="N5" s="2">
-        <v>51.3149388</v>
+        <v>119.5849667</v>
       </c>
       <c r="P5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="3">
-        <v>981.33250000000032</v>
+        <v>781.38890624999965</v>
       </c>
       <c r="R5" s="3">
-        <v>1983.6265624999999</v>
+        <v>1536.6403124999999</v>
       </c>
       <c r="S5" s="3">
-        <v>2841.5258139534885</v>
+        <v>2133.3379069767443</v>
       </c>
       <c r="T5" s="3">
-        <v>3730.1343750000001</v>
+        <v>2658.5090624999998</v>
       </c>
       <c r="U5" s="3">
-        <v>4378.0676923076926</v>
+        <v>3244.6634615384614</v>
       </c>
       <c r="V5" s="3">
-        <v>7019.6862500000007</v>
+        <v>5221.3943749999999</v>
       </c>
       <c r="W5" s="3">
-        <v>9803.6054545454554</v>
+        <v>6805.9827272727271</v>
       </c>
       <c r="X5" s="3">
-        <v>12308.986249999998</v>
+        <v>9062.8975000000009</v>
       </c>
       <c r="Y5" s="3">
-        <v>11828.464285714284</v>
+        <v>9027.3799999999992</v>
       </c>
       <c r="Z5" s="3">
-        <v>14633.095000000001</v>
+        <v>9053.9783333333344</v>
       </c>
       <c r="AA5" s="3">
-        <v>15271.769999999999</v>
+        <v>9439.344000000001</v>
       </c>
       <c r="AB5" s="3">
-        <v>17378.237499999999</v>
+        <v>8573.3150000000005</v>
       </c>
       <c r="AC5" s="3">
-        <v>20107.003333333334</v>
+        <v>8637.1466666666674</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2">
-        <v>1015.1907108</v>
+        <v>1071.6672612</v>
       </c>
       <c r="C6" s="2">
-        <v>514.97431129999995</v>
+        <v>529.56374740000001</v>
       </c>
       <c r="D6" s="2">
-        <v>364.32382660000002</v>
+        <v>369.62835799999999</v>
       </c>
       <c r="E6" s="2">
-        <v>289.71701780000001</v>
+        <v>281.5555918</v>
       </c>
       <c r="F6" s="2">
-        <v>221.7066317</v>
+        <v>239.8264211</v>
       </c>
       <c r="G6" s="2">
-        <v>140.91504789999999</v>
+        <v>149.60218459999999</v>
       </c>
       <c r="H6" s="2">
-        <v>103.82829270000001</v>
+        <v>106.76822009999999</v>
       </c>
       <c r="I6" s="2">
-        <v>76.905319700000007</v>
+        <v>85.661810099999997</v>
       </c>
       <c r="J6" s="2">
-        <v>78.022894699999995</v>
+        <v>87.795216800000006</v>
       </c>
       <c r="K6" s="2">
-        <v>68.399199199999998</v>
+        <v>68.875424800000005</v>
       </c>
       <c r="L6" s="2">
-        <v>64.968697800000001</v>
+        <v>67.065877700000001</v>
       </c>
       <c r="M6" s="2">
-        <v>57.703642899999998</v>
+        <v>56.771806599999998</v>
       </c>
       <c r="N6" s="2">
-        <v>49.710804500000002</v>
+        <v>51.3149388</v>
       </c>
       <c r="P6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="3">
-        <v>1037.7700781249998</v>
+        <v>981.33250000000032</v>
       </c>
       <c r="R6" s="3">
-        <v>2037.5092187499997</v>
+        <v>1983.6265624999999</v>
       </c>
       <c r="S6" s="3">
-        <v>2882.2546511627897</v>
+        <v>2841.5258139534885</v>
       </c>
       <c r="T6" s="3">
-        <v>3628.8459375000007</v>
+        <v>3730.1343750000001</v>
       </c>
       <c r="U6" s="3">
-        <v>4731.0473076923072</v>
+        <v>4378.0676923076926</v>
       </c>
       <c r="V6" s="3">
-        <v>7450.7731250000006</v>
+        <v>7019.6862500000007</v>
       </c>
       <c r="W6" s="3">
-        <v>10124.063636363639</v>
+        <v>9803.6054545454554</v>
       </c>
       <c r="X6" s="3">
-        <v>13688.836250000002</v>
+        <v>12308.986249999998</v>
       </c>
       <c r="Y6" s="3">
-        <v>13537.88</v>
+        <v>11828.464285714284</v>
       </c>
       <c r="Z6" s="3">
-        <v>15073.210000000001</v>
+        <v>14633.095000000001</v>
       </c>
       <c r="AA6" s="3">
-        <v>15951.848000000002</v>
+        <v>15271.769999999999</v>
       </c>
       <c r="AB6" s="3">
-        <v>17514.327499999999</v>
+        <v>17378.237499999999</v>
       </c>
       <c r="AC6" s="3">
-        <v>21104.813333333335</v>
+        <v>20107.003333333334</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2">
+        <v>1015.1907108</v>
+      </c>
+      <c r="C7" s="2">
+        <v>514.97431129999995</v>
+      </c>
+      <c r="D7" s="2">
+        <v>364.32382660000002</v>
+      </c>
+      <c r="E7" s="2">
+        <v>289.71701780000001</v>
+      </c>
+      <c r="F7" s="2">
+        <v>221.7066317</v>
+      </c>
+      <c r="G7" s="2">
+        <v>140.91504789999999</v>
+      </c>
+      <c r="H7" s="2">
+        <v>103.82829270000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>76.905319700000007</v>
+      </c>
+      <c r="J7" s="2">
+        <v>78.022894699999995</v>
+      </c>
+      <c r="K7" s="2">
+        <v>68.399199199999998</v>
+      </c>
+      <c r="L7" s="2">
+        <v>64.968697800000001</v>
+      </c>
+      <c r="M7" s="2">
+        <v>57.703642899999998</v>
+      </c>
+      <c r="N7" s="2">
+        <v>49.710804500000002</v>
+      </c>
+      <c r="P7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1037.7700781249998</v>
+      </c>
+      <c r="R7" s="3">
+        <v>2037.5092187499997</v>
+      </c>
+      <c r="S7" s="3">
+        <v>2882.2546511627897</v>
+      </c>
+      <c r="T7" s="3">
+        <v>3628.8459375000007</v>
+      </c>
+      <c r="U7" s="3">
+        <v>4731.0473076923072</v>
+      </c>
+      <c r="V7" s="3">
+        <v>7450.7731250000006</v>
+      </c>
+      <c r="W7" s="3">
+        <v>10124.063636363639</v>
+      </c>
+      <c r="X7" s="3">
+        <v>13688.836250000002</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>13537.88</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>15073.210000000001</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>15951.848000000002</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>17514.327499999999</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>21104.813333333335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2">
         <v>995.68664060000003</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>518.34310159999995</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>334.7720233</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>280.22020839999999</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="2">
         <v>218.21667289999999</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="2">
         <v>149.52983810000001</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H8" s="2">
         <v>120.02213740000001</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I8" s="2">
         <v>82.941544899999997</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J8" s="2">
         <v>68.752750899999995</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K8" s="2">
         <v>60.059433900000002</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L8" s="2">
         <v>49.573067500000001</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M8" s="2">
         <v>48.780693900000003</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N8" s="2">
         <v>40.388834899999999</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="3">
+      <c r="P8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1053.1199999999999</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R8" s="3">
         <v>2022.94</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S8" s="3">
         <v>3132.21</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T8" s="3">
         <v>3741.97</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U8" s="3">
         <v>4805.21</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V8" s="3">
         <v>7012.49</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W8" s="3">
         <v>8736.52</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X8" s="3">
         <v>12642.35</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y8" s="3">
         <v>15251.4</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z8" s="3">
         <v>17458.97</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA8" s="3">
         <v>21152.13</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AB8" s="3">
         <v>21495.72</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AC8" s="3">
         <v>25962.03</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="P10" t="str">
-        <f>P3</f>
-        <v>Standard_F4s_v2 Enabled</v>
-      </c>
-      <c r="Q10" s="5">
-        <f>Q3/Table1[[#Headers],[1]]</f>
-        <v>1004.61</v>
-      </c>
-      <c r="R10" s="5">
-        <f>R3/Table1[[#Headers],[2]]</f>
-        <v>967.995</v>
-      </c>
-      <c r="S10" s="5">
-        <f>S3/Table1[[#Headers],[3]]</f>
-        <v>866.06666666666661</v>
-      </c>
-      <c r="T10" s="5">
-        <f>T3/Table1[[#Headers],[4]]</f>
-        <v>912.77750000000003</v>
-      </c>
-      <c r="U10" s="5">
-        <f>U3/Table1[[#Headers],[5]]</f>
-        <v>756.46199999999999</v>
-      </c>
-      <c r="V10" s="5">
-        <f>V3/Table1[[#Headers],[8]]</f>
-        <v>517.51625000000001</v>
-      </c>
-      <c r="W10" s="5">
-        <f>W3/Table1[[#Headers],[12]]</f>
-        <v>406.94166666666666</v>
-      </c>
-      <c r="X10" s="5">
-        <f>X3/Table1[[#Headers],[16]]</f>
-        <v>348.04374999999999</v>
-      </c>
-      <c r="Y10" s="5">
-        <f>Y3/Table1[[#Headers],[20]]</f>
-        <v>281.51100000000002</v>
-      </c>
-      <c r="Z10" s="5">
-        <f>Z3/Table1[[#Headers],[25]]</f>
-        <v>227.52720000000002</v>
-      </c>
-      <c r="AA10" s="5">
-        <f>AA3/Table1[[#Headers],[30]]</f>
-        <v>196.41833333333335</v>
-      </c>
-      <c r="AB10" s="5">
-        <f>AB3/Table1[[#Headers],[40]]</f>
-        <v>145.33324999999999</v>
-      </c>
-      <c r="AC10" s="5">
-        <f>AC3/Table1[[#Headers],[50]]</f>
-        <v>119.7908</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="P11" t="str">
-        <f t="shared" ref="P11:P14" si="0">P4</f>
-        <v>Standard_F16s_v2 Disabled</v>
+        <f>P4</f>
+        <v>Standard_F4s_v2 Enabled</v>
       </c>
       <c r="Q11" s="5">
         <f>Q4/Table1[[#Headers],[1]]</f>
-        <v>781.38890624999965</v>
+        <v>1004.61</v>
       </c>
       <c r="R11" s="5">
         <f>R4/Table1[[#Headers],[2]]</f>
-        <v>768.32015624999997</v>
+        <v>967.995</v>
       </c>
       <c r="S11" s="5">
         <f>S4/Table1[[#Headers],[3]]</f>
-        <v>711.11263565891477</v>
+        <v>866.06666666666661</v>
       </c>
       <c r="T11" s="5">
         <f>T4/Table1[[#Headers],[4]]</f>
-        <v>664.62726562499995</v>
+        <v>912.77750000000003</v>
       </c>
       <c r="U11" s="5">
         <f>U4/Table1[[#Headers],[5]]</f>
-        <v>648.93269230769226</v>
+        <v>756.46199999999999</v>
       </c>
       <c r="V11" s="5">
         <f>V4/Table1[[#Headers],[8]]</f>
-        <v>652.67429687499998</v>
+        <v>517.51625000000001</v>
       </c>
       <c r="W11" s="5">
         <f>W4/Table1[[#Headers],[12]]</f>
-        <v>567.16522727272729</v>
+        <v>406.94166666666666</v>
       </c>
       <c r="X11" s="5">
         <f>X4/Table1[[#Headers],[16]]</f>
-        <v>566.43109375000006</v>
+        <v>348.04374999999999</v>
       </c>
       <c r="Y11" s="5">
         <f>Y4/Table1[[#Headers],[20]]</f>
-        <v>451.36899999999997</v>
+        <v>281.51100000000002</v>
       </c>
       <c r="Z11" s="5">
         <f>Z4/Table1[[#Headers],[25]]</f>
-        <v>362.15913333333339</v>
+        <v>227.52720000000002</v>
       </c>
       <c r="AA11" s="5">
         <f>AA4/Table1[[#Headers],[30]]</f>
-        <v>314.64480000000003</v>
+        <v>196.41833333333335</v>
       </c>
       <c r="AB11" s="5">
         <f>AB4/Table1[[#Headers],[40]]</f>
-        <v>214.332875</v>
+        <v>145.33324999999999</v>
       </c>
       <c r="AC11" s="5">
         <f>AC4/Table1[[#Headers],[50]]</f>
-        <v>172.74293333333335</v>
+        <v>119.7908</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="P12" t="str">
-        <f t="shared" si="0"/>
-        <v>Standard_F16s_v2 Enabled</v>
+        <f t="shared" ref="P12:P15" si="0">P5</f>
+        <v>Standard_F16s_v2 Disabled</v>
       </c>
       <c r="Q12" s="5">
         <f>Q5/Table1[[#Headers],[1]]</f>
-        <v>981.33250000000032</v>
+        <v>781.38890624999965</v>
       </c>
       <c r="R12" s="5">
         <f>R5/Table1[[#Headers],[2]]</f>
-        <v>991.81328124999993</v>
+        <v>768.32015624999997</v>
       </c>
       <c r="S12" s="5">
         <f>S5/Table1[[#Headers],[3]]</f>
-        <v>947.17527131782947</v>
+        <v>711.11263565891477</v>
       </c>
       <c r="T12" s="5">
         <f>T5/Table1[[#Headers],[4]]</f>
-        <v>932.53359375000002</v>
+        <v>664.62726562499995</v>
       </c>
       <c r="U12" s="5">
         <f>U5/Table1[[#Headers],[5]]</f>
-        <v>875.6135384615385</v>
+        <v>648.93269230769226</v>
       </c>
       <c r="V12" s="5">
         <f>V5/Table1[[#Headers],[8]]</f>
-        <v>877.46078125000008</v>
+        <v>652.67429687499998</v>
       </c>
       <c r="W12" s="5">
         <f>W5/Table1[[#Headers],[12]]</f>
-        <v>816.96712121212124</v>
+        <v>567.16522727272729</v>
       </c>
       <c r="X12" s="5">
         <f>X5/Table1[[#Headers],[16]]</f>
-        <v>769.31164062499988</v>
+        <v>566.43109375000006</v>
       </c>
       <c r="Y12" s="5">
         <f>Y5/Table1[[#Headers],[20]]</f>
-        <v>591.42321428571427</v>
+        <v>451.36899999999997</v>
       </c>
       <c r="Z12" s="5">
         <f>Z5/Table1[[#Headers],[25]]</f>
-        <v>585.32380000000001</v>
+        <v>362.15913333333339</v>
       </c>
       <c r="AA12" s="5">
         <f>AA5/Table1[[#Headers],[30]]</f>
-        <v>509.05899999999997</v>
+        <v>314.64480000000003</v>
       </c>
       <c r="AB12" s="5">
         <f>AB5/Table1[[#Headers],[40]]</f>
-        <v>434.4559375</v>
+        <v>214.332875</v>
       </c>
       <c r="AC12" s="5">
         <f>AC5/Table1[[#Headers],[50]]</f>
-        <v>402.14006666666666</v>
+        <v>172.74293333333335</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="P13" t="str">
         <f t="shared" si="0"/>
-        <v>Standard_F32s_v2 Enabled</v>
+        <v>Standard_F16s_v2 Enabled</v>
       </c>
       <c r="Q13" s="5">
         <f>Q6/Table1[[#Headers],[1]]</f>
-        <v>1037.7700781249998</v>
+        <v>981.33250000000032</v>
       </c>
       <c r="R13" s="5">
         <f>R6/Table1[[#Headers],[2]]</f>
-        <v>1018.7546093749999</v>
+        <v>991.81328124999993</v>
       </c>
       <c r="S13" s="5">
         <f>S6/Table1[[#Headers],[3]]</f>
-        <v>960.75155038759658</v>
+        <v>947.17527131782947</v>
       </c>
       <c r="T13" s="5">
         <f>T6/Table1[[#Headers],[4]]</f>
-        <v>907.21148437500017</v>
+        <v>932.53359375000002</v>
       </c>
       <c r="U13" s="5">
         <f>U6/Table1[[#Headers],[5]]</f>
-        <v>946.20946153846148</v>
+        <v>875.6135384615385</v>
       </c>
       <c r="V13" s="5">
         <f>V6/Table1[[#Headers],[8]]</f>
-        <v>931.34664062500008</v>
+        <v>877.46078125000008</v>
       </c>
       <c r="W13" s="5">
         <f>W6/Table1[[#Headers],[12]]</f>
-        <v>843.67196969696988</v>
+        <v>816.96712121212124</v>
       </c>
       <c r="X13" s="5">
         <f>X6/Table1[[#Headers],[16]]</f>
-        <v>855.55226562500013</v>
+        <v>769.31164062499988</v>
       </c>
       <c r="Y13" s="5">
         <f>Y6/Table1[[#Headers],[20]]</f>
-        <v>676.89400000000001</v>
+        <v>591.42321428571427</v>
       </c>
       <c r="Z13" s="5">
         <f>Z6/Table1[[#Headers],[25]]</f>
-        <v>602.92840000000001</v>
+        <v>585.32380000000001</v>
       </c>
       <c r="AA13" s="5">
         <f>AA6/Table1[[#Headers],[30]]</f>
-        <v>531.72826666666674</v>
+        <v>509.05899999999997</v>
       </c>
       <c r="AB13" s="5">
         <f>AB6/Table1[[#Headers],[40]]</f>
-        <v>437.85818749999999</v>
+        <v>434.4559375</v>
       </c>
       <c r="AC13" s="5">
         <f>AC6/Table1[[#Headers],[50]]</f>
-        <v>422.09626666666668</v>
+        <v>402.14006666666666</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="P14" t="str">
         <f t="shared" si="0"/>
-        <v>Standard_F64s_v2 enabled</v>
+        <v>Standard_F32s_v2 Enabled</v>
       </c>
       <c r="Q14" s="5">
         <f>Q7/Table1[[#Headers],[1]]</f>
-        <v>1053.1199999999999</v>
+        <v>1037.7700781249998</v>
       </c>
       <c r="R14" s="5">
         <f>R7/Table1[[#Headers],[2]]</f>
-        <v>1011.47</v>
+        <v>1018.7546093749999</v>
       </c>
       <c r="S14" s="5">
         <f>S7/Table1[[#Headers],[3]]</f>
-        <v>1044.07</v>
+        <v>960.75155038759658</v>
       </c>
       <c r="T14" s="5">
         <f>T7/Table1[[#Headers],[4]]</f>
-        <v>935.49249999999995</v>
+        <v>907.21148437500017</v>
       </c>
       <c r="U14" s="5">
         <f>U7/Table1[[#Headers],[5]]</f>
-        <v>961.04200000000003</v>
+        <v>946.20946153846148</v>
       </c>
       <c r="V14" s="5">
         <f>V7/Table1[[#Headers],[8]]</f>
-        <v>876.56124999999997</v>
+        <v>931.34664062500008</v>
       </c>
       <c r="W14" s="5">
         <f>W7/Table1[[#Headers],[12]]</f>
-        <v>728.04333333333341</v>
+        <v>843.67196969696988</v>
       </c>
       <c r="X14" s="5">
         <f>X7/Table1[[#Headers],[16]]</f>
-        <v>790.14687500000002</v>
+        <v>855.55226562500013</v>
       </c>
       <c r="Y14" s="5">
         <f>Y7/Table1[[#Headers],[20]]</f>
-        <v>762.56999999999994</v>
+        <v>676.89400000000001</v>
       </c>
       <c r="Z14" s="5">
         <f>Z7/Table1[[#Headers],[25]]</f>
-        <v>698.35880000000009</v>
+        <v>602.92840000000001</v>
       </c>
       <c r="AA14" s="5">
         <f>AA7/Table1[[#Headers],[30]]</f>
-        <v>705.07100000000003</v>
+        <v>531.72826666666674</v>
       </c>
       <c r="AB14" s="5">
         <f>AB7/Table1[[#Headers],[40]]</f>
-        <v>537.39300000000003</v>
+        <v>437.85818749999999</v>
       </c>
       <c r="AC14" s="5">
         <f>AC7/Table1[[#Headers],[50]]</f>
+        <v>422.09626666666668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="P15" t="str">
+        <f t="shared" si="0"/>
+        <v>Standard_F64s_v2 enabled</v>
+      </c>
+      <c r="Q15" s="5">
+        <f>Q8/Table1[[#Headers],[1]]</f>
+        <v>1053.1199999999999</v>
+      </c>
+      <c r="R15" s="5">
+        <f>R8/Table1[[#Headers],[2]]</f>
+        <v>1011.47</v>
+      </c>
+      <c r="S15" s="5">
+        <f>S8/Table1[[#Headers],[3]]</f>
+        <v>1044.07</v>
+      </c>
+      <c r="T15" s="5">
+        <f>T8/Table1[[#Headers],[4]]</f>
+        <v>935.49249999999995</v>
+      </c>
+      <c r="U15" s="5">
+        <f>U8/Table1[[#Headers],[5]]</f>
+        <v>961.04200000000003</v>
+      </c>
+      <c r="V15" s="5">
+        <f>V8/Table1[[#Headers],[8]]</f>
+        <v>876.56124999999997</v>
+      </c>
+      <c r="W15" s="5">
+        <f>W8/Table1[[#Headers],[12]]</f>
+        <v>728.04333333333341</v>
+      </c>
+      <c r="X15" s="5">
+        <f>X8/Table1[[#Headers],[16]]</f>
+        <v>790.14687500000002</v>
+      </c>
+      <c r="Y15" s="5">
+        <f>Y8/Table1[[#Headers],[20]]</f>
+        <v>762.56999999999994</v>
+      </c>
+      <c r="Z15" s="5">
+        <f>Z8/Table1[[#Headers],[25]]</f>
+        <v>698.35880000000009</v>
+      </c>
+      <c r="AA15" s="5">
+        <f>AA8/Table1[[#Headers],[30]]</f>
+        <v>705.07100000000003</v>
+      </c>
+      <c r="AB15" s="5">
+        <f>AB8/Table1[[#Headers],[40]]</f>
+        <v>537.39300000000003</v>
+      </c>
+      <c r="AC15" s="5">
+        <f>AC8/Table1[[#Headers],[50]]</f>
         <v>519.24059999999997</v>
       </c>
     </row>
@@ -15884,6 +17913,475 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F40CBD-8CED-4E97-B310-54E8C632E12F}">
+  <dimension ref="H13:S45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14:T14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="13" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7">
+        <v>11</v>
+      </c>
+      <c r="L13" s="8">
+        <v>21</v>
+      </c>
+      <c r="O13" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>1</v>
+      </c>
+      <c r="R13" s="7">
+        <v>2</v>
+      </c>
+      <c r="S13" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="H14" s="6">
+        <v>2</v>
+      </c>
+      <c r="J14" s="6">
+        <v>2</v>
+      </c>
+      <c r="K14" s="7">
+        <v>12</v>
+      </c>
+      <c r="L14" s="8">
+        <v>22</v>
+      </c>
+      <c r="O14" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>4</v>
+      </c>
+      <c r="R14" s="7">
+        <v>5</v>
+      </c>
+      <c r="S14" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="H15" s="6">
+        <v>3</v>
+      </c>
+      <c r="J15" s="6">
+        <v>3</v>
+      </c>
+      <c r="K15" s="7">
+        <v>13</v>
+      </c>
+      <c r="L15" s="8">
+        <v>23</v>
+      </c>
+      <c r="O15" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>7</v>
+      </c>
+      <c r="R15" s="7">
+        <v>8</v>
+      </c>
+      <c r="S15" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="H16" s="6">
+        <v>4</v>
+      </c>
+      <c r="J16" s="6">
+        <v>4</v>
+      </c>
+      <c r="K16" s="7">
+        <v>14</v>
+      </c>
+      <c r="L16" s="8">
+        <v>24</v>
+      </c>
+      <c r="O16" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>10</v>
+      </c>
+      <c r="R16" s="7">
+        <v>11</v>
+      </c>
+      <c r="S16" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="H17" s="6">
+        <v>5</v>
+      </c>
+      <c r="J17" s="6">
+        <v>5</v>
+      </c>
+      <c r="K17" s="7">
+        <v>15</v>
+      </c>
+      <c r="L17" s="8">
+        <v>25</v>
+      </c>
+      <c r="O17" s="6">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>13</v>
+      </c>
+      <c r="R17" s="7">
+        <v>14</v>
+      </c>
+      <c r="S17" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="H18" s="6">
+        <v>6</v>
+      </c>
+      <c r="J18" s="6">
+        <v>6</v>
+      </c>
+      <c r="K18" s="7">
+        <v>16</v>
+      </c>
+      <c r="L18" s="8">
+        <v>26</v>
+      </c>
+      <c r="O18" s="6">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>16</v>
+      </c>
+      <c r="R18" s="7">
+        <v>17</v>
+      </c>
+      <c r="S18" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="H19" s="6">
+        <v>7</v>
+      </c>
+      <c r="J19" s="6">
+        <v>7</v>
+      </c>
+      <c r="K19" s="7">
+        <v>17</v>
+      </c>
+      <c r="L19" s="8">
+        <v>27</v>
+      </c>
+      <c r="O19" s="6">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>19</v>
+      </c>
+      <c r="R19" s="7">
+        <v>20</v>
+      </c>
+      <c r="S19" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="H20" s="6">
+        <v>8</v>
+      </c>
+      <c r="J20" s="6">
+        <v>8</v>
+      </c>
+      <c r="K20" s="7">
+        <v>18</v>
+      </c>
+      <c r="L20" s="8">
+        <v>28</v>
+      </c>
+      <c r="O20" s="6">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>22</v>
+      </c>
+      <c r="R20" s="7">
+        <v>23</v>
+      </c>
+      <c r="S20" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="H21" s="6">
+        <v>9</v>
+      </c>
+      <c r="J21" s="6">
+        <v>9</v>
+      </c>
+      <c r="K21" s="7">
+        <v>19</v>
+      </c>
+      <c r="L21" s="8">
+        <v>29</v>
+      </c>
+      <c r="O21" s="6">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>25</v>
+      </c>
+      <c r="R21" s="7">
+        <v>26</v>
+      </c>
+      <c r="S21" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="H22" s="6">
+        <v>10</v>
+      </c>
+      <c r="J22" s="6">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7">
+        <v>20</v>
+      </c>
+      <c r="L22" s="8">
+        <v>30</v>
+      </c>
+      <c r="O22" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>28</v>
+      </c>
+      <c r="R22" s="7">
+        <v>29</v>
+      </c>
+      <c r="S22" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="H23" s="7">
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <v>31</v>
+      </c>
+      <c r="O23" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="H24" s="7">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>32</v>
+      </c>
+      <c r="O24" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="H25" s="7">
+        <v>13</v>
+      </c>
+      <c r="J25">
+        <v>33</v>
+      </c>
+      <c r="O25" s="7">
+        <v>8</v>
+      </c>
+      <c r="Q25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="H26" s="7">
+        <v>14</v>
+      </c>
+      <c r="O26" s="7">
+        <v>11</v>
+      </c>
+      <c r="Q26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="H27" s="7">
+        <v>15</v>
+      </c>
+      <c r="O27" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="H28" s="7">
+        <v>16</v>
+      </c>
+      <c r="O28" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="H29" s="7">
+        <v>17</v>
+      </c>
+      <c r="O29" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="H30" s="7">
+        <v>18</v>
+      </c>
+      <c r="O30" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="H31" s="7">
+        <v>19</v>
+      </c>
+      <c r="O31" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="H32" s="7">
+        <v>20</v>
+      </c>
+      <c r="O32" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H33" s="8">
+        <v>21</v>
+      </c>
+      <c r="O33" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H34" s="8">
+        <v>22</v>
+      </c>
+      <c r="O34" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H35" s="8">
+        <v>23</v>
+      </c>
+      <c r="O35" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H36" s="8">
+        <v>24</v>
+      </c>
+      <c r="O36" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H37" s="8">
+        <v>25</v>
+      </c>
+      <c r="O37" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H38" s="8">
+        <v>26</v>
+      </c>
+      <c r="O38" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H39" s="8">
+        <v>27</v>
+      </c>
+      <c r="O39" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H40" s="8">
+        <v>28</v>
+      </c>
+      <c r="O40" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H41" s="8">
+        <v>29</v>
+      </c>
+      <c r="O41" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H42" s="8">
+        <v>30</v>
+      </c>
+      <c r="O42" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H43">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H45">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>

--- a/bench.xlsx
+++ b/bench.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chgeuer\Desktop\Azure Fast Track\#Moshik\SQream Technologies\src\ParallelDownload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F875E346-E4C0-409D-9F6E-A9842ADA5553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2D437E-1521-480D-ACFD-4DF2490D6F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{FEA465FA-9062-4B2B-9BE7-0A2529C1F021}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{FEA465FA-9062-4B2B-9BE7-0A2529C1F021}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="37">
   <si>
     <t>Number of parallel downloads</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Standard_NC8as_T4_v3</t>
+  </si>
+  <si>
+    <t>Standard_NC16as_T4_v3</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standard_F4s_v2</c:v>
+                  <c:v>Standard_NC16as_T4_v3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -588,6 +591,134 @@
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>diagrams!$B$2:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>diagrams!$B$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>0\ "sec"</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1420.1445492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>707.46530099999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>524.77724669999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>417.05809010000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>329.00829160000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>181.72830060000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127.2709344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.148382999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.501903999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.799254300000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.464861900000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.742272900000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41.263705999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E851-459F-AC68-7BF8568026B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>diagrams!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard_F4s_v2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -646,7 +777,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>diagrams!$B$4:$N$4</c:f>
+              <c:f>diagrams!$B$5:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>0\ "sec"</c:formatCode>
                 <c:ptCount val="13"/>
@@ -695,16 +826,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E851-459F-AC68-7BF8568026B6}"/>
+              <c16:uniqueId val="{00000002-E851-459F-AC68-7BF8568026B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>diagrams!$A$5</c:f>
+              <c:f>diagrams!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -775,7 +906,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>diagrams!$B$5:$N$5</c:f>
+              <c:f>diagrams!$B$6:$N$6</c:f>
               <c:numCache>
                 <c:formatCode>0\ "sec"</c:formatCode>
                 <c:ptCount val="13"/>
@@ -824,16 +955,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E851-459F-AC68-7BF8568026B6}"/>
+              <c16:uniqueId val="{00000003-E851-459F-AC68-7BF8568026B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>diagrams!$A$6</c:f>
+              <c:f>diagrams!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -903,7 +1034,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>diagrams!$B$6:$N$6</c:f>
+              <c:f>diagrams!$B$7:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>0\ "sec"</c:formatCode>
                 <c:ptCount val="13"/>
@@ -945,134 +1076,6 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>51.3149388</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E851-459F-AC68-7BF8568026B6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>diagrams!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Standard_F32s_v2 enabled</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>diagrams!$B$2:$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>diagrams!$B$7:$N$7</c:f>
-              <c:numCache>
-                <c:formatCode>0\ "sec"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1015.1907108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>514.97431129999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>364.32382660000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>289.71701780000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>221.7066317</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>140.91504789999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>103.82829270000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>76.905319700000007</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>78.022894699999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>68.399199199999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>64.968697800000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>57.703642899999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>49.710804500000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,7 +1096,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standard_F64s_v2 enabled</c:v>
+                  <c:v>Standard_F32s_v2 enabled</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1164,43 +1167,43 @@
                 <c:formatCode>0\ "sec"</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>995.68664060000003</c:v>
+                  <c:v>1015.1907108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>518.34310159999995</c:v>
+                  <c:v>514.97431129999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>334.7720233</c:v>
+                  <c:v>364.32382660000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>280.22020839999999</c:v>
+                  <c:v>289.71701780000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>218.21667289999999</c:v>
+                  <c:v>221.7066317</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>149.52983810000001</c:v>
+                  <c:v>140.91504789999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120.02213740000001</c:v>
+                  <c:v>103.82829270000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82.941544899999997</c:v>
+                  <c:v>76.905319700000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>68.752750899999995</c:v>
+                  <c:v>78.022894699999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.059433900000002</c:v>
+                  <c:v>68.399199199999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.573067500000001</c:v>
+                  <c:v>64.968697800000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48.780693900000003</c:v>
+                  <c:v>57.703642899999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40.388834899999999</c:v>
+                  <c:v>49.710804500000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1209,6 +1212,136 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-02E9-4803-94ED-4B437F790721}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>diagrams!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard_F64s_v2 enabled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>diagrams!$B$2:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>diagrams!$B$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>0\ "sec"</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>995.68664060000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>518.34310159999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>334.7720233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280.22020839999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>218.21667289999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>149.52983810000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.02213740000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.941544899999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.752750899999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.059433900000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.573067500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.780693900000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.388834899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6250-471D-A0A0-6F14D800704A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1481,11 +1614,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="88500"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1500,11 +1631,9 @@
                   <a:tint val="88500"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="38100">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="88500"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="FFC000"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -1622,7 +1751,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standard_F4s_v2 Enabled</c:v>
+                  <c:v>Standard_NC16as_T4_v3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1630,9 +1759,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="55000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1649,9 +1776,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="55000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -1712,43 +1837,43 @@
                 <c:formatCode>0\ "Mbit/s"</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1004.61</c:v>
+                  <c:v>738.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1935.99</c:v>
+                  <c:v>1482.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2598.1999999999998</c:v>
+                  <c:v>1998.14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3651.11</c:v>
+                  <c:v>2514.2199999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3782.31</c:v>
+                  <c:v>3187.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4140.13</c:v>
+                  <c:v>5770.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4883.3</c:v>
+                  <c:v>8238.93</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5568.7</c:v>
+                  <c:v>11020.43</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5630.22</c:v>
+                  <c:v>12408.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5688.18</c:v>
+                  <c:v>14604.27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5892.55</c:v>
+                  <c:v>16786.650000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5813.33</c:v>
+                  <c:v>18811.150000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5989.54</c:v>
+                  <c:v>25411.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1769,7 +1894,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standard_F16s_v2 Disabled</c:v>
+                  <c:v>Standard_F4s_v2 Enabled</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1777,9 +1902,10 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1795,9 +1921,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="75000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -1858,43 +1982,43 @@
                 <c:formatCode>0\ "Mbit/s"</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>781.38890624999965</c:v>
+                  <c:v>1004.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1536.6403124999999</c:v>
+                  <c:v>1935.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2133.3379069767443</c:v>
+                  <c:v>2598.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2658.5090624999998</c:v>
+                  <c:v>3651.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3244.6634615384614</c:v>
+                  <c:v>3782.31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5221.3943749999999</c:v>
+                  <c:v>4140.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6805.9827272727271</c:v>
+                  <c:v>4883.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9062.8975000000009</c:v>
+                  <c:v>5568.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9027.3799999999992</c:v>
+                  <c:v>5630.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9053.9783333333344</c:v>
+                  <c:v>5688.18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9439.344000000001</c:v>
+                  <c:v>5892.55</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8573.3150000000005</c:v>
+                  <c:v>5813.33</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8637.1466666666674</c:v>
+                  <c:v>5989.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1915,7 +2039,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standard_F16s_v2 Enabled</c:v>
+                  <c:v>Standard_F16s_v2 Disabled</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1925,12 +2049,13 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
+            <c:symbol val="diamond"/>
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
@@ -2003,43 +2128,43 @@
                 <c:formatCode>0\ "Mbit/s"</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>981.33250000000032</c:v>
+                  <c:v>781.38890624999965</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1983.6265624999999</c:v>
+                  <c:v>1536.6403124999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2841.5258139534885</c:v>
+                  <c:v>2133.3379069767443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3730.1343750000001</c:v>
+                  <c:v>2658.5090624999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4378.0676923076926</c:v>
+                  <c:v>3244.6634615384614</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7019.6862500000007</c:v>
+                  <c:v>5221.3943749999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9803.6054545454554</c:v>
+                  <c:v>6805.9827272727271</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12308.986249999998</c:v>
+                  <c:v>9062.8975000000009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11828.464285714284</c:v>
+                  <c:v>9027.3799999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14633.095000000001</c:v>
+                  <c:v>9053.9783333333344</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15271.769999999999</c:v>
+                  <c:v>9439.344000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17378.237499999999</c:v>
+                  <c:v>8573.3150000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20107.003333333334</c:v>
+                  <c:v>8637.1466666666674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2060,7 +2185,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standard_F32s_v2 Enabled</c:v>
+                  <c:v>Standard_F16s_v2 Enabled</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2068,17 +2193,14 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="30000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
+            <c:symbol val="square"/>
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
@@ -2151,43 +2273,43 @@
                 <c:formatCode>0\ "Mbit/s"</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1037.7700781249998</c:v>
+                  <c:v>981.33250000000032</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2037.5092187499997</c:v>
+                  <c:v>1983.6265624999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2882.2546511627897</c:v>
+                  <c:v>2841.5258139534885</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3628.8459375000007</c:v>
+                  <c:v>3730.1343750000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4731.0473076923072</c:v>
+                  <c:v>4378.0676923076926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7450.7731250000006</c:v>
+                  <c:v>7019.6862500000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10124.063636363639</c:v>
+                  <c:v>9803.6054545454554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13688.836250000002</c:v>
+                  <c:v>12308.986249999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13537.88</c:v>
+                  <c:v>11828.464285714284</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15073.210000000001</c:v>
+                  <c:v>14633.095000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15951.848000000002</c:v>
+                  <c:v>15271.769999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17514.327499999999</c:v>
+                  <c:v>17378.237499999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21104.813333333335</c:v>
+                  <c:v>20107.003333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2208,7 +2330,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standard_F64s_v2 enabled</c:v>
+                  <c:v>Standard_F32s_v2 Enabled</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2220,15 +2342,20 @@
                   <a:tint val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
+            <c:symbol val="triangle"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
@@ -2294,43 +2421,43 @@
                 <c:formatCode>0\ "Mbit/s"</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1053.1199999999999</c:v>
+                  <c:v>1037.7700781249998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2022.94</c:v>
+                  <c:v>2037.5092187499997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3132.21</c:v>
+                  <c:v>2882.2546511627897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3741.97</c:v>
+                  <c:v>3628.8459375000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4805.21</c:v>
+                  <c:v>4731.0473076923072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7012.49</c:v>
+                  <c:v>7450.7731250000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8736.52</c:v>
+                  <c:v>10124.063636363639</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12642.35</c:v>
+                  <c:v>13688.836250000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15251.4</c:v>
+                  <c:v>13537.88</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17458.97</c:v>
+                  <c:v>15073.210000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21152.13</c:v>
+                  <c:v>15951.848000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21495.72</c:v>
+                  <c:v>17514.327499999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25962.03</c:v>
+                  <c:v>21104.813333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2339,6 +2466,149 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EBD0-40FE-BACE-9E7520815E9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>diagrams!$P$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard_F64s_v2 enabled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>diagrams!$Q$2:$AC$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>diagrams!$Q$9:$AC$9</c:f>
+              <c:numCache>
+                <c:formatCode>0\ "Mbit/s"</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1053.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3132.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3741.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4805.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7012.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8736.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12642.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15251.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17458.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21152.13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21495.72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25962.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F822-4A9A-AD79-EB95BA17B3EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3771,13 +4041,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3174</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3807,13 +4077,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>40342</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>24279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>14942</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>68729</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3859,8 +4129,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>21790</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="Ink 3">
@@ -3879,7 +4149,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="Ink 3">
@@ -3924,8 +4194,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>17599</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="Ink 4">
@@ -3944,7 +4214,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="Ink 4">
@@ -3984,8 +4254,8 @@
       <xdr:rowOff>17239</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="6" name="Ink 5">
@@ -4004,7 +4274,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="6" name="Ink 5">
@@ -4122,10 +4392,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7BDD00DD-3781-437F-B8EF-B8F20773EE36}" name="Table2" displayName="Table2" ref="A2:N8" totalsRowShown="0">
-  <autoFilter ref="A2:N8" xr:uid="{7BDD00DD-3781-437F-B8EF-B8F20773EE36}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N8">
-    <sortCondition ref="A2:A8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7BDD00DD-3781-437F-B8EF-B8F20773EE36}" name="Table2" displayName="Table2" ref="A2:N9" totalsRowShown="0">
+  <autoFilter ref="A2:N9" xr:uid="{7BDD00DD-3781-437F-B8EF-B8F20773EE36}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N9">
+    <sortCondition ref="A2:A9"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{1E742399-FD6D-4114-8B72-E80043BD978A}" name="# of streams"/>
@@ -4148,8 +4418,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB8434B5-CBF4-40F3-8429-54CBA777122A}" name="Table1" displayName="Table1" ref="P2:AC8" totalsRowShown="0">
-  <autoFilter ref="P2:AC8" xr:uid="{FB8434B5-CBF4-40F3-8429-54CBA777122A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB8434B5-CBF4-40F3-8429-54CBA777122A}" name="Table1" displayName="Table1" ref="P2:AC9" totalsRowShown="0">
+  <autoFilter ref="P2:AC9" xr:uid="{FB8434B5-CBF4-40F3-8429-54CBA777122A}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{D8ECE691-65FB-44BD-9A23-C8AE07545892}" name="Concurrent Downloads"/>
     <tableColumn id="2" xr3:uid="{C9A0FC86-82CB-4F30-8379-9362B7CDBFA6}" name="1" dataDxfId="12"/>
@@ -4467,15 +4737,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CE4B37-856E-40E0-9A51-108C0DDE3B53}">
-  <dimension ref="A1:CN253"/>
+  <dimension ref="A1:DC253"/>
   <sheetViews>
-    <sheetView topLeftCell="BN1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CB5" sqref="CB5:CN5"/>
+    <sheetView tabSelected="1" topLeftCell="CI2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="DC27" sqref="DC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4713,8 +4983,47 @@
       <c r="CN1">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="CQ1">
+        <v>1</v>
+      </c>
+      <c r="CR1">
+        <v>2</v>
+      </c>
+      <c r="CS1">
+        <v>3</v>
+      </c>
+      <c r="CT1">
+        <v>4</v>
+      </c>
+      <c r="CU1">
+        <v>5</v>
+      </c>
+      <c r="CV1">
+        <v>8</v>
+      </c>
+      <c r="CW1">
+        <v>12</v>
+      </c>
+      <c r="CX1">
+        <v>16</v>
+      </c>
+      <c r="CY1">
+        <v>20</v>
+      </c>
+      <c r="CZ1">
+        <v>25</v>
+      </c>
+      <c r="DA1">
+        <v>30</v>
+      </c>
+      <c r="DB1">
+        <v>40</v>
+      </c>
+      <c r="DC1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4976,8 +5285,23 @@
       <c r="CL2" s="11"/>
       <c r="CM2" s="11"/>
       <c r="CN2" s="11"/>
-    </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="CQ2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" s="11"/>
+      <c r="CS2" s="11"/>
+      <c r="CT2" s="11"/>
+      <c r="CU2" s="11"/>
+      <c r="CV2" s="11"/>
+      <c r="CW2" s="11"/>
+      <c r="CX2" s="11"/>
+      <c r="CY2" s="11"/>
+      <c r="CZ2" s="11"/>
+      <c r="DA2" s="11"/>
+      <c r="DB2" s="11"/>
+      <c r="DC2" s="11"/>
+    </row>
+    <row r="3" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5215,8 +5539,47 @@
       <c r="CN3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="CQ3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>7</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5455,8 +5818,47 @@
       <c r="CN4" s="2">
         <v>48.802437300000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ4" s="2">
+        <v>1420.1445492</v>
+      </c>
+      <c r="CR4" s="2">
+        <v>707.46530099999995</v>
+      </c>
+      <c r="CS4" s="2">
+        <v>524.77724669999998</v>
+      </c>
+      <c r="CT4" s="2">
+        <v>417.05809010000002</v>
+      </c>
+      <c r="CU4" s="2">
+        <v>329.00829160000001</v>
+      </c>
+      <c r="CV4" s="2">
+        <v>181.72830060000001</v>
+      </c>
+      <c r="CW4" s="2">
+        <v>127.2709344</v>
+      </c>
+      <c r="CX4" s="2">
+        <v>95.148382999999995</v>
+      </c>
+      <c r="CY4" s="2">
+        <v>84.501903999999996</v>
+      </c>
+      <c r="CZ4" s="2">
+        <v>71.799254300000001</v>
+      </c>
+      <c r="DA4" s="2">
+        <v>62.464861900000002</v>
+      </c>
+      <c r="DB4" s="2">
+        <v>55.742272900000003</v>
+      </c>
+      <c r="DC4" s="2">
+        <v>41.263705999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -5694,8 +6096,47 @@
       <c r="CN5" s="3">
         <v>21486.14</v>
       </c>
-    </row>
-    <row r="6" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ5" s="3">
+        <v>738.36</v>
+      </c>
+      <c r="CR5" s="3">
+        <v>1482.16</v>
+      </c>
+      <c r="CS5" s="3">
+        <v>1998.14</v>
+      </c>
+      <c r="CT5" s="3">
+        <v>2514.2199999999998</v>
+      </c>
+      <c r="CU5" s="3">
+        <v>3187.08</v>
+      </c>
+      <c r="CV5" s="3">
+        <v>5770.02</v>
+      </c>
+      <c r="CW5" s="3">
+        <v>8238.93</v>
+      </c>
+      <c r="CX5" s="3">
+        <v>11020.43</v>
+      </c>
+      <c r="CY5" s="3">
+        <v>12408.9</v>
+      </c>
+      <c r="CZ5" s="3">
+        <v>14604.27</v>
+      </c>
+      <c r="DA5" s="3">
+        <v>16786.650000000001</v>
+      </c>
+      <c r="DB5" s="3">
+        <v>18811.150000000001</v>
+      </c>
+      <c r="DC5" s="3">
+        <v>25411.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -6011,8 +6452,60 @@
         <f t="shared" si="31"/>
         <v>21154.959999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ6" s="3">
+        <f t="shared" ref="CQ6:DC6" si="32">AVERAGE(CQ7:CQ134)</f>
+        <v>740.76984374999995</v>
+      </c>
+      <c r="CR6" s="3">
+        <f t="shared" si="32"/>
+        <v>1505.2245312499997</v>
+      </c>
+      <c r="CS6" s="3">
+        <f t="shared" si="32"/>
+        <v>2000.229767441861</v>
+      </c>
+      <c r="CT6" s="3">
+        <f t="shared" si="32"/>
+        <v>2525.9409375</v>
+      </c>
+      <c r="CU6" s="3">
+        <f t="shared" si="32"/>
+        <v>3187.895384615385</v>
+      </c>
+      <c r="CV6" s="3">
+        <f t="shared" si="32"/>
+        <v>5795.4856250000012</v>
+      </c>
+      <c r="CW6" s="3">
+        <f t="shared" si="32"/>
+        <v>8262.5863636363629</v>
+      </c>
+      <c r="CX6" s="3">
+        <f t="shared" si="32"/>
+        <v>11044.05875</v>
+      </c>
+      <c r="CY6" s="3">
+        <f t="shared" si="32"/>
+        <v>12387.008571428571</v>
+      </c>
+      <c r="CZ6" s="3">
+        <f t="shared" si="32"/>
+        <v>14609.31</v>
+      </c>
+      <c r="DA6" s="3">
+        <f t="shared" si="32"/>
+        <v>16582.194</v>
+      </c>
+      <c r="DB6" s="3">
+        <f t="shared" si="32"/>
+        <v>18113.52</v>
+      </c>
+      <c r="DC6" s="3">
+        <f t="shared" si="32"/>
+        <v>25147.180000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>979.72</v>
       </c>
@@ -6250,8 +6743,47 @@
       <c r="CN7" s="3">
         <v>22493.84</v>
       </c>
-    </row>
-    <row r="8" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ7" s="3">
+        <v>733.89</v>
+      </c>
+      <c r="CR7" s="3">
+        <v>1381.54</v>
+      </c>
+      <c r="CS7" s="3">
+        <v>1931.85</v>
+      </c>
+      <c r="CT7" s="3">
+        <v>2386.9</v>
+      </c>
+      <c r="CU7" s="3">
+        <v>3172.15</v>
+      </c>
+      <c r="CV7" s="3">
+        <v>5287.75</v>
+      </c>
+      <c r="CW7" s="3">
+        <v>8355.25</v>
+      </c>
+      <c r="CX7" s="3">
+        <v>10832.45</v>
+      </c>
+      <c r="CY7" s="3">
+        <v>12418.27</v>
+      </c>
+      <c r="CZ7" s="3">
+        <v>16318.41</v>
+      </c>
+      <c r="DA7" s="3">
+        <v>17914.259999999998</v>
+      </c>
+      <c r="DB7" s="3">
+        <v>22223.3</v>
+      </c>
+      <c r="DC7" s="3">
+        <v>27764.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>1044.97</v>
       </c>
@@ -6489,8 +7021,47 @@
       <c r="CN8" s="3">
         <v>23085.67</v>
       </c>
-    </row>
-    <row r="9" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ8" s="3">
+        <v>716.79</v>
+      </c>
+      <c r="CR8" s="3">
+        <v>1351.49</v>
+      </c>
+      <c r="CS8" s="3">
+        <v>1927.15</v>
+      </c>
+      <c r="CT8" s="3">
+        <v>2397.5700000000002</v>
+      </c>
+      <c r="CU8" s="3">
+        <v>3240.55</v>
+      </c>
+      <c r="CV8" s="3">
+        <v>4745.51</v>
+      </c>
+      <c r="CW8" s="3">
+        <v>8738.11</v>
+      </c>
+      <c r="CX8" s="3">
+        <v>10890.21</v>
+      </c>
+      <c r="CY8" s="3">
+        <v>14244.39</v>
+      </c>
+      <c r="CZ8" s="3">
+        <v>17407.78</v>
+      </c>
+      <c r="DA8" s="3">
+        <v>19224.400000000001</v>
+      </c>
+      <c r="DB8" s="3">
+        <v>22777.07</v>
+      </c>
+      <c r="DC8" s="3">
+        <v>29241.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>1044.96</v>
       </c>
@@ -6728,8 +7299,47 @@
       <c r="CN9" s="3">
         <v>17885.37</v>
       </c>
-    </row>
-    <row r="10" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ9" s="3">
+        <v>716.71</v>
+      </c>
+      <c r="CR9" s="3">
+        <v>1391.19</v>
+      </c>
+      <c r="CS9" s="3">
+        <v>1894.95</v>
+      </c>
+      <c r="CT9" s="3">
+        <v>2460.6799999999998</v>
+      </c>
+      <c r="CU9" s="3">
+        <v>3227.54</v>
+      </c>
+      <c r="CV9" s="3">
+        <v>5801.28</v>
+      </c>
+      <c r="CW9" s="3">
+        <v>8311.73</v>
+      </c>
+      <c r="CX9" s="3">
+        <v>11426.48</v>
+      </c>
+      <c r="CY9" s="3">
+        <v>13285.48</v>
+      </c>
+      <c r="CZ9" s="3">
+        <v>17281.37</v>
+      </c>
+      <c r="DA9" s="3">
+        <v>19664.36</v>
+      </c>
+      <c r="DB9" s="3">
+        <v>21726.55</v>
+      </c>
+      <c r="DC9" s="3">
+        <v>18434.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>1019.69</v>
       </c>
@@ -6949,8 +7559,44 @@
       <c r="CM10" s="3">
         <v>5735.34</v>
       </c>
-    </row>
-    <row r="11" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ10" s="3">
+        <v>738.37</v>
+      </c>
+      <c r="CR10" s="3">
+        <v>1364.15</v>
+      </c>
+      <c r="CS10" s="3">
+        <v>1939.59</v>
+      </c>
+      <c r="CT10" s="3">
+        <v>2400.7199999999998</v>
+      </c>
+      <c r="CU10" s="3">
+        <v>3224.84</v>
+      </c>
+      <c r="CV10" s="3">
+        <v>6047.31</v>
+      </c>
+      <c r="CW10" s="3">
+        <v>8862.66</v>
+      </c>
+      <c r="CX10" s="3">
+        <v>10593.51</v>
+      </c>
+      <c r="CY10" s="3">
+        <v>13777.26</v>
+      </c>
+      <c r="CZ10" s="3">
+        <v>17316.47</v>
+      </c>
+      <c r="DA10" s="3">
+        <v>20301.169999999998</v>
+      </c>
+      <c r="DB10" s="3">
+        <v>5727.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>937.43</v>
       </c>
@@ -7152,8 +7798,41 @@
       <c r="CL11" s="3">
         <v>6239.92</v>
       </c>
-    </row>
-    <row r="12" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ11" s="3">
+        <v>716.64</v>
+      </c>
+      <c r="CR11" s="3">
+        <v>1366.91</v>
+      </c>
+      <c r="CS11" s="3">
+        <v>1979.32</v>
+      </c>
+      <c r="CT11" s="3">
+        <v>2565.4</v>
+      </c>
+      <c r="CU11" s="3">
+        <v>3218.84</v>
+      </c>
+      <c r="CV11" s="3">
+        <v>5976.21</v>
+      </c>
+      <c r="CW11" s="3">
+        <v>8470.2800000000007</v>
+      </c>
+      <c r="CX11" s="3">
+        <v>11435.1</v>
+      </c>
+      <c r="CY11" s="3">
+        <v>13490.19</v>
+      </c>
+      <c r="CZ11" s="3">
+        <v>17260.04</v>
+      </c>
+      <c r="DA11" s="3">
+        <v>5806.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>1017.11</v>
       </c>
@@ -7337,8 +8016,38 @@
       <c r="CK12" s="3">
         <v>2322.4899999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ12" s="3">
+        <v>710.53</v>
+      </c>
+      <c r="CR12" s="3">
+        <v>1351.83</v>
+      </c>
+      <c r="CS12" s="3">
+        <v>1949.63</v>
+      </c>
+      <c r="CT12" s="3">
+        <v>2783.99</v>
+      </c>
+      <c r="CU12" s="3">
+        <v>3259.64</v>
+      </c>
+      <c r="CV12" s="3">
+        <v>5649.3</v>
+      </c>
+      <c r="CW12" s="3">
+        <v>8740.2900000000009</v>
+      </c>
+      <c r="CX12" s="3">
+        <v>11122.7</v>
+      </c>
+      <c r="CY12" s="3">
+        <v>13814.8</v>
+      </c>
+      <c r="CZ12" s="3">
+        <v>2071.79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>1015.52</v>
       </c>
@@ -7504,8 +8213,35 @@
       <c r="CJ13" s="3">
         <v>5804.02</v>
       </c>
-    </row>
-    <row r="14" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ13" s="3">
+        <v>717.66</v>
+      </c>
+      <c r="CR13" s="3">
+        <v>1354.41</v>
+      </c>
+      <c r="CS13" s="3">
+        <v>2010.37</v>
+      </c>
+      <c r="CT13" s="3">
+        <v>2723</v>
+      </c>
+      <c r="CU13" s="3">
+        <v>3267.54</v>
+      </c>
+      <c r="CV13" s="3">
+        <v>6192.28</v>
+      </c>
+      <c r="CW13" s="3">
+        <v>8252.89</v>
+      </c>
+      <c r="CX13" s="3">
+        <v>11213.88</v>
+      </c>
+      <c r="CY13" s="3">
+        <v>5678.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>1037.53</v>
       </c>
@@ -7653,8 +8389,32 @@
       <c r="CI14" s="3">
         <v>11341.71</v>
       </c>
-    </row>
-    <row r="15" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ14" s="3">
+        <v>721.44</v>
+      </c>
+      <c r="CR14" s="3">
+        <v>1395.26</v>
+      </c>
+      <c r="CS14" s="3">
+        <v>1989.79</v>
+      </c>
+      <c r="CT14" s="3">
+        <v>2654.9</v>
+      </c>
+      <c r="CU14" s="3">
+        <v>3231.63</v>
+      </c>
+      <c r="CV14" s="3">
+        <v>6184.21</v>
+      </c>
+      <c r="CW14" s="3">
+        <v>8540.48</v>
+      </c>
+      <c r="CX14" s="3">
+        <v>10838.14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>1038.3599999999999</v>
       </c>
@@ -7784,8 +8544,29 @@
       <c r="CH15" s="3">
         <v>8163.53</v>
       </c>
-    </row>
-    <row r="16" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ15" s="3">
+        <v>720.7</v>
+      </c>
+      <c r="CR15" s="3">
+        <v>1366.17</v>
+      </c>
+      <c r="CS15" s="3">
+        <v>1914.95</v>
+      </c>
+      <c r="CT15" s="3">
+        <v>2607.1999999999998</v>
+      </c>
+      <c r="CU15" s="3">
+        <v>3156.01</v>
+      </c>
+      <c r="CV15" s="3">
+        <v>6087.64</v>
+      </c>
+      <c r="CW15" s="3">
+        <v>8318.44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <v>1031.3599999999999</v>
       </c>
@@ -7915,8 +8696,29 @@
       <c r="CH16" s="3">
         <v>8151.28</v>
       </c>
-    </row>
-    <row r="17" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ16" s="3">
+        <v>721.59</v>
+      </c>
+      <c r="CR16" s="3">
+        <v>1324.1</v>
+      </c>
+      <c r="CS16" s="3">
+        <v>1953.11</v>
+      </c>
+      <c r="CT16" s="3">
+        <v>2534.8200000000002</v>
+      </c>
+      <c r="CU16" s="3">
+        <v>3170.02</v>
+      </c>
+      <c r="CV16" s="3">
+        <v>5783.35</v>
+      </c>
+      <c r="CW16" s="3">
+        <v>8639.0300000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>1044.56</v>
       </c>
@@ -8046,8 +8848,29 @@
       <c r="CH17" s="3">
         <v>5571.38</v>
       </c>
-    </row>
-    <row r="18" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ17" s="3">
+        <v>828.06</v>
+      </c>
+      <c r="CR17" s="3">
+        <v>1391.31</v>
+      </c>
+      <c r="CS17" s="3">
+        <v>1981.2</v>
+      </c>
+      <c r="CT17" s="3">
+        <v>2467.0100000000002</v>
+      </c>
+      <c r="CU17" s="3">
+        <v>3277.8</v>
+      </c>
+      <c r="CV17" s="3">
+        <v>5819.3</v>
+      </c>
+      <c r="CW17" s="3">
+        <v>5659.29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>1024.9000000000001</v>
       </c>
@@ -8159,8 +8982,26 @@
       <c r="CG18" s="3">
         <v>5650.57</v>
       </c>
-    </row>
-    <row r="19" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ18" s="3">
+        <v>824.17</v>
+      </c>
+      <c r="CR18" s="3">
+        <v>1578.16</v>
+      </c>
+      <c r="CS18" s="3">
+        <v>1920.27</v>
+      </c>
+      <c r="CT18" s="3">
+        <v>2427.04</v>
+      </c>
+      <c r="CU18" s="3">
+        <v>3291.23</v>
+      </c>
+      <c r="CV18" s="3">
+        <v>5675.58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>1015.28</v>
       </c>
@@ -8272,8 +9113,26 @@
       <c r="CG19" s="3">
         <v>5710.77</v>
       </c>
-    </row>
-    <row r="20" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ19" s="3">
+        <v>818.07</v>
+      </c>
+      <c r="CR19" s="3">
+        <v>1560.82</v>
+      </c>
+      <c r="CS19" s="3">
+        <v>1986.73</v>
+      </c>
+      <c r="CT19" s="3">
+        <v>2429.2800000000002</v>
+      </c>
+      <c r="CU19" s="3">
+        <v>3270.95</v>
+      </c>
+      <c r="CV19" s="3">
+        <v>5935.46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <v>1031.78</v>
       </c>
@@ -8385,8 +9244,26 @@
       <c r="CG20" s="3">
         <v>5885.83</v>
       </c>
-    </row>
-    <row r="21" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ20" s="3">
+        <v>815.29</v>
+      </c>
+      <c r="CR20" s="3">
+        <v>1426.09</v>
+      </c>
+      <c r="CS20" s="3">
+        <v>1891.44</v>
+      </c>
+      <c r="CT20" s="3">
+        <v>2285.62</v>
+      </c>
+      <c r="CU20" s="3">
+        <v>3313.77</v>
+      </c>
+      <c r="CV20" s="3">
+        <v>5688.93</v>
+      </c>
+    </row>
+    <row r="21" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <v>1047.18</v>
       </c>
@@ -8498,8 +9375,26 @@
       <c r="CG21" s="3">
         <v>6029.94</v>
       </c>
-    </row>
-    <row r="22" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ21" s="3">
+        <v>739.71</v>
+      </c>
+      <c r="CR21" s="3">
+        <v>1443.91</v>
+      </c>
+      <c r="CS21" s="3">
+        <v>1903.57</v>
+      </c>
+      <c r="CT21" s="3">
+        <v>2417.02</v>
+      </c>
+      <c r="CU21" s="3">
+        <v>3268.4</v>
+      </c>
+      <c r="CV21" s="3">
+        <v>5915.47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <v>1051.32</v>
       </c>
@@ -8611,8 +9506,26 @@
       <c r="CG22" s="3">
         <v>5677.49</v>
       </c>
-    </row>
-    <row r="23" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ22" s="3">
+        <v>743.3</v>
+      </c>
+      <c r="CR22" s="3">
+        <v>1402.65</v>
+      </c>
+      <c r="CS22" s="3">
+        <v>2002.34</v>
+      </c>
+      <c r="CT22" s="3">
+        <v>2363.44</v>
+      </c>
+      <c r="CU22" s="3">
+        <v>3278.71</v>
+      </c>
+      <c r="CV22" s="3">
+        <v>5938.19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <v>1024.78</v>
       </c>
@@ -8706,8 +9619,23 @@
       <c r="CF23" s="3">
         <v>3584.88</v>
       </c>
-    </row>
-    <row r="24" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ23" s="3">
+        <v>747.86</v>
+      </c>
+      <c r="CR23" s="3">
+        <v>1337.82</v>
+      </c>
+      <c r="CS23" s="3">
+        <v>2149.4499999999998</v>
+      </c>
+      <c r="CT23" s="3">
+        <v>2362.83</v>
+      </c>
+      <c r="CU23" s="3">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="24" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <v>1050.07</v>
       </c>
@@ -8801,8 +9729,23 @@
       <c r="CF24" s="3">
         <v>3664.27</v>
       </c>
-    </row>
-    <row r="25" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ24" s="3">
+        <v>735.66</v>
+      </c>
+      <c r="CR24" s="3">
+        <v>1345.72</v>
+      </c>
+      <c r="CS24" s="3">
+        <v>2054.67</v>
+      </c>
+      <c r="CT24" s="3">
+        <v>2340.87</v>
+      </c>
+      <c r="CU24" s="3">
+        <v>3251.01</v>
+      </c>
+    </row>
+    <row r="25" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>1033.3499999999999</v>
       </c>
@@ -8896,8 +9839,23 @@
       <c r="CF25" s="3">
         <v>3404.8</v>
       </c>
-    </row>
-    <row r="26" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ25" s="3">
+        <v>728.91</v>
+      </c>
+      <c r="CR25" s="3">
+        <v>1325.23</v>
+      </c>
+      <c r="CS25" s="3">
+        <v>2036.23</v>
+      </c>
+      <c r="CT25" s="3">
+        <v>2347.39</v>
+      </c>
+      <c r="CU25" s="3">
+        <v>3227.14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <v>1011.61</v>
       </c>
@@ -8991,8 +9949,23 @@
       <c r="CF26" s="3">
         <v>3659.68</v>
       </c>
-    </row>
-    <row r="27" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ26" s="3">
+        <v>729.6</v>
+      </c>
+      <c r="CR26" s="3">
+        <v>1335.16</v>
+      </c>
+      <c r="CS26" s="3">
+        <v>2051.86</v>
+      </c>
+      <c r="CT26" s="3">
+        <v>2357.02</v>
+      </c>
+      <c r="CU26" s="3">
+        <v>3262.23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <v>1032.45</v>
       </c>
@@ -9086,8 +10059,23 @@
       <c r="CF27" s="3">
         <v>3404.07</v>
       </c>
-    </row>
-    <row r="28" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ27" s="3">
+        <v>736.02</v>
+      </c>
+      <c r="CR27" s="3">
+        <v>1312.15</v>
+      </c>
+      <c r="CS27" s="3">
+        <v>2055.34</v>
+      </c>
+      <c r="CT27" s="3">
+        <v>2350.5300000000002</v>
+      </c>
+      <c r="CU27" s="3">
+        <v>3037.74</v>
+      </c>
+    </row>
+    <row r="28" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>1052.8399999999999</v>
       </c>
@@ -9181,8 +10169,23 @@
       <c r="CF28" s="3">
         <v>3361.12</v>
       </c>
-    </row>
-    <row r="29" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ28" s="3">
+        <v>745.91</v>
+      </c>
+      <c r="CR28" s="3">
+        <v>1353.54</v>
+      </c>
+      <c r="CS28" s="3">
+        <v>1996.8</v>
+      </c>
+      <c r="CT28" s="3">
+        <v>2362.9699999999998</v>
+      </c>
+      <c r="CU28" s="3">
+        <v>3246.99</v>
+      </c>
+    </row>
+    <row r="29" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>1069.96</v>
       </c>
@@ -9276,8 +10279,23 @@
       <c r="CF29" s="3">
         <v>3419.6</v>
       </c>
-    </row>
-    <row r="30" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ29" s="3">
+        <v>748.24</v>
+      </c>
+      <c r="CR29" s="3">
+        <v>1327.96</v>
+      </c>
+      <c r="CS29" s="3">
+        <v>1944.75</v>
+      </c>
+      <c r="CT29" s="3">
+        <v>2376.7600000000002</v>
+      </c>
+      <c r="CU29" s="3">
+        <v>3309.98</v>
+      </c>
+    </row>
+    <row r="30" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>1057.8399999999999</v>
       </c>
@@ -9371,8 +10389,23 @@
       <c r="CF30" s="3">
         <v>3621.45</v>
       </c>
-    </row>
-    <row r="31" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ30" s="3">
+        <v>724.41</v>
+      </c>
+      <c r="CR30" s="3">
+        <v>1325.11</v>
+      </c>
+      <c r="CS30" s="3">
+        <v>1925.88</v>
+      </c>
+      <c r="CT30" s="3">
+        <v>2720.55</v>
+      </c>
+      <c r="CU30" s="3">
+        <v>3270.1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <v>1053.3499999999999</v>
       </c>
@@ -9466,8 +10499,23 @@
       <c r="CF31" s="3">
         <v>3661.64</v>
       </c>
-    </row>
-    <row r="32" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ31" s="3">
+        <v>721.63</v>
+      </c>
+      <c r="CR31" s="3">
+        <v>1325.96</v>
+      </c>
+      <c r="CS31" s="3">
+        <v>1945.5</v>
+      </c>
+      <c r="CT31" s="3">
+        <v>2751.89</v>
+      </c>
+      <c r="CU31" s="3">
+        <v>3130.48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <v>1057.23</v>
       </c>
@@ -9561,8 +10609,23 @@
       <c r="CF32" s="3">
         <v>2266.66</v>
       </c>
-    </row>
-    <row r="33" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ32" s="3">
+        <v>761.03</v>
+      </c>
+      <c r="CR32" s="3">
+        <v>1248.4000000000001</v>
+      </c>
+      <c r="CS32" s="3">
+        <v>2261.4</v>
+      </c>
+      <c r="CT32" s="3">
+        <v>2795.75</v>
+      </c>
+      <c r="CU32" s="3">
+        <v>1985.99</v>
+      </c>
+    </row>
+    <row r="33" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <v>1019.12</v>
       </c>
@@ -9638,8 +10701,20 @@
       <c r="CE33" s="3">
         <v>2826.91</v>
       </c>
-    </row>
-    <row r="34" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ33" s="3">
+        <v>746.6</v>
+      </c>
+      <c r="CR33" s="3">
+        <v>1272.8800000000001</v>
+      </c>
+      <c r="CS33" s="3">
+        <v>2154.21</v>
+      </c>
+      <c r="CT33" s="3">
+        <v>2844.87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="3">
         <v>1004.71</v>
       </c>
@@ -9715,8 +10790,20 @@
       <c r="CE34" s="3">
         <v>2770.71</v>
       </c>
-    </row>
-    <row r="35" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ34" s="3">
+        <v>733.52</v>
+      </c>
+      <c r="CR34" s="3">
+        <v>1427.21</v>
+      </c>
+      <c r="CS34" s="3">
+        <v>2145.83</v>
+      </c>
+      <c r="CT34" s="3">
+        <v>2789.95</v>
+      </c>
+    </row>
+    <row r="35" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
         <v>1023.48</v>
       </c>
@@ -9795,8 +10882,20 @@
       <c r="CE35" s="3">
         <v>2886.47</v>
       </c>
-    </row>
-    <row r="36" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ35" s="3">
+        <v>648.04999999999995</v>
+      </c>
+      <c r="CR35" s="3">
+        <v>1368.78</v>
+      </c>
+      <c r="CS35" s="3">
+        <v>2085.87</v>
+      </c>
+      <c r="CT35" s="3">
+        <v>2635.93</v>
+      </c>
+    </row>
+    <row r="36" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <v>1032.77</v>
       </c>
@@ -9875,8 +10974,20 @@
       <c r="CE36" s="3">
         <v>2825.7</v>
       </c>
-    </row>
-    <row r="37" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ36" s="3">
+        <v>673.37</v>
+      </c>
+      <c r="CR36" s="3">
+        <v>1347.51</v>
+      </c>
+      <c r="CS36" s="3">
+        <v>2107.8000000000002</v>
+      </c>
+      <c r="CT36" s="3">
+        <v>2800.19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="3">
         <v>1044.76</v>
       </c>
@@ -9955,8 +11066,20 @@
       <c r="CE37" s="3">
         <v>2811.51</v>
       </c>
-    </row>
-    <row r="38" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ37" s="3">
+        <v>678.34</v>
+      </c>
+      <c r="CR37" s="3">
+        <v>1389.41</v>
+      </c>
+      <c r="CS37" s="3">
+        <v>2067.08</v>
+      </c>
+      <c r="CT37" s="3">
+        <v>2508.63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>1050.6300000000001</v>
       </c>
@@ -10035,8 +11158,20 @@
       <c r="CE38" s="3">
         <v>2774.17</v>
       </c>
-    </row>
-    <row r="39" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ38" s="3">
+        <v>800.54</v>
+      </c>
+      <c r="CR38" s="3">
+        <v>1375.39</v>
+      </c>
+      <c r="CS38" s="3">
+        <v>2068.02</v>
+      </c>
+      <c r="CT38" s="3">
+        <v>2579.39</v>
+      </c>
+    </row>
+    <row r="39" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3">
         <v>1052.81</v>
       </c>
@@ -10097,8 +11232,17 @@
       <c r="CD39" s="3">
         <v>2007.42</v>
       </c>
-    </row>
-    <row r="40" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ39" s="3">
+        <v>774.66</v>
+      </c>
+      <c r="CR39" s="3">
+        <v>1350.49</v>
+      </c>
+      <c r="CS39" s="3">
+        <v>2128.2600000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B40" s="3">
         <v>1045.2</v>
       </c>
@@ -10159,8 +11303,17 @@
       <c r="CD40" s="3">
         <v>1931.09</v>
       </c>
-    </row>
-    <row r="41" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ40" s="3">
+        <v>764.97</v>
+      </c>
+      <c r="CR40" s="3">
+        <v>1390.82</v>
+      </c>
+      <c r="CS40" s="3">
+        <v>2012.71</v>
+      </c>
+    </row>
+    <row r="41" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B41" s="3">
         <v>1021.89</v>
       </c>
@@ -10221,8 +11374,17 @@
       <c r="CD41" s="3">
         <v>1932.39</v>
       </c>
-    </row>
-    <row r="42" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ41" s="3">
+        <v>722.16</v>
+      </c>
+      <c r="CR41" s="3">
+        <v>1323.61</v>
+      </c>
+      <c r="CS41" s="3">
+        <v>2054.88</v>
+      </c>
+    </row>
+    <row r="42" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B42" s="3">
         <v>1021.09</v>
       </c>
@@ -10283,8 +11445,17 @@
       <c r="CD42" s="3">
         <v>1924.98</v>
       </c>
-    </row>
-    <row r="43" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ42" s="3">
+        <v>716.05</v>
+      </c>
+      <c r="CR42" s="3">
+        <v>1643.19</v>
+      </c>
+      <c r="CS42" s="3">
+        <v>1946.8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>1029.45</v>
       </c>
@@ -10345,8 +11516,17 @@
       <c r="CD43" s="3">
         <v>1902.17</v>
       </c>
-    </row>
-    <row r="44" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ43" s="3">
+        <v>733.98</v>
+      </c>
+      <c r="CR43" s="3">
+        <v>1782.7</v>
+      </c>
+      <c r="CS43" s="3">
+        <v>2034.53</v>
+      </c>
+    </row>
+    <row r="44" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>1034.01</v>
       </c>
@@ -10407,8 +11587,17 @@
       <c r="CD44" s="3">
         <v>1893.58</v>
       </c>
-    </row>
-    <row r="45" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ44" s="3">
+        <v>695.96</v>
+      </c>
+      <c r="CR44" s="3">
+        <v>1771.94</v>
+      </c>
+      <c r="CS44" s="3">
+        <v>1965.02</v>
+      </c>
+    </row>
+    <row r="45" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
         <v>928</v>
       </c>
@@ -10469,8 +11658,17 @@
       <c r="CD45" s="3">
         <v>1901.42</v>
       </c>
-    </row>
-    <row r="46" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ45" s="3">
+        <v>704.38</v>
+      </c>
+      <c r="CR45" s="3">
+        <v>1789.21</v>
+      </c>
+      <c r="CS45" s="3">
+        <v>1968.98</v>
+      </c>
+    </row>
+    <row r="46" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B46" s="3">
         <v>991.96</v>
       </c>
@@ -10531,8 +11729,17 @@
       <c r="CD46" s="3">
         <v>1888.98</v>
       </c>
-    </row>
-    <row r="47" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ46" s="3">
+        <v>697.85</v>
+      </c>
+      <c r="CR46" s="3">
+        <v>1786.13</v>
+      </c>
+      <c r="CS46" s="3">
+        <v>1977.33</v>
+      </c>
+    </row>
+    <row r="47" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3">
         <v>1024.1500000000001</v>
       </c>
@@ -10593,8 +11800,17 @@
       <c r="CD47" s="3">
         <v>1852.97</v>
       </c>
-    </row>
-    <row r="48" spans="2:83" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ47" s="3">
+        <v>692.32</v>
+      </c>
+      <c r="CR47" s="3">
+        <v>1838.67</v>
+      </c>
+      <c r="CS47" s="3">
+        <v>2043.48</v>
+      </c>
+    </row>
+    <row r="48" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B48" s="3">
         <v>986.51</v>
       </c>
@@ -10652,8 +11868,17 @@
       <c r="CD48" s="3">
         <v>1965.8</v>
       </c>
-    </row>
-    <row r="49" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ48" s="3">
+        <v>707.57</v>
+      </c>
+      <c r="CR48" s="3">
+        <v>1800.44</v>
+      </c>
+      <c r="CS48" s="3">
+        <v>1904.33</v>
+      </c>
+    </row>
+    <row r="49" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B49" s="3">
         <v>976.08</v>
       </c>
@@ -10711,8 +11936,17 @@
       <c r="CD49" s="3">
         <v>1312.26</v>
       </c>
-    </row>
-    <row r="50" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ49" s="3">
+        <v>710.98</v>
+      </c>
+      <c r="CR49" s="3">
+        <v>1757.34</v>
+      </c>
+      <c r="CS49" s="3">
+        <v>1746.61</v>
+      </c>
+    </row>
+    <row r="50" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B50" s="3">
         <v>971.95</v>
       </c>
@@ -10760,8 +11994,14 @@
       <c r="CI50"/>
       <c r="CJ50"/>
       <c r="CK50"/>
-    </row>
-    <row r="51" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ50" s="3">
+        <v>702.16</v>
+      </c>
+      <c r="CR50" s="3">
+        <v>1779.59</v>
+      </c>
+    </row>
+    <row r="51" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51" s="3">
         <v>1007.79</v>
       </c>
@@ -10809,8 +12049,14 @@
       <c r="CI51" s="2"/>
       <c r="CJ51" s="2"/>
       <c r="CK51" s="2"/>
-    </row>
-    <row r="52" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ51" s="3">
+        <v>685.06</v>
+      </c>
+      <c r="CR51" s="3">
+        <v>1786.74</v>
+      </c>
+    </row>
+    <row r="52" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
         <v>1012.41</v>
       </c>
@@ -10850,8 +12096,14 @@
       <c r="CC52" s="3">
         <v>1389.94</v>
       </c>
-    </row>
-    <row r="53" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ52" s="3">
+        <v>675.48</v>
+      </c>
+      <c r="CR52" s="3">
+        <v>1825.22</v>
+      </c>
+    </row>
+    <row r="53" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B53" s="3">
         <v>1021.28</v>
       </c>
@@ -10891,8 +12143,14 @@
       <c r="CC53" s="3">
         <v>1364.86</v>
       </c>
-    </row>
-    <row r="54" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ53" s="3">
+        <v>680.16</v>
+      </c>
+      <c r="CR53" s="3">
+        <v>1797.32</v>
+      </c>
+    </row>
+    <row r="54" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B54" s="3">
         <v>1017.08</v>
       </c>
@@ -10932,8 +12190,14 @@
       <c r="CC54" s="3">
         <v>1411.1</v>
       </c>
-    </row>
-    <row r="55" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ54" s="3">
+        <v>679.18</v>
+      </c>
+      <c r="CR54" s="3">
+        <v>1858.2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
         <v>993.91</v>
       </c>
@@ -10973,8 +12237,14 @@
       <c r="CC55" s="3">
         <v>1452.08</v>
       </c>
-    </row>
-    <row r="56" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ55" s="3">
+        <v>649.1</v>
+      </c>
+      <c r="CR55" s="3">
+        <v>1791.23</v>
+      </c>
+    </row>
+    <row r="56" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B56" s="3">
         <v>981.47</v>
       </c>
@@ -11014,8 +12284,14 @@
       <c r="CC56" s="3">
         <v>1509.07</v>
       </c>
-    </row>
-    <row r="57" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ56" s="3">
+        <v>677.5</v>
+      </c>
+      <c r="CR56" s="3">
+        <v>1819.72</v>
+      </c>
+    </row>
+    <row r="57" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B57" s="3">
         <v>1006.61</v>
       </c>
@@ -11055,8 +12331,14 @@
       <c r="CC57" s="3">
         <v>1517.25</v>
       </c>
-    </row>
-    <row r="58" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ57" s="3">
+        <v>677.82</v>
+      </c>
+      <c r="CR57" s="3">
+        <v>1791.75</v>
+      </c>
+    </row>
+    <row r="58" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B58" s="3">
         <v>999.85</v>
       </c>
@@ -11096,8 +12378,14 @@
       <c r="CC58" s="3">
         <v>1482.02</v>
       </c>
-    </row>
-    <row r="59" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ58" s="3">
+        <v>688.8</v>
+      </c>
+      <c r="CR58" s="3">
+        <v>1642.9</v>
+      </c>
+    </row>
+    <row r="59" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B59" s="3">
         <v>1023.31</v>
       </c>
@@ -11137,8 +12425,14 @@
       <c r="CC59" s="3">
         <v>1443.27</v>
       </c>
-    </row>
-    <row r="60" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ59" s="3">
+        <v>691.09</v>
+      </c>
+      <c r="CR59" s="3">
+        <v>1670.83</v>
+      </c>
+    </row>
+    <row r="60" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B60" s="3">
         <v>1039.8499999999999</v>
       </c>
@@ -11178,8 +12472,14 @@
       <c r="CC60" s="3">
         <v>1375.78</v>
       </c>
-    </row>
-    <row r="61" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ60" s="3">
+        <v>671.71</v>
+      </c>
+      <c r="CR60" s="3">
+        <v>1698.1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="3">
         <v>1009.16</v>
       </c>
@@ -11219,8 +12519,14 @@
       <c r="CC61" s="3">
         <v>1523.62</v>
       </c>
-    </row>
-    <row r="62" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ61" s="3">
+        <v>761.2</v>
+      </c>
+      <c r="CR61" s="3">
+        <v>1746.08</v>
+      </c>
+    </row>
+    <row r="62" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
         <v>1005.45</v>
       </c>
@@ -11260,8 +12566,14 @@
       <c r="CC62" s="3">
         <v>1489.29</v>
       </c>
-    </row>
-    <row r="63" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ62" s="3">
+        <v>778.26</v>
+      </c>
+      <c r="CR62" s="3">
+        <v>1720.59</v>
+      </c>
+    </row>
+    <row r="63" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="3">
         <v>962.42</v>
       </c>
@@ -11301,8 +12613,14 @@
       <c r="CC63" s="3">
         <v>1505.33</v>
       </c>
-    </row>
-    <row r="64" spans="2:89" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ63" s="3">
+        <v>768.86</v>
+      </c>
+      <c r="CR63" s="3">
+        <v>1399.89</v>
+      </c>
+    </row>
+    <row r="64" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <v>983.12</v>
       </c>
@@ -11342,8 +12660,14 @@
       <c r="CC64" s="3">
         <v>1470.58</v>
       </c>
-    </row>
-    <row r="65" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ64" s="3">
+        <v>782.24</v>
+      </c>
+      <c r="CR64" s="3">
+        <v>1397.22</v>
+      </c>
+    </row>
+    <row r="65" spans="2:96" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>999.38</v>
       </c>
@@ -11383,8 +12707,14 @@
       <c r="CC65" s="3">
         <v>1528.09</v>
       </c>
-    </row>
-    <row r="66" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ65" s="3">
+        <v>762.9</v>
+      </c>
+      <c r="CR65" s="3">
+        <v>1408.45</v>
+      </c>
+    </row>
+    <row r="66" spans="2:96" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
         <v>1010.43</v>
       </c>
@@ -11424,8 +12754,14 @@
       <c r="CC66" s="3">
         <v>1524.02</v>
       </c>
-    </row>
-    <row r="67" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ66" s="3">
+        <v>770.61</v>
+      </c>
+      <c r="CR66" s="3">
+        <v>1366.78</v>
+      </c>
+    </row>
+    <row r="67" spans="2:96" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B67" s="3">
         <v>993.74</v>
       </c>
@@ -11465,8 +12801,14 @@
       <c r="CC67" s="3">
         <v>1501.47</v>
       </c>
-    </row>
-    <row r="68" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ67" s="3">
+        <v>780.77</v>
+      </c>
+      <c r="CR67" s="3">
+        <v>1389.18</v>
+      </c>
+    </row>
+    <row r="68" spans="2:96" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B68" s="3">
         <v>1020.2</v>
       </c>
@@ -11506,8 +12848,14 @@
       <c r="CC68" s="3">
         <v>1469.78</v>
       </c>
-    </row>
-    <row r="69" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ68" s="3">
+        <v>759.17</v>
+      </c>
+      <c r="CR68" s="3">
+        <v>1411.34</v>
+      </c>
+    </row>
+    <row r="69" spans="2:96" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B69" s="3">
         <v>1003.5</v>
       </c>
@@ -11547,8 +12895,14 @@
       <c r="CC69" s="3">
         <v>1442.17</v>
       </c>
-    </row>
-    <row r="70" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ69" s="3">
+        <v>775.31</v>
+      </c>
+      <c r="CR69" s="3">
+        <v>1481.14</v>
+      </c>
+    </row>
+    <row r="70" spans="2:96" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B70" s="3">
         <v>973.78</v>
       </c>
@@ -11588,8 +12942,14 @@
       <c r="CC70" s="3">
         <v>1428.34</v>
       </c>
-    </row>
-    <row r="71" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ70" s="3">
+        <v>792.3</v>
+      </c>
+      <c r="CR70" s="3">
+        <v>1449.34</v>
+      </c>
+    </row>
+    <row r="71" spans="2:96" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B71" s="3">
         <v>977.35</v>
       </c>
@@ -11611,8 +12971,11 @@
       <c r="CB71" s="3">
         <v>696.36</v>
       </c>
-    </row>
-    <row r="72" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ71" s="3">
+        <v>776.29</v>
+      </c>
+    </row>
+    <row r="72" spans="2:96" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B72" s="3">
         <v>975.93</v>
       </c>
@@ -11634,8 +12997,11 @@
       <c r="CB72" s="3">
         <v>696.85</v>
       </c>
-    </row>
-    <row r="73" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ72" s="3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="73" spans="2:96" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B73" s="3">
         <v>989.59</v>
       </c>
@@ -11657,8 +13023,11 @@
       <c r="CB73" s="3">
         <v>690.98</v>
       </c>
-    </row>
-    <row r="74" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ73" s="3">
+        <v>765.7</v>
+      </c>
+    </row>
+    <row r="74" spans="2:96" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B74" s="3">
         <v>1008.21</v>
       </c>
@@ -11680,8 +13049,11 @@
       <c r="CB74" s="3">
         <v>720.62</v>
       </c>
-    </row>
-    <row r="75" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ74" s="3">
+        <v>771.01</v>
+      </c>
+    </row>
+    <row r="75" spans="2:96" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B75" s="3">
         <v>1013.99</v>
       </c>
@@ -11703,8 +13075,11 @@
       <c r="CB75" s="3">
         <v>702.02</v>
       </c>
-    </row>
-    <row r="76" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ75" s="3">
+        <v>735.51</v>
+      </c>
+    </row>
+    <row r="76" spans="2:96" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B76" s="3">
         <v>987.56</v>
       </c>
@@ -11726,8 +13101,11 @@
       <c r="CB76" s="3">
         <v>706.47</v>
       </c>
-    </row>
-    <row r="77" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ76" s="3">
+        <v>740.65</v>
+      </c>
+    </row>
+    <row r="77" spans="2:96" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B77" s="3">
         <v>994.07</v>
       </c>
@@ -11749,8 +13127,11 @@
       <c r="CB77" s="3">
         <v>693.49</v>
       </c>
-    </row>
-    <row r="78" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ77" s="3">
+        <v>738.25</v>
+      </c>
+    </row>
+    <row r="78" spans="2:96" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B78" s="3">
         <v>1000.45</v>
       </c>
@@ -11772,8 +13153,11 @@
       <c r="CB78" s="3">
         <v>686.09</v>
       </c>
-    </row>
-    <row r="79" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ78" s="3">
+        <v>734.89</v>
+      </c>
+    </row>
+    <row r="79" spans="2:96" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B79" s="3">
         <v>970.35</v>
       </c>
@@ -11795,8 +13179,11 @@
       <c r="CB79" s="3">
         <v>828.05</v>
       </c>
-    </row>
-    <row r="80" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ79" s="3">
+        <v>734.35</v>
+      </c>
+    </row>
+    <row r="80" spans="2:96" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B80" s="3">
         <v>1000.07</v>
       </c>
@@ -11818,8 +13205,11 @@
       <c r="CB80" s="3">
         <v>804.67</v>
       </c>
-    </row>
-    <row r="81" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ80" s="3">
+        <v>747.83</v>
+      </c>
+    </row>
+    <row r="81" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B81" s="3">
         <v>1010.66</v>
       </c>
@@ -11841,8 +13231,11 @@
       <c r="CB81" s="3">
         <v>796.15</v>
       </c>
-    </row>
-    <row r="82" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ81" s="3">
+        <v>746.98</v>
+      </c>
+    </row>
+    <row r="82" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B82" s="3">
         <v>939.4</v>
       </c>
@@ -11864,8 +13257,11 @@
       <c r="CB82" s="3">
         <v>754.19</v>
       </c>
-    </row>
-    <row r="83" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ82" s="3">
+        <v>718.3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B83" s="3">
         <v>1011.69</v>
       </c>
@@ -11887,8 +13283,11 @@
       <c r="CB83" s="3">
         <v>761.44</v>
       </c>
-    </row>
-    <row r="84" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ83" s="3">
+        <v>708.81</v>
+      </c>
+    </row>
+    <row r="84" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B84" s="3">
         <v>1000.56</v>
       </c>
@@ -11910,8 +13309,11 @@
       <c r="CB84" s="3">
         <v>732.66</v>
       </c>
-    </row>
-    <row r="85" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ84" s="3">
+        <v>702.32</v>
+      </c>
+    </row>
+    <row r="85" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B85" s="3">
         <v>959.13</v>
       </c>
@@ -11933,8 +13335,11 @@
       <c r="CB85" s="3">
         <v>716.51</v>
       </c>
-    </row>
-    <row r="86" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ85" s="3">
+        <v>742.63</v>
+      </c>
+    </row>
+    <row r="86" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B86" s="3">
         <v>1053.6500000000001</v>
       </c>
@@ -11956,8 +13361,11 @@
       <c r="CB86" s="3">
         <v>703.22</v>
       </c>
-    </row>
-    <row r="87" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ86" s="3">
+        <v>742.95</v>
+      </c>
+    </row>
+    <row r="87" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B87" s="3">
         <v>1060.02</v>
       </c>
@@ -11979,8 +13387,11 @@
       <c r="CB87" s="3">
         <v>697.91</v>
       </c>
-    </row>
-    <row r="88" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ87" s="3">
+        <v>765.72</v>
+      </c>
+    </row>
+    <row r="88" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B88" s="3">
         <v>1096.07</v>
       </c>
@@ -12002,8 +13413,11 @@
       <c r="CB88" s="3">
         <v>707.66</v>
       </c>
-    </row>
-    <row r="89" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ88" s="3">
+        <v>774.93</v>
+      </c>
+    </row>
+    <row r="89" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B89" s="3">
         <v>1096.1199999999999</v>
       </c>
@@ -12025,8 +13439,11 @@
       <c r="CB89" s="3">
         <v>696.32</v>
       </c>
-    </row>
-    <row r="90" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ89" s="3">
+        <v>767.4</v>
+      </c>
+    </row>
+    <row r="90" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B90" s="3">
         <v>1016.46</v>
       </c>
@@ -12048,8 +13465,11 @@
       <c r="CB90" s="3">
         <v>668.47</v>
       </c>
-    </row>
-    <row r="91" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ90" s="3">
+        <v>747.61</v>
+      </c>
+    </row>
+    <row r="91" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B91" s="3">
         <v>1006.32</v>
       </c>
@@ -12071,8 +13491,11 @@
       <c r="CB91" s="3">
         <v>669.8</v>
       </c>
-    </row>
-    <row r="92" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ91" s="3">
+        <v>743.69</v>
+      </c>
+    </row>
+    <row r="92" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B92" s="3">
         <v>1001.69</v>
       </c>
@@ -12094,8 +13517,11 @@
       <c r="CB92" s="3">
         <v>713.84</v>
       </c>
-    </row>
-    <row r="93" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ92" s="3">
+        <v>785.72</v>
+      </c>
+    </row>
+    <row r="93" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B93" s="3">
         <v>976.83</v>
       </c>
@@ -12117,8 +13543,11 @@
       <c r="CB93" s="3">
         <v>713.88</v>
       </c>
-    </row>
-    <row r="94" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ93" s="3">
+        <v>763.96</v>
+      </c>
+    </row>
+    <row r="94" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B94" s="3">
         <v>980.07</v>
       </c>
@@ -12140,8 +13569,11 @@
       <c r="CB94" s="3">
         <v>711.1</v>
       </c>
-    </row>
-    <row r="95" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ94" s="3">
+        <v>862.02</v>
+      </c>
+    </row>
+    <row r="95" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B95" s="3">
         <v>1004.12</v>
       </c>
@@ -12163,8 +13595,11 @@
       <c r="CB95" s="3">
         <v>692.86</v>
       </c>
-    </row>
-    <row r="96" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ95" s="3">
+        <v>844.44</v>
+      </c>
+    </row>
+    <row r="96" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B96" s="3">
         <v>1027.48</v>
       </c>
@@ -12186,8 +13621,11 @@
       <c r="CB96" s="3">
         <v>717.09</v>
       </c>
-    </row>
-    <row r="97" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ96" s="3">
+        <v>785.5</v>
+      </c>
+    </row>
+    <row r="97" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B97" s="3">
         <v>1024.45</v>
       </c>
@@ -12209,8 +13647,11 @@
       <c r="CB97" s="3">
         <v>756.64</v>
       </c>
-    </row>
-    <row r="98" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ97" s="3">
+        <v>803.22</v>
+      </c>
+    </row>
+    <row r="98" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B98" s="3">
         <v>1090.22</v>
       </c>
@@ -12232,8 +13673,11 @@
       <c r="CB98" s="3">
         <v>736.87</v>
       </c>
-    </row>
-    <row r="99" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ98" s="3">
+        <v>793.45</v>
+      </c>
+    </row>
+    <row r="99" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B99" s="3">
         <v>1095.31</v>
       </c>
@@ -12255,8 +13699,11 @@
       <c r="CB99" s="3">
         <v>730.11</v>
       </c>
-    </row>
-    <row r="100" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ99" s="3">
+        <v>802.82</v>
+      </c>
+    </row>
+    <row r="100" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B100" s="3">
         <v>1062.24</v>
       </c>
@@ -12278,8 +13725,11 @@
       <c r="CB100" s="3">
         <v>766.41</v>
       </c>
-    </row>
-    <row r="101" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ100" s="3">
+        <v>804.18</v>
+      </c>
+    </row>
+    <row r="101" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B101" s="3">
         <v>1063.31</v>
       </c>
@@ -12301,8 +13751,11 @@
       <c r="CB101" s="3">
         <v>745.14</v>
       </c>
-    </row>
-    <row r="102" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ101" s="3">
+        <v>783.76</v>
+      </c>
+    </row>
+    <row r="102" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B102" s="3">
         <v>1053.07</v>
       </c>
@@ -12324,8 +13777,11 @@
       <c r="CB102" s="3">
         <v>759.17</v>
       </c>
-    </row>
-    <row r="103" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ102" s="3">
+        <v>756.27</v>
+      </c>
+    </row>
+    <row r="103" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B103" s="3">
         <v>1083.93</v>
       </c>
@@ -12347,8 +13803,11 @@
       <c r="CB103" s="3">
         <v>753.95</v>
       </c>
-    </row>
-    <row r="104" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ103" s="3">
+        <v>779.46</v>
+      </c>
+    </row>
+    <row r="104" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B104" s="3">
         <v>1015.81</v>
       </c>
@@ -12370,8 +13829,11 @@
       <c r="CB104" s="3">
         <v>745.14</v>
       </c>
-    </row>
-    <row r="105" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ104" s="3">
+        <v>802.25</v>
+      </c>
+    </row>
+    <row r="105" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B105" s="3">
         <v>1024.08</v>
       </c>
@@ -12393,8 +13855,11 @@
       <c r="CB105" s="3">
         <v>744.02</v>
       </c>
-    </row>
-    <row r="106" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ105" s="3">
+        <v>726.33</v>
+      </c>
+    </row>
+    <row r="106" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B106" s="3">
         <v>1009.2</v>
       </c>
@@ -12416,8 +13881,11 @@
       <c r="CB106" s="3">
         <v>772.78</v>
       </c>
-    </row>
-    <row r="107" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ106" s="3">
+        <v>784.76</v>
+      </c>
+    </row>
+    <row r="107" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B107" s="3">
         <v>997.03</v>
       </c>
@@ -12439,8 +13907,11 @@
       <c r="CB107" s="3">
         <v>808.45</v>
       </c>
-    </row>
-    <row r="108" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ107" s="3">
+        <v>775.15</v>
+      </c>
+    </row>
+    <row r="108" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B108" s="3">
         <v>971.4</v>
       </c>
@@ -12462,8 +13933,11 @@
       <c r="CB108" s="3">
         <v>905.63</v>
       </c>
-    </row>
-    <row r="109" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ108" s="3">
+        <v>783.78</v>
+      </c>
+    </row>
+    <row r="109" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B109" s="3">
         <v>978.62</v>
       </c>
@@ -12485,8 +13959,11 @@
       <c r="CB109" s="3">
         <v>899.46</v>
       </c>
-    </row>
-    <row r="110" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ109" s="3">
+        <v>787.57</v>
+      </c>
+    </row>
+    <row r="110" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B110" s="3">
         <v>1018.57</v>
       </c>
@@ -12508,8 +13985,11 @@
       <c r="CB110" s="3">
         <v>849.66</v>
       </c>
-    </row>
-    <row r="111" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ110" s="3">
+        <v>765.45</v>
+      </c>
+    </row>
+    <row r="111" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B111" s="3">
         <v>1010.23</v>
       </c>
@@ -12531,8 +14011,11 @@
       <c r="CB111" s="3">
         <v>835.77</v>
       </c>
-    </row>
-    <row r="112" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ111" s="3">
+        <v>760.29</v>
+      </c>
+    </row>
+    <row r="112" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B112" s="3">
         <v>1026.03</v>
       </c>
@@ -12554,8 +14037,11 @@
       <c r="CB112" s="3">
         <v>809.91</v>
       </c>
-    </row>
-    <row r="113" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ112" s="3">
+        <v>757.05</v>
+      </c>
+    </row>
+    <row r="113" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B113" s="3">
         <v>1023.78</v>
       </c>
@@ -12577,8 +14063,11 @@
       <c r="CB113" s="3">
         <v>784.15</v>
       </c>
-    </row>
-    <row r="114" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ113" s="3">
+        <v>751.52</v>
+      </c>
+    </row>
+    <row r="114" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B114" s="3">
         <v>1012.81</v>
       </c>
@@ -12600,8 +14089,11 @@
       <c r="CB114" s="3">
         <v>742.04</v>
       </c>
-    </row>
-    <row r="115" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ114" s="3">
+        <v>772.14</v>
+      </c>
+    </row>
+    <row r="115" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B115" s="3">
         <v>976.66</v>
       </c>
@@ -12623,8 +14115,11 @@
       <c r="CB115" s="3">
         <v>740.9</v>
       </c>
-    </row>
-    <row r="116" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ115" s="3">
+        <v>779.87</v>
+      </c>
+    </row>
+    <row r="116" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B116" s="3">
         <v>995.65</v>
       </c>
@@ -12646,8 +14141,11 @@
       <c r="CB116" s="3">
         <v>739.3</v>
       </c>
-    </row>
-    <row r="117" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ116" s="3">
+        <v>775.09</v>
+      </c>
+    </row>
+    <row r="117" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B117" s="3">
         <v>1027.4000000000001</v>
       </c>
@@ -12669,8 +14167,11 @@
       <c r="CB117" s="3">
         <v>725.25</v>
       </c>
-    </row>
-    <row r="118" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ117" s="3">
+        <v>787.56</v>
+      </c>
+    </row>
+    <row r="118" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B118" s="3">
         <v>1045.68</v>
       </c>
@@ -12692,8 +14193,11 @@
       <c r="CB118" s="3">
         <v>741.39</v>
       </c>
-    </row>
-    <row r="119" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ118" s="3">
+        <v>713.88</v>
+      </c>
+    </row>
+    <row r="119" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B119" s="3">
         <v>1017.95</v>
       </c>
@@ -12715,8 +14219,11 @@
       <c r="CB119" s="3">
         <v>753.45</v>
       </c>
-    </row>
-    <row r="120" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ119" s="3">
+        <v>714.23</v>
+      </c>
+    </row>
+    <row r="120" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B120" s="3">
         <v>1202.02</v>
       </c>
@@ -12738,8 +14245,11 @@
       <c r="CB120" s="3">
         <v>744.71</v>
       </c>
-    </row>
-    <row r="121" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ120" s="3">
+        <v>710.2</v>
+      </c>
+    </row>
+    <row r="121" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B121" s="3">
         <v>1201.56</v>
       </c>
@@ -12761,8 +14271,11 @@
       <c r="CB121" s="3">
         <v>751.42</v>
       </c>
-    </row>
-    <row r="122" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ121" s="3">
+        <v>713.68</v>
+      </c>
+    </row>
+    <row r="122" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B122" s="3">
         <v>1200.68</v>
       </c>
@@ -12784,8 +14297,11 @@
       <c r="CB122" s="3">
         <v>749.17</v>
       </c>
-    </row>
-    <row r="123" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ122" s="3">
+        <v>704.8</v>
+      </c>
+    </row>
+    <row r="123" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B123" s="3">
         <v>1156.8699999999999</v>
       </c>
@@ -12807,8 +14323,11 @@
       <c r="CB123" s="3">
         <v>759.03</v>
       </c>
-    </row>
-    <row r="124" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ123" s="3">
+        <v>687.64</v>
+      </c>
+    </row>
+    <row r="124" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B124" s="3">
         <v>1181.49</v>
       </c>
@@ -12830,8 +14349,11 @@
       <c r="CB124" s="3">
         <v>759.98</v>
       </c>
-    </row>
-    <row r="125" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ124" s="3">
+        <v>701.86</v>
+      </c>
+    </row>
+    <row r="125" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B125" s="3">
         <v>1195.07</v>
       </c>
@@ -12853,8 +14375,11 @@
       <c r="CB125" s="3">
         <v>748.22</v>
       </c>
-    </row>
-    <row r="126" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ125" s="3">
+        <v>693.58</v>
+      </c>
+    </row>
+    <row r="126" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B126" s="3">
         <v>1218.1199999999999</v>
       </c>
@@ -12876,8 +14401,11 @@
       <c r="CB126" s="3">
         <v>630.85</v>
       </c>
-    </row>
-    <row r="127" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ126" s="3">
+        <v>696.07</v>
+      </c>
+    </row>
+    <row r="127" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B127" s="3">
         <v>1227.24</v>
       </c>
@@ -12899,8 +14427,11 @@
       <c r="CB127" s="3">
         <v>668.58</v>
       </c>
-    </row>
-    <row r="128" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ127" s="3">
+        <v>720.59</v>
+      </c>
+    </row>
+    <row r="128" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B128" s="3">
         <v>1197.3499999999999</v>
       </c>
@@ -12922,8 +14453,11 @@
       <c r="CB128" s="3">
         <v>658.69</v>
       </c>
-    </row>
-    <row r="129" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ128" s="3">
+        <v>707.47</v>
+      </c>
+    </row>
+    <row r="129" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B129" s="3">
         <v>1192.1500000000001</v>
       </c>
@@ -12945,8 +14479,11 @@
       <c r="CB129" s="3">
         <v>672.98</v>
       </c>
-    </row>
-    <row r="130" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ129" s="3">
+        <v>679.99</v>
+      </c>
+    </row>
+    <row r="130" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B130" s="3">
         <v>1201.05</v>
       </c>
@@ -12968,8 +14505,11 @@
       <c r="CB130" s="3">
         <v>674.54</v>
       </c>
-    </row>
-    <row r="131" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ130" s="3">
+        <v>707.79</v>
+      </c>
+    </row>
+    <row r="131" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B131" s="3">
         <v>1172.1400000000001</v>
       </c>
@@ -12991,8 +14531,11 @@
       <c r="CB131" s="3">
         <v>671.29</v>
       </c>
-    </row>
-    <row r="132" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ131" s="3">
+        <v>704.86</v>
+      </c>
+    </row>
+    <row r="132" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B132" s="3">
         <v>1175.98</v>
       </c>
@@ -13014,8 +14557,11 @@
       <c r="CB132" s="3">
         <v>660.98</v>
       </c>
-    </row>
-    <row r="133" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ132" s="3">
+        <v>705.09</v>
+      </c>
+    </row>
+    <row r="133" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B133" s="3">
         <v>1189.6099999999999</v>
       </c>
@@ -13037,8 +14583,11 @@
       <c r="CB133" s="3">
         <v>672.96</v>
       </c>
-    </row>
-    <row r="134" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CQ133" s="3">
+        <v>731.25</v>
+      </c>
+    </row>
+    <row r="134" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B134" s="3">
         <v>1193.51</v>
       </c>
@@ -13060,12 +14609,15 @@
       <c r="CB134" s="3">
         <v>642.05999999999995</v>
       </c>
-    </row>
-    <row r="135" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="136" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="137" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="138" spans="2:80" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="139" spans="2:80" x14ac:dyDescent="0.35">
+      <c r="CQ134" s="3">
+        <v>706.96</v>
+      </c>
+    </row>
+    <row r="135" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="2:95" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" spans="2:95" x14ac:dyDescent="0.35">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -13127,7 +14679,7 @@
       <c r="BI139" s="1"/>
       <c r="BJ139" s="1"/>
     </row>
-    <row r="140" spans="2:80" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:95" x14ac:dyDescent="0.35">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -13189,7 +14741,7 @@
       <c r="BI140" s="1"/>
       <c r="BJ140" s="1"/>
     </row>
-    <row r="141" spans="2:80" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:95" x14ac:dyDescent="0.35">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -13251,7 +14803,7 @@
       <c r="BI141" s="1"/>
       <c r="BJ141" s="1"/>
     </row>
-    <row r="142" spans="2:80" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:95" x14ac:dyDescent="0.35">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -13298,7 +14850,7 @@
       <c r="BI142" s="1"/>
       <c r="BJ142" s="1"/>
     </row>
-    <row r="143" spans="2:80" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:95" x14ac:dyDescent="0.35">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -13345,7 +14897,7 @@
       <c r="BI143" s="1"/>
       <c r="BJ143" s="1"/>
     </row>
-    <row r="144" spans="2:80" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:95" x14ac:dyDescent="0.35">
       <c r="AF144" s="1"/>
       <c r="AG144" s="1"/>
       <c r="AH144" s="1"/>
@@ -16976,8 +18528,9 @@
       <c r="BJ253" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="CB2:CN2"/>
+    <mergeCell ref="CQ2:DC2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16987,10 +18540,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56E8001-F21C-419C-8F83-A2C49E4954F4}">
-  <dimension ref="A2:AJ15"/>
+  <dimension ref="A2:AJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AE40" sqref="AE40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17185,721 +18738,807 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2">
-        <v>1043.7671746000001</v>
+        <v>1420.1445492</v>
       </c>
       <c r="C4" s="2">
-        <v>541.62362370000005</v>
+        <v>707.46530099999995</v>
       </c>
       <c r="D4" s="2">
-        <v>403.57800859999998</v>
+        <v>524.77724669999998</v>
       </c>
       <c r="E4" s="2">
-        <v>287.19364460000003</v>
+        <v>417.05809010000002</v>
       </c>
       <c r="F4" s="2">
-        <v>277.23140330000001</v>
+        <v>329.00829160000001</v>
       </c>
       <c r="G4" s="2">
-        <v>253.27156389999999</v>
+        <v>181.72830060000001</v>
       </c>
       <c r="H4" s="2">
-        <v>214.72702090000001</v>
+        <v>127.2709344</v>
       </c>
       <c r="I4" s="2">
-        <v>188.29820910000001</v>
+        <v>95.148382999999995</v>
       </c>
       <c r="J4" s="2">
-        <v>186.2408015</v>
+        <v>84.501903999999996</v>
       </c>
       <c r="K4" s="2">
-        <v>184.34304359999999</v>
+        <v>71.799254300000001</v>
       </c>
       <c r="L4" s="2">
-        <v>177.94947999999999</v>
+        <v>62.464861900000002</v>
       </c>
       <c r="M4" s="2">
-        <v>180.3744901</v>
+        <v>55.742272900000003</v>
       </c>
       <c r="N4" s="2">
-        <v>175.06794790000001</v>
+        <v>41.263705999999999</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="3">
-        <v>1004.61</v>
+        <v>738.36</v>
       </c>
       <c r="R4" s="3">
-        <v>1935.99</v>
+        <v>1482.16</v>
       </c>
       <c r="S4" s="3">
-        <v>2598.1999999999998</v>
+        <v>1998.14</v>
       </c>
       <c r="T4" s="3">
-        <v>3651.11</v>
+        <v>2514.2199999999998</v>
       </c>
       <c r="U4" s="3">
-        <v>3782.31</v>
+        <v>3187.08</v>
       </c>
       <c r="V4" s="3">
-        <v>4140.13</v>
+        <v>5770.02</v>
       </c>
       <c r="W4" s="3">
-        <v>4883.3</v>
+        <v>8238.93</v>
       </c>
       <c r="X4" s="3">
-        <v>5568.7</v>
+        <v>11020.43</v>
       </c>
       <c r="Y4" s="3">
-        <v>5630.22</v>
+        <v>12408.9</v>
       </c>
       <c r="Z4" s="3">
-        <v>5688.18</v>
+        <v>14604.27</v>
       </c>
       <c r="AA4" s="3">
-        <v>5892.55</v>
+        <v>16786.650000000001</v>
       </c>
       <c r="AB4" s="3">
-        <v>5813.33</v>
+        <v>18811.150000000001</v>
       </c>
       <c r="AC4" s="3">
-        <v>5989.54</v>
+        <v>25411.58</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2">
-        <v>1344.571371</v>
+        <v>1043.7671746000001</v>
       </c>
       <c r="C5" s="2">
-        <v>683.44848709999997</v>
+        <v>541.62362370000005</v>
       </c>
       <c r="D5" s="2">
-        <v>491.68080609999998</v>
+        <v>403.57800859999998</v>
       </c>
       <c r="E5" s="2">
-        <v>396.3799272</v>
+        <v>287.19364460000003</v>
       </c>
       <c r="F5" s="2">
-        <v>323.02177549999999</v>
+        <v>277.23140330000001</v>
       </c>
       <c r="G5" s="2">
-        <v>200.98798959999999</v>
+        <v>253.27156389999999</v>
       </c>
       <c r="H5" s="2">
-        <v>154.59785679999999</v>
+        <v>214.72702090000001</v>
       </c>
       <c r="I5" s="2">
-        <v>115.99432830000001</v>
+        <v>188.29820910000001</v>
       </c>
       <c r="J5" s="2">
-        <v>115.2029709</v>
+        <v>186.2408015</v>
       </c>
       <c r="K5" s="2">
-        <v>109.7016514</v>
+        <v>184.34304359999999</v>
       </c>
       <c r="L5" s="2">
-        <v>106.9848475</v>
+        <v>177.94947999999999</v>
       </c>
       <c r="M5" s="2">
-        <v>114.6617182</v>
+        <v>180.3744901</v>
       </c>
       <c r="N5" s="2">
-        <v>119.5849667</v>
+        <v>175.06794790000001</v>
       </c>
       <c r="P5" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="3">
-        <v>781.38890624999965</v>
+        <v>1004.61</v>
       </c>
       <c r="R5" s="3">
-        <v>1536.6403124999999</v>
+        <v>1935.99</v>
       </c>
       <c r="S5" s="3">
-        <v>2133.3379069767443</v>
+        <v>2598.1999999999998</v>
       </c>
       <c r="T5" s="3">
-        <v>2658.5090624999998</v>
+        <v>3651.11</v>
       </c>
       <c r="U5" s="3">
-        <v>3244.6634615384614</v>
+        <v>3782.31</v>
       </c>
       <c r="V5" s="3">
-        <v>5221.3943749999999</v>
+        <v>4140.13</v>
       </c>
       <c r="W5" s="3">
-        <v>6805.9827272727271</v>
+        <v>4883.3</v>
       </c>
       <c r="X5" s="3">
-        <v>9062.8975000000009</v>
+        <v>5568.7</v>
       </c>
       <c r="Y5" s="3">
-        <v>9027.3799999999992</v>
+        <v>5630.22</v>
       </c>
       <c r="Z5" s="3">
-        <v>9053.9783333333344</v>
+        <v>5688.18</v>
       </c>
       <c r="AA5" s="3">
-        <v>9439.344000000001</v>
+        <v>5892.55</v>
       </c>
       <c r="AB5" s="3">
-        <v>8573.3150000000005</v>
+        <v>5813.33</v>
       </c>
       <c r="AC5" s="3">
-        <v>8637.1466666666674</v>
+        <v>5989.54</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>1071.6672612</v>
+        <v>1344.571371</v>
       </c>
       <c r="C6" s="2">
-        <v>529.56374740000001</v>
+        <v>683.44848709999997</v>
       </c>
       <c r="D6" s="2">
-        <v>369.62835799999999</v>
+        <v>491.68080609999998</v>
       </c>
       <c r="E6" s="2">
-        <v>281.5555918</v>
+        <v>396.3799272</v>
       </c>
       <c r="F6" s="2">
-        <v>239.8264211</v>
+        <v>323.02177549999999</v>
       </c>
       <c r="G6" s="2">
-        <v>149.60218459999999</v>
+        <v>200.98798959999999</v>
       </c>
       <c r="H6" s="2">
-        <v>106.76822009999999</v>
+        <v>154.59785679999999</v>
       </c>
       <c r="I6" s="2">
-        <v>85.661810099999997</v>
+        <v>115.99432830000001</v>
       </c>
       <c r="J6" s="2">
-        <v>87.795216800000006</v>
+        <v>115.2029709</v>
       </c>
       <c r="K6" s="2">
-        <v>68.875424800000005</v>
+        <v>109.7016514</v>
       </c>
       <c r="L6" s="2">
-        <v>67.065877700000001</v>
+        <v>106.9848475</v>
       </c>
       <c r="M6" s="2">
-        <v>56.771806599999998</v>
+        <v>114.6617182</v>
       </c>
       <c r="N6" s="2">
-        <v>51.3149388</v>
+        <v>119.5849667</v>
       </c>
       <c r="P6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="3">
-        <v>981.33250000000032</v>
+        <v>781.38890624999965</v>
       </c>
       <c r="R6" s="3">
-        <v>1983.6265624999999</v>
+        <v>1536.6403124999999</v>
       </c>
       <c r="S6" s="3">
-        <v>2841.5258139534885</v>
+        <v>2133.3379069767443</v>
       </c>
       <c r="T6" s="3">
-        <v>3730.1343750000001</v>
+        <v>2658.5090624999998</v>
       </c>
       <c r="U6" s="3">
-        <v>4378.0676923076926</v>
+        <v>3244.6634615384614</v>
       </c>
       <c r="V6" s="3">
-        <v>7019.6862500000007</v>
+        <v>5221.3943749999999</v>
       </c>
       <c r="W6" s="3">
-        <v>9803.6054545454554</v>
+        <v>6805.9827272727271</v>
       </c>
       <c r="X6" s="3">
-        <v>12308.986249999998</v>
+        <v>9062.8975000000009</v>
       </c>
       <c r="Y6" s="3">
-        <v>11828.464285714284</v>
+        <v>9027.3799999999992</v>
       </c>
       <c r="Z6" s="3">
-        <v>14633.095000000001</v>
+        <v>9053.9783333333344</v>
       </c>
       <c r="AA6" s="3">
-        <v>15271.769999999999</v>
+        <v>9439.344000000001</v>
       </c>
       <c r="AB6" s="3">
-        <v>17378.237499999999</v>
+        <v>8573.3150000000005</v>
       </c>
       <c r="AC6" s="3">
-        <v>20107.003333333334</v>
+        <v>8637.1466666666674</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2">
-        <v>1015.1907108</v>
+        <v>1071.6672612</v>
       </c>
       <c r="C7" s="2">
-        <v>514.97431129999995</v>
+        <v>529.56374740000001</v>
       </c>
       <c r="D7" s="2">
-        <v>364.32382660000002</v>
+        <v>369.62835799999999</v>
       </c>
       <c r="E7" s="2">
-        <v>289.71701780000001</v>
+        <v>281.5555918</v>
       </c>
       <c r="F7" s="2">
-        <v>221.7066317</v>
+        <v>239.8264211</v>
       </c>
       <c r="G7" s="2">
-        <v>140.91504789999999</v>
+        <v>149.60218459999999</v>
       </c>
       <c r="H7" s="2">
-        <v>103.82829270000001</v>
+        <v>106.76822009999999</v>
       </c>
       <c r="I7" s="2">
-        <v>76.905319700000007</v>
+        <v>85.661810099999997</v>
       </c>
       <c r="J7" s="2">
-        <v>78.022894699999995</v>
+        <v>87.795216800000006</v>
       </c>
       <c r="K7" s="2">
-        <v>68.399199199999998</v>
+        <v>68.875424800000005</v>
       </c>
       <c r="L7" s="2">
-        <v>64.968697800000001</v>
+        <v>67.065877700000001</v>
       </c>
       <c r="M7" s="2">
-        <v>57.703642899999998</v>
+        <v>56.771806599999998</v>
       </c>
       <c r="N7" s="2">
-        <v>49.710804500000002</v>
+        <v>51.3149388</v>
       </c>
       <c r="P7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="3">
-        <v>1037.7700781249998</v>
+        <v>981.33250000000032</v>
       </c>
       <c r="R7" s="3">
-        <v>2037.5092187499997</v>
+        <v>1983.6265624999999</v>
       </c>
       <c r="S7" s="3">
-        <v>2882.2546511627897</v>
+        <v>2841.5258139534885</v>
       </c>
       <c r="T7" s="3">
-        <v>3628.8459375000007</v>
+        <v>3730.1343750000001</v>
       </c>
       <c r="U7" s="3">
-        <v>4731.0473076923072</v>
+        <v>4378.0676923076926</v>
       </c>
       <c r="V7" s="3">
-        <v>7450.7731250000006</v>
+        <v>7019.6862500000007</v>
       </c>
       <c r="W7" s="3">
-        <v>10124.063636363639</v>
+        <v>9803.6054545454554</v>
       </c>
       <c r="X7" s="3">
-        <v>13688.836250000002</v>
+        <v>12308.986249999998</v>
       </c>
       <c r="Y7" s="3">
-        <v>13537.88</v>
+        <v>11828.464285714284</v>
       </c>
       <c r="Z7" s="3">
-        <v>15073.210000000001</v>
+        <v>14633.095000000001</v>
       </c>
       <c r="AA7" s="3">
-        <v>15951.848000000002</v>
+        <v>15271.769999999999</v>
       </c>
       <c r="AB7" s="3">
-        <v>17514.327499999999</v>
+        <v>17378.237499999999</v>
       </c>
       <c r="AC7" s="3">
-        <v>21104.813333333335</v>
+        <v>20107.003333333334</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1015.1907108</v>
+      </c>
+      <c r="C8" s="2">
+        <v>514.97431129999995</v>
+      </c>
+      <c r="D8" s="2">
+        <v>364.32382660000002</v>
+      </c>
+      <c r="E8" s="2">
+        <v>289.71701780000001</v>
+      </c>
+      <c r="F8" s="2">
+        <v>221.7066317</v>
+      </c>
+      <c r="G8" s="2">
+        <v>140.91504789999999</v>
+      </c>
+      <c r="H8" s="2">
+        <v>103.82829270000001</v>
+      </c>
+      <c r="I8" s="2">
+        <v>76.905319700000007</v>
+      </c>
+      <c r="J8" s="2">
+        <v>78.022894699999995</v>
+      </c>
+      <c r="K8" s="2">
+        <v>68.399199199999998</v>
+      </c>
+      <c r="L8" s="2">
+        <v>64.968697800000001</v>
+      </c>
+      <c r="M8" s="2">
+        <v>57.703642899999998</v>
+      </c>
+      <c r="N8" s="2">
+        <v>49.710804500000002</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1037.7700781249998</v>
+      </c>
+      <c r="R8" s="3">
+        <v>2037.5092187499997</v>
+      </c>
+      <c r="S8" s="3">
+        <v>2882.2546511627897</v>
+      </c>
+      <c r="T8" s="3">
+        <v>3628.8459375000007</v>
+      </c>
+      <c r="U8" s="3">
+        <v>4731.0473076923072</v>
+      </c>
+      <c r="V8" s="3">
+        <v>7450.7731250000006</v>
+      </c>
+      <c r="W8" s="3">
+        <v>10124.063636363639</v>
+      </c>
+      <c r="X8" s="3">
+        <v>13688.836250000002</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>13537.88</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>15073.210000000001</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>15951.848000000002</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>17514.327499999999</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>21104.813333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
         <v>995.68664060000003</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <v>518.34310159999995</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <v>334.7720233</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
         <v>280.22020839999999</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F9" s="2">
         <v>218.21667289999999</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G9" s="2">
         <v>149.52983810000001</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H9" s="2">
         <v>120.02213740000001</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I9" s="2">
         <v>82.941544899999997</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J9" s="2">
         <v>68.752750899999995</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K9" s="2">
         <v>60.059433900000002</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L9" s="2">
         <v>49.573067500000001</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M9" s="2">
         <v>48.780693900000003</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N9" s="2">
         <v>40.388834899999999</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q9" s="3">
         <v>1053.1199999999999</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R9" s="3">
         <v>2022.94</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S9" s="3">
         <v>3132.21</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T9" s="3">
         <v>3741.97</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U9" s="3">
         <v>4805.21</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V9" s="3">
         <v>7012.49</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W9" s="3">
         <v>8736.52</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X9" s="3">
         <v>12642.35</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y9" s="3">
         <v>15251.4</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z9" s="3">
         <v>17458.97</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA9" s="3">
         <v>21152.13</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB9" s="3">
         <v>21495.72</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AC9" s="3">
         <v>25962.03</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="P11" t="str">
-        <f>P4</f>
-        <v>Standard_F4s_v2 Enabled</v>
-      </c>
-      <c r="Q11" s="5">
-        <f>Q4/Table1[[#Headers],[1]]</f>
-        <v>1004.61</v>
-      </c>
-      <c r="R11" s="5">
-        <f>R4/Table1[[#Headers],[2]]</f>
-        <v>967.995</v>
-      </c>
-      <c r="S11" s="5">
-        <f>S4/Table1[[#Headers],[3]]</f>
-        <v>866.06666666666661</v>
-      </c>
-      <c r="T11" s="5">
-        <f>T4/Table1[[#Headers],[4]]</f>
-        <v>912.77750000000003</v>
-      </c>
-      <c r="U11" s="5">
-        <f>U4/Table1[[#Headers],[5]]</f>
-        <v>756.46199999999999</v>
-      </c>
-      <c r="V11" s="5">
-        <f>V4/Table1[[#Headers],[8]]</f>
-        <v>517.51625000000001</v>
-      </c>
-      <c r="W11" s="5">
-        <f>W4/Table1[[#Headers],[12]]</f>
-        <v>406.94166666666666</v>
-      </c>
-      <c r="X11" s="5">
-        <f>X4/Table1[[#Headers],[16]]</f>
-        <v>348.04374999999999</v>
-      </c>
-      <c r="Y11" s="5">
-        <f>Y4/Table1[[#Headers],[20]]</f>
-        <v>281.51100000000002</v>
-      </c>
-      <c r="Z11" s="5">
-        <f>Z4/Table1[[#Headers],[25]]</f>
-        <v>227.52720000000002</v>
-      </c>
-      <c r="AA11" s="5">
-        <f>AA4/Table1[[#Headers],[30]]</f>
-        <v>196.41833333333335</v>
-      </c>
-      <c r="AB11" s="5">
-        <f>AB4/Table1[[#Headers],[40]]</f>
-        <v>145.33324999999999</v>
-      </c>
-      <c r="AC11" s="5">
-        <f>AC4/Table1[[#Headers],[50]]</f>
-        <v>119.7908</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="P12" t="str">
-        <f t="shared" ref="P12:P15" si="0">P5</f>
-        <v>Standard_F16s_v2 Disabled</v>
+        <f>P5</f>
+        <v>Standard_F4s_v2 Enabled</v>
       </c>
       <c r="Q12" s="5">
         <f>Q5/Table1[[#Headers],[1]]</f>
-        <v>781.38890624999965</v>
+        <v>1004.61</v>
       </c>
       <c r="R12" s="5">
         <f>R5/Table1[[#Headers],[2]]</f>
-        <v>768.32015624999997</v>
+        <v>967.995</v>
       </c>
       <c r="S12" s="5">
         <f>S5/Table1[[#Headers],[3]]</f>
-        <v>711.11263565891477</v>
+        <v>866.06666666666661</v>
       </c>
       <c r="T12" s="5">
         <f>T5/Table1[[#Headers],[4]]</f>
-        <v>664.62726562499995</v>
+        <v>912.77750000000003</v>
       </c>
       <c r="U12" s="5">
         <f>U5/Table1[[#Headers],[5]]</f>
-        <v>648.93269230769226</v>
+        <v>756.46199999999999</v>
       </c>
       <c r="V12" s="5">
         <f>V5/Table1[[#Headers],[8]]</f>
-        <v>652.67429687499998</v>
+        <v>517.51625000000001</v>
       </c>
       <c r="W12" s="5">
         <f>W5/Table1[[#Headers],[12]]</f>
-        <v>567.16522727272729</v>
+        <v>406.94166666666666</v>
       </c>
       <c r="X12" s="5">
         <f>X5/Table1[[#Headers],[16]]</f>
-        <v>566.43109375000006</v>
+        <v>348.04374999999999</v>
       </c>
       <c r="Y12" s="5">
         <f>Y5/Table1[[#Headers],[20]]</f>
-        <v>451.36899999999997</v>
+        <v>281.51100000000002</v>
       </c>
       <c r="Z12" s="5">
         <f>Z5/Table1[[#Headers],[25]]</f>
-        <v>362.15913333333339</v>
+        <v>227.52720000000002</v>
       </c>
       <c r="AA12" s="5">
         <f>AA5/Table1[[#Headers],[30]]</f>
-        <v>314.64480000000003</v>
+        <v>196.41833333333335</v>
       </c>
       <c r="AB12" s="5">
         <f>AB5/Table1[[#Headers],[40]]</f>
-        <v>214.332875</v>
+        <v>145.33324999999999</v>
       </c>
       <c r="AC12" s="5">
         <f>AC5/Table1[[#Headers],[50]]</f>
-        <v>172.74293333333335</v>
+        <v>119.7908</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="P13" t="str">
-        <f t="shared" si="0"/>
-        <v>Standard_F16s_v2 Enabled</v>
+        <f t="shared" ref="P13:P16" si="0">P6</f>
+        <v>Standard_F16s_v2 Disabled</v>
       </c>
       <c r="Q13" s="5">
         <f>Q6/Table1[[#Headers],[1]]</f>
-        <v>981.33250000000032</v>
+        <v>781.38890624999965</v>
       </c>
       <c r="R13" s="5">
         <f>R6/Table1[[#Headers],[2]]</f>
-        <v>991.81328124999993</v>
+        <v>768.32015624999997</v>
       </c>
       <c r="S13" s="5">
         <f>S6/Table1[[#Headers],[3]]</f>
-        <v>947.17527131782947</v>
+        <v>711.11263565891477</v>
       </c>
       <c r="T13" s="5">
         <f>T6/Table1[[#Headers],[4]]</f>
-        <v>932.53359375000002</v>
+        <v>664.62726562499995</v>
       </c>
       <c r="U13" s="5">
         <f>U6/Table1[[#Headers],[5]]</f>
-        <v>875.6135384615385</v>
+        <v>648.93269230769226</v>
       </c>
       <c r="V13" s="5">
         <f>V6/Table1[[#Headers],[8]]</f>
-        <v>877.46078125000008</v>
+        <v>652.67429687499998</v>
       </c>
       <c r="W13" s="5">
         <f>W6/Table1[[#Headers],[12]]</f>
-        <v>816.96712121212124</v>
+        <v>567.16522727272729</v>
       </c>
       <c r="X13" s="5">
         <f>X6/Table1[[#Headers],[16]]</f>
-        <v>769.31164062499988</v>
+        <v>566.43109375000006</v>
       </c>
       <c r="Y13" s="5">
         <f>Y6/Table1[[#Headers],[20]]</f>
-        <v>591.42321428571427</v>
+        <v>451.36899999999997</v>
       </c>
       <c r="Z13" s="5">
         <f>Z6/Table1[[#Headers],[25]]</f>
-        <v>585.32380000000001</v>
+        <v>362.15913333333339</v>
       </c>
       <c r="AA13" s="5">
         <f>AA6/Table1[[#Headers],[30]]</f>
-        <v>509.05899999999997</v>
+        <v>314.64480000000003</v>
       </c>
       <c r="AB13" s="5">
         <f>AB6/Table1[[#Headers],[40]]</f>
-        <v>434.4559375</v>
+        <v>214.332875</v>
       </c>
       <c r="AC13" s="5">
         <f>AC6/Table1[[#Headers],[50]]</f>
-        <v>402.14006666666666</v>
+        <v>172.74293333333335</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="P14" t="str">
         <f t="shared" si="0"/>
-        <v>Standard_F32s_v2 Enabled</v>
+        <v>Standard_F16s_v2 Enabled</v>
       </c>
       <c r="Q14" s="5">
         <f>Q7/Table1[[#Headers],[1]]</f>
-        <v>1037.7700781249998</v>
+        <v>981.33250000000032</v>
       </c>
       <c r="R14" s="5">
         <f>R7/Table1[[#Headers],[2]]</f>
-        <v>1018.7546093749999</v>
+        <v>991.81328124999993</v>
       </c>
       <c r="S14" s="5">
         <f>S7/Table1[[#Headers],[3]]</f>
-        <v>960.75155038759658</v>
+        <v>947.17527131782947</v>
       </c>
       <c r="T14" s="5">
         <f>T7/Table1[[#Headers],[4]]</f>
-        <v>907.21148437500017</v>
+        <v>932.53359375000002</v>
       </c>
       <c r="U14" s="5">
         <f>U7/Table1[[#Headers],[5]]</f>
-        <v>946.20946153846148</v>
+        <v>875.6135384615385</v>
       </c>
       <c r="V14" s="5">
         <f>V7/Table1[[#Headers],[8]]</f>
-        <v>931.34664062500008</v>
+        <v>877.46078125000008</v>
       </c>
       <c r="W14" s="5">
         <f>W7/Table1[[#Headers],[12]]</f>
-        <v>843.67196969696988</v>
+        <v>816.96712121212124</v>
       </c>
       <c r="X14" s="5">
         <f>X7/Table1[[#Headers],[16]]</f>
-        <v>855.55226562500013</v>
+        <v>769.31164062499988</v>
       </c>
       <c r="Y14" s="5">
         <f>Y7/Table1[[#Headers],[20]]</f>
-        <v>676.89400000000001</v>
+        <v>591.42321428571427</v>
       </c>
       <c r="Z14" s="5">
         <f>Z7/Table1[[#Headers],[25]]</f>
-        <v>602.92840000000001</v>
+        <v>585.32380000000001</v>
       </c>
       <c r="AA14" s="5">
         <f>AA7/Table1[[#Headers],[30]]</f>
-        <v>531.72826666666674</v>
+        <v>509.05899999999997</v>
       </c>
       <c r="AB14" s="5">
         <f>AB7/Table1[[#Headers],[40]]</f>
-        <v>437.85818749999999</v>
+        <v>434.4559375</v>
       </c>
       <c r="AC14" s="5">
         <f>AC7/Table1[[#Headers],[50]]</f>
-        <v>422.09626666666668</v>
+        <v>402.14006666666666</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="P15" t="str">
         <f t="shared" si="0"/>
-        <v>Standard_F64s_v2 enabled</v>
+        <v>Standard_F32s_v2 Enabled</v>
       </c>
       <c r="Q15" s="5">
         <f>Q8/Table1[[#Headers],[1]]</f>
-        <v>1053.1199999999999</v>
+        <v>1037.7700781249998</v>
       </c>
       <c r="R15" s="5">
         <f>R8/Table1[[#Headers],[2]]</f>
-        <v>1011.47</v>
+        <v>1018.7546093749999</v>
       </c>
       <c r="S15" s="5">
         <f>S8/Table1[[#Headers],[3]]</f>
-        <v>1044.07</v>
+        <v>960.75155038759658</v>
       </c>
       <c r="T15" s="5">
         <f>T8/Table1[[#Headers],[4]]</f>
-        <v>935.49249999999995</v>
+        <v>907.21148437500017</v>
       </c>
       <c r="U15" s="5">
         <f>U8/Table1[[#Headers],[5]]</f>
-        <v>961.04200000000003</v>
+        <v>946.20946153846148</v>
       </c>
       <c r="V15" s="5">
         <f>V8/Table1[[#Headers],[8]]</f>
-        <v>876.56124999999997</v>
+        <v>931.34664062500008</v>
       </c>
       <c r="W15" s="5">
         <f>W8/Table1[[#Headers],[12]]</f>
-        <v>728.04333333333341</v>
+        <v>843.67196969696988</v>
       </c>
       <c r="X15" s="5">
         <f>X8/Table1[[#Headers],[16]]</f>
-        <v>790.14687500000002</v>
+        <v>855.55226562500013</v>
       </c>
       <c r="Y15" s="5">
         <f>Y8/Table1[[#Headers],[20]]</f>
-        <v>762.56999999999994</v>
+        <v>676.89400000000001</v>
       </c>
       <c r="Z15" s="5">
         <f>Z8/Table1[[#Headers],[25]]</f>
-        <v>698.35880000000009</v>
+        <v>602.92840000000001</v>
       </c>
       <c r="AA15" s="5">
         <f>AA8/Table1[[#Headers],[30]]</f>
-        <v>705.07100000000003</v>
+        <v>531.72826666666674</v>
       </c>
       <c r="AB15" s="5">
         <f>AB8/Table1[[#Headers],[40]]</f>
-        <v>537.39300000000003</v>
+        <v>437.85818749999999</v>
       </c>
       <c r="AC15" s="5">
         <f>AC8/Table1[[#Headers],[50]]</f>
+        <v>422.09626666666668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="P16" t="str">
+        <f t="shared" si="0"/>
+        <v>Standard_F64s_v2 enabled</v>
+      </c>
+      <c r="Q16" s="5">
+        <f>Q9/Table1[[#Headers],[1]]</f>
+        <v>1053.1199999999999</v>
+      </c>
+      <c r="R16" s="5">
+        <f>R9/Table1[[#Headers],[2]]</f>
+        <v>1011.47</v>
+      </c>
+      <c r="S16" s="5">
+        <f>S9/Table1[[#Headers],[3]]</f>
+        <v>1044.07</v>
+      </c>
+      <c r="T16" s="5">
+        <f>T9/Table1[[#Headers],[4]]</f>
+        <v>935.49249999999995</v>
+      </c>
+      <c r="U16" s="5">
+        <f>U9/Table1[[#Headers],[5]]</f>
+        <v>961.04200000000003</v>
+      </c>
+      <c r="V16" s="5">
+        <f>V9/Table1[[#Headers],[8]]</f>
+        <v>876.56124999999997</v>
+      </c>
+      <c r="W16" s="5">
+        <f>W9/Table1[[#Headers],[12]]</f>
+        <v>728.04333333333341</v>
+      </c>
+      <c r="X16" s="5">
+        <f>X9/Table1[[#Headers],[16]]</f>
+        <v>790.14687500000002</v>
+      </c>
+      <c r="Y16" s="5">
+        <f>Y9/Table1[[#Headers],[20]]</f>
+        <v>762.56999999999994</v>
+      </c>
+      <c r="Z16" s="5">
+        <f>Z9/Table1[[#Headers],[25]]</f>
+        <v>698.35880000000009</v>
+      </c>
+      <c r="AA16" s="5">
+        <f>AA9/Table1[[#Headers],[30]]</f>
+        <v>705.07100000000003</v>
+      </c>
+      <c r="AB16" s="5">
+        <f>AB9/Table1[[#Headers],[40]]</f>
+        <v>537.39300000000003</v>
+      </c>
+      <c r="AC16" s="5">
+        <f>AC9/Table1[[#Headers],[50]]</f>
         <v>519.24059999999997</v>
       </c>
     </row>

--- a/bench.xlsx
+++ b/bench.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chgeuer\Desktop\Azure Fast Track\#Moshik\SQream Technologies\src\ParallelDownload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2D437E-1521-480D-ACFD-4DF2490D6F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28E579E-A8D0-4CCD-9EFA-D9B925515D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{FEA465FA-9062-4B2B-9BE7-0A2529C1F021}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
-    <sheet name="diagrams" sheetId="3" r:id="rId2"/>
-    <sheet name="Interleaving" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="diagrams" sheetId="3" r:id="rId3"/>
+    <sheet name="Interleaving" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="38">
   <si>
     <t>Number of parallel downloads</t>
   </si>
@@ -147,6 +148,9 @@
   </si>
   <si>
     <t>Standard_NC16as_T4_v3</t>
+  </si>
+  <si>
+    <t>Standard_NC16as_T4_v3 different interleavint</t>
   </si>
 </sst>
 </file>
@@ -4737,15 +4741,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CE4B37-856E-40E0-9A51-108C0DDE3B53}">
-  <dimension ref="A1:DC253"/>
+  <dimension ref="A1:DQ253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CI2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="DC27" sqref="DC27"/>
+    <sheetView tabSelected="1" topLeftCell="CQ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="DE3" sqref="DE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:121" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5022,8 +5026,47 @@
       <c r="DC1">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.35">
+      <c r="DE1">
+        <v>1</v>
+      </c>
+      <c r="DF1">
+        <v>2</v>
+      </c>
+      <c r="DG1">
+        <v>3</v>
+      </c>
+      <c r="DH1">
+        <v>4</v>
+      </c>
+      <c r="DI1">
+        <v>5</v>
+      </c>
+      <c r="DJ1">
+        <v>8</v>
+      </c>
+      <c r="DK1">
+        <v>12</v>
+      </c>
+      <c r="DL1">
+        <v>16</v>
+      </c>
+      <c r="DM1">
+        <v>20</v>
+      </c>
+      <c r="DN1">
+        <v>25</v>
+      </c>
+      <c r="DO1">
+        <v>30</v>
+      </c>
+      <c r="DP1">
+        <v>40</v>
+      </c>
+      <c r="DQ1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:121" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5300,8 +5343,23 @@
       <c r="DA2" s="11"/>
       <c r="DB2" s="11"/>
       <c r="DC2" s="11"/>
-    </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.35">
+      <c r="DE2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="DF2" s="11"/>
+      <c r="DG2" s="11"/>
+      <c r="DH2" s="11"/>
+      <c r="DI2" s="11"/>
+      <c r="DJ2" s="11"/>
+      <c r="DK2" s="11"/>
+      <c r="DL2" s="11"/>
+      <c r="DM2" s="11"/>
+      <c r="DN2" s="11"/>
+      <c r="DO2" s="11"/>
+      <c r="DP2" s="11"/>
+      <c r="DQ2" s="11"/>
+    </row>
+    <row r="3" spans="1:121" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5578,8 +5636,47 @@
       <c r="DC3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.35">
+      <c r="DE3" t="s">
+        <v>7</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>7</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>7</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>7</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>7</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>7</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>7</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:121" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5857,8 +5954,47 @@
       <c r="DC4" s="2">
         <v>41.263705999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="DE4" s="2">
+        <v>1464.9472118000001</v>
+      </c>
+      <c r="DF4" s="2">
+        <v>631.54695119999997</v>
+      </c>
+      <c r="DG4" s="2">
+        <v>409.02662220000002</v>
+      </c>
+      <c r="DH4" s="2">
+        <v>337.38778960000002</v>
+      </c>
+      <c r="DI4" s="2">
+        <v>277.14549210000001</v>
+      </c>
+      <c r="DJ4" s="2">
+        <v>179.0648343</v>
+      </c>
+      <c r="DK4" s="2">
+        <v>127.70108999999999</v>
+      </c>
+      <c r="DL4" s="2">
+        <v>116.13859119999999</v>
+      </c>
+      <c r="DM4" s="2">
+        <v>100.8518369</v>
+      </c>
+      <c r="DN4" s="2">
+        <v>90.391719699999996</v>
+      </c>
+      <c r="DO4" s="2">
+        <v>76.993557800000005</v>
+      </c>
+      <c r="DP4" s="2">
+        <v>71.539347000000006</v>
+      </c>
+      <c r="DQ4" s="2">
+        <v>66.548583199999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -6135,8 +6271,47 @@
       <c r="DC5" s="3">
         <v>25411.58</v>
       </c>
-    </row>
-    <row r="6" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="DE5" s="3">
+        <v>715.78</v>
+      </c>
+      <c r="DF5" s="3">
+        <v>1660.33</v>
+      </c>
+      <c r="DG5" s="3">
+        <v>2563.59</v>
+      </c>
+      <c r="DH5" s="3">
+        <v>3107.93</v>
+      </c>
+      <c r="DI5" s="3">
+        <v>3783.49</v>
+      </c>
+      <c r="DJ5" s="3">
+        <v>5855.85</v>
+      </c>
+      <c r="DK5" s="3">
+        <v>8211.18</v>
+      </c>
+      <c r="DL5" s="3">
+        <v>9028.66</v>
+      </c>
+      <c r="DM5" s="3">
+        <v>10397.19</v>
+      </c>
+      <c r="DN5" s="3">
+        <v>11600.35</v>
+      </c>
+      <c r="DO5" s="3">
+        <v>13619.01</v>
+      </c>
+      <c r="DP5" s="3">
+        <v>14657.33</v>
+      </c>
+      <c r="DQ5" s="3">
+        <v>15756.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -6505,7 +6680,7 @@
         <v>25147.180000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>979.72</v>
       </c>
@@ -6783,7 +6958,7 @@
         <v>27764.78</v>
       </c>
     </row>
-    <row r="8" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>1044.97</v>
       </c>
@@ -7061,7 +7236,7 @@
         <v>29241.99</v>
       </c>
     </row>
-    <row r="9" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>1044.96</v>
       </c>
@@ -7339,7 +7514,7 @@
         <v>18434.77</v>
       </c>
     </row>
-    <row r="10" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>1019.69</v>
       </c>
@@ -7596,7 +7771,7 @@
         <v>5727.16</v>
       </c>
     </row>
-    <row r="11" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>937.43</v>
       </c>
@@ -7832,7 +8007,7 @@
         <v>5806.78</v>
       </c>
     </row>
-    <row r="12" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>1017.11</v>
       </c>
@@ -8047,7 +8222,7 @@
         <v>2071.79</v>
       </c>
     </row>
-    <row r="13" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>1015.52</v>
       </c>
@@ -8241,7 +8416,7 @@
         <v>5678.67</v>
       </c>
     </row>
-    <row r="14" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>1037.53</v>
       </c>
@@ -8414,7 +8589,7 @@
         <v>10838.14</v>
       </c>
     </row>
-    <row r="15" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>1038.3599999999999</v>
       </c>
@@ -8566,7 +8741,7 @@
         <v>8318.44</v>
       </c>
     </row>
-    <row r="16" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <v>1031.3599999999999</v>
       </c>
@@ -18528,9 +18703,10 @@
       <c r="BJ253" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="CB2:CN2"/>
     <mergeCell ref="CQ2:DC2"/>
+    <mergeCell ref="DE2:DQ2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18539,6 +18715,287 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C553ACEA-2BB5-473B-85A0-DC37F94CCE91}">
+  <dimension ref="A1:R19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1464.9472118000001</v>
+      </c>
+      <c r="C1">
+        <v>715.78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>631.54695119999997</v>
+      </c>
+      <c r="C2">
+        <v>1660.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>409.02662220000002</v>
+      </c>
+      <c r="C3">
+        <v>2563.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>337.38778960000002</v>
+      </c>
+      <c r="C4">
+        <v>3107.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>277.14549210000001</v>
+      </c>
+      <c r="C5">
+        <v>3783.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>179.0648343</v>
+      </c>
+      <c r="C6">
+        <v>5855.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>127.70108999999999</v>
+      </c>
+      <c r="C7">
+        <v>8211.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>116.13859119999999</v>
+      </c>
+      <c r="C8">
+        <v>9028.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>100.8518369</v>
+      </c>
+      <c r="C9">
+        <v>10397.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>90.391719699999996</v>
+      </c>
+      <c r="C10">
+        <v>11600.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>76.993557800000005</v>
+      </c>
+      <c r="C11">
+        <v>13619.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>71.539347000000006</v>
+      </c>
+      <c r="C12">
+        <v>14657.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>66.548583199999996</v>
+      </c>
+      <c r="C13">
+        <v>15756.55</v>
+      </c>
+    </row>
+    <row r="17" spans="6:18" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>12</v>
+      </c>
+      <c r="M17">
+        <v>16</v>
+      </c>
+      <c r="N17">
+        <v>20</v>
+      </c>
+      <c r="O17">
+        <v>25</v>
+      </c>
+      <c r="P17">
+        <v>30</v>
+      </c>
+      <c r="Q17">
+        <v>40</v>
+      </c>
+      <c r="R17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="6:18" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>1464.9472118000001</v>
+      </c>
+      <c r="G18">
+        <v>631.54695119999997</v>
+      </c>
+      <c r="H18">
+        <v>409.02662220000002</v>
+      </c>
+      <c r="I18">
+        <v>337.38778960000002</v>
+      </c>
+      <c r="J18">
+        <v>277.14549210000001</v>
+      </c>
+      <c r="K18">
+        <v>179.0648343</v>
+      </c>
+      <c r="L18">
+        <v>127.70108999999999</v>
+      </c>
+      <c r="M18">
+        <v>116.13859119999999</v>
+      </c>
+      <c r="N18">
+        <v>100.8518369</v>
+      </c>
+      <c r="O18">
+        <v>90.391719699999996</v>
+      </c>
+      <c r="P18">
+        <v>76.993557800000005</v>
+      </c>
+      <c r="Q18">
+        <v>71.539347000000006</v>
+      </c>
+      <c r="R18">
+        <v>66.548583199999996</v>
+      </c>
+    </row>
+    <row r="19" spans="6:18" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <v>715.78</v>
+      </c>
+      <c r="G19">
+        <v>1660.33</v>
+      </c>
+      <c r="H19">
+        <v>2563.59</v>
+      </c>
+      <c r="I19">
+        <v>3107.93</v>
+      </c>
+      <c r="J19">
+        <v>3783.49</v>
+      </c>
+      <c r="K19">
+        <v>5855.85</v>
+      </c>
+      <c r="L19">
+        <v>8211.18</v>
+      </c>
+      <c r="M19">
+        <v>9028.66</v>
+      </c>
+      <c r="N19">
+        <v>10397.19</v>
+      </c>
+      <c r="O19">
+        <v>11600.35</v>
+      </c>
+      <c r="P19">
+        <v>13619.01</v>
+      </c>
+      <c r="Q19">
+        <v>14657.33</v>
+      </c>
+      <c r="R19">
+        <v>15756.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56E8001-F21C-419C-8F83-A2C49E4954F4}">
   <dimension ref="A2:AJ16"/>
   <sheetViews>
@@ -19552,7 +20009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F40CBD-8CED-4E97-B310-54E8C632E12F}">
   <dimension ref="H13:S45"/>
   <sheetViews>
